--- a/기획폴더/RecipeTable.xlsx
+++ b/기획폴더/RecipeTable.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="pCS0CdagARTSxtaWN9rSkYI844k0URpIdXRgVdi6gvM="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="Ex1fhSwvDBFAYEr/vjXnKIzQl5Ri8/LoeDp1VuWAFAw="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="614">
   <si>
     <t>테이블 용도: 레시피의 데이터를 관리및 설정하는 테이블</t>
   </si>
@@ -81,7 +81,7 @@
 해당 값이 0일 겨우 사용하지 않음</t>
   </si>
   <si>
-    <t>AddFoodName</t>
+    <t>AddFood1</t>
   </si>
   <si>
     <t>Foodtype이 FoodAdd일 경우 사용
@@ -90,6 +90,9 @@
 해당 값이 0일 경우 사용하지 않음</t>
   </si>
   <si>
+    <t>AddFood2</t>
+  </si>
+  <si>
     <t>AddOuput</t>
   </si>
   <si>
@@ -123,6 +126,13 @@
     <t>맘파</t>
   </si>
   <si>
+    <t>칼럼 이름 변경: AddFoodName -&gt; AddFood1
+칼럼 추가: AddFood2</t>
+  </si>
+  <si>
+    <t>이현</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -150,6 +160,9 @@
     <t>38,57</t>
   </si>
   <si>
+    <t>42,45,57</t>
+  </si>
+  <si>
     <t>Fruit_Sandwich</t>
   </si>
   <si>
@@ -159,6 +172,9 @@
     <t>38,57,63</t>
   </si>
   <si>
+    <t>42,45,57,63</t>
+  </si>
+  <si>
     <t>Potato_Sandwich</t>
   </si>
   <si>
@@ -168,6 +184,9 @@
     <t>38,57,40</t>
   </si>
   <si>
+    <t>42,45,57,40</t>
+  </si>
+  <si>
     <t>Fish_Sandwich</t>
   </si>
   <si>
@@ -177,6 +196,9 @@
     <t>38,57,44</t>
   </si>
   <si>
+    <t>42,45,57,44</t>
+  </si>
+  <si>
     <t>Tomato_Sandwich</t>
   </si>
   <si>
@@ -186,6 +208,9 @@
     <t>38,57,62</t>
   </si>
   <si>
+    <t>42,45,57,62</t>
+  </si>
+  <si>
     <t>Meat_Sandwich</t>
   </si>
   <si>
@@ -261,6 +286,9 @@
     <t>51,40</t>
   </si>
   <si>
+    <t>45,62,40</t>
+  </si>
+  <si>
     <t>Cheese_Salad</t>
   </si>
   <si>
@@ -270,6 +298,9 @@
     <t>51,57</t>
   </si>
   <si>
+    <t>45,62,57</t>
+  </si>
+  <si>
     <t>Meat_Salad</t>
   </si>
   <si>
@@ -279,6 +310,9 @@
     <t>51,41</t>
   </si>
   <si>
+    <t>45,62,41</t>
+  </si>
+  <si>
     <t>Fish_Salad</t>
   </si>
   <si>
@@ -288,6 +322,9 @@
     <t>51,44</t>
   </si>
   <si>
+    <t>45,62,44</t>
+  </si>
+  <si>
     <t>Fruit_Salad</t>
   </si>
   <si>
@@ -297,6 +334,9 @@
     <t>51,63</t>
   </si>
   <si>
+    <t>45,62,63</t>
+  </si>
+  <si>
     <t>Grilled_Lettuce_Grilled_Meat</t>
   </si>
   <si>
@@ -522,336 +562,546 @@
     <t>24,23</t>
   </si>
   <si>
+    <t>Grilled_Meat_Grilled_Cheese</t>
+  </si>
+  <si>
     <t>구운 돼지 고기 + 구운 치즈</t>
   </si>
   <si>
     <t>28,35</t>
   </si>
   <si>
+    <t>Grilled_Meat_Grilled_Tomato</t>
+  </si>
+  <si>
     <t>구운 돼지 고기 + 구운 토마토</t>
   </si>
   <si>
     <t>28,36</t>
   </si>
   <si>
+    <t>Grilled_Fish_Grilled_Tomato</t>
+  </si>
+  <si>
     <t>구운 생선 + 구운 토마토</t>
   </si>
   <si>
     <t>30,36</t>
   </si>
   <si>
+    <t>Grilled_Fish_Cut_Tomato</t>
+  </si>
+  <si>
     <t>구운 생선 + 썰린 토마토</t>
   </si>
   <si>
     <t>30,62</t>
   </si>
   <si>
+    <t>Grilled_Lettuce_Grilled_Cheese</t>
+  </si>
+  <si>
     <t>구운 양상추 + 구운 치즈</t>
   </si>
   <si>
     <t>31,35</t>
   </si>
   <si>
+    <t>Grilled_Lettuce_Grilled_Tomato</t>
+  </si>
+  <si>
     <t>구운 양상추 + 구운 토마토</t>
   </si>
   <si>
     <t>31,36</t>
   </si>
   <si>
+    <t>Grilled_Lettuce_Bread</t>
+  </si>
+  <si>
     <t>구운 양상추 + 빵</t>
   </si>
   <si>
+    <t>Grilled_Lettuce_Bread_Grilled_Cheese</t>
+  </si>
+  <si>
     <t>구운 양상추 + 빵 + 구운 치즈</t>
   </si>
   <si>
     <t>95,35</t>
   </si>
   <si>
+    <t>Grilled_Lettuce_Bread_Grilled_Tomato</t>
+  </si>
+  <si>
     <t>구운 양상추 + 빵 + 구운 토마토</t>
   </si>
   <si>
     <t>95,36</t>
   </si>
   <si>
+    <t>Grilled_Cheese_Grilled_Potato</t>
+  </si>
+  <si>
     <t>구운 치즈 + 구운 감자</t>
   </si>
   <si>
     <t>35,27</t>
   </si>
   <si>
+    <t>Grilled_Cheese_Grilled_Shrimp</t>
+  </si>
+  <si>
     <t>구운 치즈 + 구운 새우</t>
   </si>
   <si>
     <t>35,29</t>
   </si>
   <si>
+    <t>Grilled_Tomato_Grilled_Cheese</t>
+  </si>
+  <si>
     <t>구운 토마토 + 구운 치즈</t>
   </si>
   <si>
     <t>36,35</t>
   </si>
   <si>
+    <t>Grilled_Tomato_Cut_Cheese</t>
+  </si>
+  <si>
     <t>구운 토마토 + 썰린 치즈</t>
   </si>
   <si>
     <t>36,57</t>
   </si>
   <si>
+    <t>Grilled_Pineapple_Grilled_Cheese</t>
+  </si>
+  <si>
     <t>구운 파인애플 + 구운 치즈</t>
   </si>
   <si>
     <t>37,35</t>
   </si>
   <si>
+    <t>Grilled_Pineapple_Grilled_Tomato</t>
+  </si>
+  <si>
     <t>구운 파인애플 + 구운 토마토</t>
   </si>
   <si>
     <t>37,36</t>
   </si>
   <si>
+    <t>Grilled_Pineapple_Sauce</t>
+  </si>
+  <si>
     <t>구운 파인애플 + 소스</t>
   </si>
   <si>
     <t>37,13</t>
   </si>
   <si>
+    <t>Grilled_Pineapple_Fried_Potato</t>
+  </si>
+  <si>
     <t>구운 파인애플 + 튀긴 감자</t>
   </si>
   <si>
     <t>37,67</t>
   </si>
   <si>
+    <t>Grilled_Pineapple_Fried_Shrimp</t>
+  </si>
+  <si>
     <t>구운 파인애플 + 튀긴 새우</t>
   </si>
   <si>
     <t>37,69</t>
   </si>
   <si>
+    <t>Bread_Grilled_Potato</t>
+  </si>
+  <si>
     <t>빵 + 구운 감자</t>
   </si>
   <si>
     <t>10,27</t>
   </si>
   <si>
+    <t>Bread_Grilled_Meat</t>
+  </si>
+  <si>
     <t>빵 + 구운 돼지 고기</t>
   </si>
   <si>
     <t>10,28</t>
   </si>
   <si>
+    <t>Bread_Grilled_Shrimp</t>
+  </si>
+  <si>
     <t>빵 + 구운 새우</t>
   </si>
   <si>
     <t>10,29</t>
   </si>
   <si>
+    <t>Bread_Grilled_Fish</t>
+  </si>
+  <si>
     <t>빵 + 구운 생선고기</t>
   </si>
   <si>
     <t>10,30</t>
   </si>
   <si>
+    <t>Bread_Grilled_Lettuce</t>
+  </si>
+  <si>
     <t>빵 + 구운 양상추</t>
   </si>
   <si>
     <t>10,31</t>
   </si>
   <si>
+    <t>Bread_Grilled_Cheese</t>
+  </si>
+  <si>
     <t>빵 + 구운 치즈</t>
   </si>
   <si>
     <t>10,35</t>
   </si>
   <si>
+    <t>Bread_Grilled_Cheese_Grilled_Potato</t>
+  </si>
+  <si>
     <t>빵 + 구운 치즈 + 구운 감자</t>
   </si>
   <si>
     <t>119,27</t>
   </si>
   <si>
+    <t>10,35,27</t>
+  </si>
+  <si>
+    <t>Bread_Grilled_Cheese_Grilled_Meat</t>
+  </si>
+  <si>
     <t>빵 + 구운 치즈 + 구운 돼지 고기</t>
   </si>
   <si>
     <t>119,28</t>
   </si>
   <si>
+    <t>10,35,25</t>
+  </si>
+  <si>
+    <t>Bread_Grilled_Cheese_Grilled_Shrimp</t>
+  </si>
+  <si>
     <t>빵 + 구운 치즈 + 구운 새우</t>
   </si>
   <si>
     <t>119,29</t>
   </si>
   <si>
+    <t>10,35,29</t>
+  </si>
+  <si>
+    <t>Bread_Grilled_Cheese_Grilled_Pineapple</t>
+  </si>
+  <si>
     <t>빵 + 구운 치즈 + 구운 파인애플</t>
   </si>
   <si>
     <t>119,37</t>
   </si>
   <si>
+    <t>10,35,37</t>
+  </si>
+  <si>
+    <t>Bread_Grilled_Tomato</t>
+  </si>
+  <si>
     <t>빵 + 구운 토마토</t>
   </si>
   <si>
     <t>10,36</t>
   </si>
   <si>
+    <t>Bread_Grilled_Tomato_Grilled_Potato</t>
+  </si>
+  <si>
     <t>빵 + 구운 토마토 + 구운 감자</t>
   </si>
   <si>
     <t>124,27</t>
   </si>
   <si>
+    <t>10,36,27</t>
+  </si>
+  <si>
+    <t>Bread_Grilled_Tomato_Grilled_Meat</t>
+  </si>
+  <si>
     <t>빵 + 구운 토마토 + 구운 돼지 고기</t>
   </si>
   <si>
     <t>124,28</t>
   </si>
   <si>
+    <t>10,36,27,28</t>
+  </si>
+  <si>
+    <t>Bread_Grilled_Tomato_Grilled_Shrimp</t>
+  </si>
+  <si>
     <t>빵 + 구운 토마토 + 구운 새우</t>
   </si>
   <si>
     <t>124,29</t>
   </si>
   <si>
+    <t>10,36,27,29</t>
+  </si>
+  <si>
+    <t>Bread_Grilled_Tomato_Grilled_Pineapple</t>
+  </si>
+  <si>
     <t>빵 + 구운 토마토 + 구운 파인애플</t>
   </si>
   <si>
     <t>124,37</t>
   </si>
   <si>
+    <t>10,36,27,37</t>
+  </si>
+  <si>
+    <t>Bread_Grilled_Pineapple</t>
+  </si>
+  <si>
     <t>빵 + 구운 파인애플</t>
   </si>
   <si>
     <t>10,37</t>
   </si>
   <si>
+    <t>Bread_Cut_Lettuce</t>
+  </si>
+  <si>
     <t>빵 + 썰린 양상추</t>
   </si>
   <si>
     <t>10,45</t>
   </si>
   <si>
+    <t>Bread_Cut_Cheese</t>
+  </si>
+  <si>
     <t>빵 + 썰린 치즈</t>
   </si>
   <si>
     <t>10,57</t>
   </si>
   <si>
+    <t>Bread_Cut_Tomato</t>
+  </si>
+  <si>
     <t>빵 + 썰린 토마토</t>
   </si>
   <si>
     <t>10,62</t>
   </si>
   <si>
+    <t>Bread_Cut_Tomato_Grilled_Meat</t>
+  </si>
+  <si>
     <t>빵 + 썰린 토마토 + 구운 돼지 고기</t>
   </si>
   <si>
+    <t>10,62,28</t>
+  </si>
+  <si>
     <t>132,28</t>
   </si>
   <si>
+    <t>Bread_Cut_Tomato_Grilled_Shrimp</t>
+  </si>
+  <si>
     <t>빵 + 썰린 토마토 + 구운 새우</t>
   </si>
   <si>
+    <t>10,62,29</t>
+  </si>
+  <si>
     <t>132,29</t>
   </si>
   <si>
+    <t>Bread_Cut_Tomato_Grilled_Fish</t>
+  </si>
+  <si>
     <t>빵 + 썰린 토마토 + 구운 생선고기</t>
   </si>
   <si>
+    <t>10,62,30</t>
+  </si>
+  <si>
     <t>132,30</t>
   </si>
   <si>
+    <t>Bread_Cut_Tomato_Cut_Cheese</t>
+  </si>
+  <si>
     <t>빵 + 썰린 토마토 + 썰린 치즈</t>
   </si>
   <si>
+    <t>10,62,57</t>
+  </si>
+  <si>
     <t>132,57</t>
   </si>
   <si>
     <t>빵 +구운 파인애플</t>
   </si>
   <si>
+    <t>Cut_Meat_Cut_Tomato</t>
+  </si>
+  <si>
     <t>썰린 돼지 고기 + 썰린 토마토</t>
   </si>
   <si>
     <t>41,62</t>
   </si>
   <si>
+    <t>Cut_Bread_Grilled_Meat</t>
+  </si>
+  <si>
     <t>썰린 빵 + 구운 돼지 고기</t>
   </si>
   <si>
     <t>42,28</t>
   </si>
   <si>
+    <t>Cut_Bread_Cut_Potato</t>
+  </si>
+  <si>
     <t>썰린 빵 + 썰린 감자</t>
   </si>
   <si>
     <t>42,40</t>
   </si>
   <si>
+    <t>Cut_Bread_Cut_Fish</t>
+  </si>
+  <si>
     <t>썰린 빵 + 썰린 생선</t>
   </si>
   <si>
     <t>42,44</t>
   </si>
   <si>
+    <t>Cut_Bread_Cut_Cheese</t>
+  </si>
+  <si>
     <t>썰린 빵 + 썰린 치즈</t>
   </si>
   <si>
     <t>42,57</t>
   </si>
   <si>
+    <t>Cut_Bread_Cut_Cheese_Cut_Fish</t>
+  </si>
+  <si>
     <t>썰린 빵 + 썰린 치즈 + 썰린 생선</t>
   </si>
   <si>
+    <t>42,57,44</t>
+  </si>
+  <si>
     <t>151,44</t>
   </si>
   <si>
     <t>썰린 빵 + 썰린 치즈 + 썰린 토마토</t>
   </si>
   <si>
+    <t>42,57,62</t>
+  </si>
+  <si>
     <t>151,62</t>
   </si>
   <si>
+    <t>Cut_Bread_Cut_Cheese_Cut_Pineapple</t>
+  </si>
+  <si>
     <t>썰린 빵 + 썰린 치즈 + 썰린 파인애플</t>
   </si>
   <si>
+    <t>42,57,63</t>
+  </si>
+  <si>
     <t>151,63</t>
   </si>
   <si>
+    <t>Cut_Bread_Cut_Tomato</t>
+  </si>
+  <si>
     <t>썰린 빵 + 썰린 토마토</t>
   </si>
   <si>
     <t>42,62</t>
   </si>
   <si>
+    <t>Cut_Bread_Cut_Pineapple</t>
+  </si>
+  <si>
     <t>썰린 빵 + 썰린 파인애플</t>
   </si>
   <si>
     <t>42,63</t>
   </si>
   <si>
+    <t>Cut_Fish_Grilled_Cheese</t>
+  </si>
+  <si>
     <t>썰린 생선 + 구운 치즈</t>
   </si>
   <si>
     <t>44,35</t>
   </si>
   <si>
+    <t>Cut_Fish_Grilled_Tomato</t>
+  </si>
+  <si>
     <t>썰린 생선 + 구운 토마토</t>
   </si>
   <si>
     <t>44,36</t>
   </si>
   <si>
+    <t>Cut_Fish_Cut_Cheese</t>
+  </si>
+  <si>
     <t>썰린 생선 + 썰린 치즈</t>
   </si>
   <si>
     <t>44,57</t>
   </si>
   <si>
+    <t>Cut_Fish_Cut_Tomato</t>
+  </si>
+  <si>
     <t>썰린 생선 + 썰린 토마토</t>
   </si>
   <si>
     <t>44,62</t>
   </si>
   <si>
+    <t>Cut_Lettuce_Cut_Tomato_Grilled_Shrimp</t>
+  </si>
+  <si>
     <t>썰린 양상추  + 썰린 토마토 + 구운 새우</t>
   </si>
   <si>
@@ -861,9 +1111,15 @@
     <t>45,28</t>
   </si>
   <si>
+    <t>Cut_Lettuce_Grilled_Meat_Cut_Tomato</t>
+  </si>
+  <si>
     <t>썰린 양상추 + 구운 돼지 고기 + 썰린 토마토</t>
   </si>
   <si>
+    <t>45,28,62</t>
+  </si>
+  <si>
     <t>162,62</t>
   </si>
   <si>
@@ -879,102 +1135,153 @@
     <t>45,30</t>
   </si>
   <si>
+    <t>Cut_Lettuce_Grilled_Cheese</t>
+  </si>
+  <si>
     <t>썰린 양상추 + 구운 치즈</t>
   </si>
   <si>
     <t>45,35</t>
   </si>
   <si>
+    <t>Cut_Lettuce_Grilled_Tomato</t>
+  </si>
+  <si>
     <t>썰린 양상추 + 구운 토마토</t>
   </si>
   <si>
     <t>45,36</t>
   </si>
   <si>
+    <t>Cut_Lettuce_Bread_Grilled_Meat</t>
+  </si>
+  <si>
     <t>썰린 양상추 + 빵 + 구운 돼지 고기</t>
   </si>
   <si>
     <t>45,10,28</t>
   </si>
   <si>
+    <t>Cut_Lettuce_Bread_Grilled_Shrimp</t>
+  </si>
+  <si>
     <t>썰린 양상추 + 빵 + 구운 새우</t>
   </si>
   <si>
     <t>45,10,29</t>
   </si>
   <si>
+    <t>Cut_Lettuce_Bread_Grilled_Fish</t>
+  </si>
+  <si>
     <t>썰린 양상추 + 빵 + 구운 생선고기</t>
   </si>
   <si>
     <t>45,10,30</t>
   </si>
   <si>
+    <t>Cut_Lettuce_Bread_Cut_Cheese</t>
+  </si>
+  <si>
     <t>썰린 양상추 + 빵 + 썰린 치즈</t>
   </si>
   <si>
     <t>45,10,57</t>
   </si>
   <si>
+    <t>Cut_Lettuce_Cut_Meat</t>
+  </si>
+  <si>
     <t>썰린 양상추 + 썰린 돼지 고기</t>
   </si>
   <si>
     <t>45,41</t>
   </si>
   <si>
+    <t>Cut_Lettuce_Cut_Bread_Cut_Potato</t>
+  </si>
+  <si>
     <t>썰린 양상추 + 썰린 빵 + 썰린 감자</t>
   </si>
   <si>
     <t>45,42,40</t>
   </si>
   <si>
+    <t>Cut_Lettuce_Cut_Bread_Cut_Fish</t>
+  </si>
+  <si>
     <t>썰린 양상추 + 썰린 빵 + 썰린 생선</t>
   </si>
   <si>
     <t>45,42,44</t>
   </si>
   <si>
+    <t>Cut_Lettuce_Cut_Bread_Cut_Pineapple</t>
+  </si>
+  <si>
     <t>썰린 양상추 + 썰린 빵 + 썰린 파인애플</t>
   </si>
   <si>
     <t>45,42,63</t>
   </si>
   <si>
+    <t>Cut_Lettuce_Cut_Bread_Cut_Tomato</t>
+  </si>
+  <si>
     <t>썰린 양상추 + 썰린 빵 +썰린 토마토</t>
   </si>
   <si>
     <t>45,42,62</t>
   </si>
   <si>
+    <t>Cut_Lettuce_Cut_Cheese_Cut_Potato</t>
+  </si>
+  <si>
     <t>썰린 양상추 + 썰린 치즈 + 썰린 감자</t>
   </si>
   <si>
     <t>45,57,40</t>
   </si>
   <si>
+    <t>Cut_Lettuce_Cut_Cheese_Cut_Tomato</t>
+  </si>
+  <si>
     <t>썰린 양상추 + 썰린 치즈 + 썰린 토마토</t>
   </si>
   <si>
     <t>45,57,62</t>
   </si>
   <si>
+    <t>Cut_Lettuce_Cut_Cheese_Cut_Pineapple</t>
+  </si>
+  <si>
     <t>썰린 양상추 + 썰린 치즈 + 썰린 파인애플</t>
   </si>
   <si>
     <t>45,57,63</t>
   </si>
   <si>
+    <t>Cut_Lettuce_Cut_Cheese_Cut_Fish</t>
+  </si>
+  <si>
     <t>썰린 양상추 + 썰린 치즈 +썰린 생선</t>
   </si>
   <si>
     <t>45,57,44</t>
   </si>
   <si>
+    <t>Cut_Lettuce_Cut_Tomato_Grilled_Meat</t>
+  </si>
+  <si>
     <t>썰린 양상추 + 썰린 토마토 + 구운 돼지 고기</t>
   </si>
   <si>
     <t>45,62,28</t>
   </si>
   <si>
+    <t>Cut_Lettuce_Cut_Tomato_Grilled_Fish</t>
+  </si>
+  <si>
     <t>썰린 양상추 + 썰린 토마토 + 구운 생선고기</t>
   </si>
   <si>
@@ -984,45 +1291,69 @@
     <t>썰린 양상추 +썰린 돼지 고기</t>
   </si>
   <si>
+    <t>Cut_Cheese_Grilled_Tomato</t>
+  </si>
+  <si>
     <t>썰린 치즈 + 구운 토마토</t>
   </si>
   <si>
     <t>57,36</t>
   </si>
   <si>
+    <t>Cut_Cheese_Cut_Potato</t>
+  </si>
+  <si>
     <t>썰린 치즈 +썰린 감자</t>
   </si>
   <si>
+    <t>Cut_Tomato_Grilled_Shrimp</t>
+  </si>
+  <si>
     <t>썰린 토마토 + 구운 새우</t>
   </si>
   <si>
     <t>62,29</t>
   </si>
   <si>
+    <t>Cut_Tomato_Cut_Potato</t>
+  </si>
+  <si>
     <t>썰린 토마토 + 썰린 감자</t>
   </si>
   <si>
     <t>62,40</t>
   </si>
   <si>
+    <t>Cut_Tomato_Cut_Fish</t>
+  </si>
+  <si>
     <t>썰린 토마토 + 썰린 생선고기</t>
   </si>
   <si>
     <t>62,44</t>
   </si>
   <si>
+    <t>Cut_Tomato_Cut_Cheese</t>
+  </si>
+  <si>
     <t>썰린 토마토 + 썰린 치즈</t>
   </si>
   <si>
     <t>62,57</t>
   </si>
   <si>
+    <t>Cut_Pineapple_Cut_Cheese</t>
+  </si>
+  <si>
     <t>썰린 파인애플 + 썰린 치즈</t>
   </si>
   <si>
     <t>63,57</t>
   </si>
   <si>
+    <t>Cut_Pineapple_Cut_Tomato</t>
+  </si>
+  <si>
     <t>썰린 파인애플 + 썰린 토마토</t>
   </si>
   <si>
@@ -1032,40 +1363,61 @@
     <t>썰린생선 + 구운 치즈</t>
   </si>
   <si>
+    <t>Fried_Potato_Sauce</t>
+  </si>
+  <si>
     <t>튀긴 감자 + 소스</t>
   </si>
   <si>
     <t>67,13</t>
   </si>
   <si>
+    <t>Fried_Meat_Grilled_Pineapple</t>
+  </si>
+  <si>
     <t>튀긴 돼지 고기 + 구운 파인애플</t>
   </si>
   <si>
     <t>68,37</t>
   </si>
   <si>
+    <t>Fried_Meat_Sauce</t>
+  </si>
+  <si>
     <t>튀긴 돼지 고기 + 소스</t>
   </si>
   <si>
     <t>68,13</t>
   </si>
   <si>
+    <t>Fried_Meat_Cut_Cheese</t>
+  </si>
+  <si>
     <t>튀긴 돼지 고기 + 썰린 치즈</t>
   </si>
   <si>
     <t>68,57</t>
   </si>
   <si>
+    <t>Cut_Meat_Fried_Shrimp</t>
+  </si>
+  <si>
     <t>튀긴 돼지 고기 + 튀긴 새우</t>
   </si>
   <si>
     <t>68,69</t>
   </si>
   <si>
+    <t>Cut_Meat_Fried_Shrimp_Sauce</t>
+  </si>
+  <si>
     <t>튀긴 돼지 고기 + 튀긴 새우 + 소스</t>
   </si>
   <si>
-    <t>208,13</t>
+    <t>68,69,13</t>
+  </si>
+  <si>
+    <t>Fried_Shrimp_Sauce</t>
   </si>
   <si>
     <t>튀긴 새우 + 소스</t>
@@ -1074,42 +1426,66 @@
     <t>69,13</t>
   </si>
   <si>
+    <t>Fried_Fish_Grilled_Pineapple</t>
+  </si>
+  <si>
     <t>튀긴 생선 + 구운 파인애플</t>
   </si>
   <si>
     <t>70,37</t>
   </si>
   <si>
+    <t>Fried_Fish_Sauce</t>
+  </si>
+  <si>
     <t>튀긴 생선 + 소스</t>
   </si>
   <si>
     <t>70,13</t>
   </si>
   <si>
+    <t>Fried_Fish_Fried_Meat_Fried_Shrimp</t>
+  </si>
+  <si>
     <t>튀긴 생선 + 튀긴 돼지 고기+  튀긴 새우</t>
   </si>
   <si>
     <t>70,68,69</t>
   </si>
   <si>
+    <t>Fried_Fish_Fried_Meat_Sauce</t>
+  </si>
+  <si>
     <t>튀긴 생선 + 튀긴 돼지 고기 + 소스</t>
   </si>
   <si>
+    <t>213,13</t>
+  </si>
+  <si>
     <t>70,68,13</t>
   </si>
   <si>
+    <t>Fried_Fish_Fried_Meat</t>
+  </si>
+  <si>
     <t>튀긴 생선 + 튀긴 돼지 고기</t>
   </si>
   <si>
     <t>70,68</t>
   </si>
   <si>
+    <t>Fried_Fish_Fried_Shrimp</t>
+  </si>
+  <si>
     <t>튀긴 생선 + 튀긴 새우</t>
   </si>
   <si>
     <t>70,69</t>
   </si>
   <si>
+    <t>Fried_Fish_Fried_Shrimp_Sauce</t>
+  </si>
+  <si>
     <t>튀긴 생선 + 튀긴 새우 + 소스</t>
   </si>
   <si>
@@ -1122,91 +1498,163 @@
     <t>튀긴 생선 +소스</t>
   </si>
   <si>
+    <t>Fried_Lettuce_Grilled_Pineapple_Sauce</t>
+  </si>
+  <si>
     <t>튀긴 양상추 + 구운 파인애플 + 소스</t>
   </si>
   <si>
     <t>71,37,13</t>
   </si>
   <si>
+    <t>Fried_Lettuce_Fried_Potato</t>
+  </si>
+  <si>
     <t>튀긴 양상추 + 튀긴 감자</t>
   </si>
   <si>
     <t>71,67</t>
   </si>
   <si>
+    <t>Fried_Lettuce_Fried_Potato_Grilled_Pineapple</t>
+  </si>
+  <si>
     <t xml:space="preserve">튀긴 양상추 + 튀긴 감자 + 구운 파인애플 </t>
   </si>
   <si>
     <t>71,67,37</t>
   </si>
   <si>
+    <t>Fried_Lettuce_Fried_Potato_Sauce</t>
+  </si>
+  <si>
     <t>튀긴 양상추 + 튀긴 감자 + 소스</t>
   </si>
   <si>
     <t>71,67,13</t>
   </si>
   <si>
+    <t>Hamburger</t>
+  </si>
+  <si>
     <t>햄버거</t>
   </si>
   <si>
     <t>10,62,45</t>
   </si>
   <si>
+    <t>Cheese_Hamburger</t>
+  </si>
+  <si>
     <t>치즈 버거</t>
   </si>
   <si>
+    <t>227,57</t>
+  </si>
+  <si>
     <t>10,62,45,57</t>
   </si>
   <si>
+    <t>Bulgogi_Hamburger</t>
+  </si>
+  <si>
     <t>불고기 햄버거</t>
   </si>
   <si>
+    <t>227,28</t>
+  </si>
+  <si>
     <t>10,62,45,28</t>
   </si>
   <si>
+    <t>Fish_Hamburger</t>
+  </si>
+  <si>
     <t>생선 햄버거</t>
   </si>
   <si>
+    <t>227,30</t>
+  </si>
+  <si>
     <t>10,62,45,30</t>
   </si>
   <si>
+    <t>Shrimp_Hamburger</t>
+  </si>
+  <si>
     <t>쉬림프 햄버거</t>
   </si>
   <si>
+    <t>227,29</t>
+  </si>
+  <si>
     <t>10,62,45,29</t>
   </si>
   <si>
+    <t>Vegetable_Stir</t>
+  </si>
+  <si>
     <t>야채 볶음</t>
   </si>
   <si>
+    <t>Cheese_Vegetable_Stir</t>
+  </si>
+  <si>
     <t>치즈 야채 볶음</t>
   </si>
   <si>
     <t>31,36,57</t>
   </si>
   <si>
+    <t>18,57</t>
+  </si>
+  <si>
+    <t>Meat_Vegetable_Stir</t>
+  </si>
+  <si>
     <t>고기 야채 볶음</t>
   </si>
   <si>
     <t>31,36,28</t>
   </si>
   <si>
+    <t>18,28</t>
+  </si>
+  <si>
+    <t>Fish_Vegetable_Stir</t>
+  </si>
+  <si>
     <t>생선 야채 볶음</t>
   </si>
   <si>
     <t>31,36,30</t>
   </si>
   <si>
+    <t>18,30</t>
+  </si>
+  <si>
+    <t>Gratin</t>
+  </si>
+  <si>
     <t>그라탕</t>
   </si>
   <si>
     <t>35,36</t>
   </si>
   <si>
+    <t>Potato_Gratin</t>
+  </si>
+  <si>
     <t>감자 그라탕</t>
   </si>
   <si>
-    <t>35,35,27</t>
+    <t>35,36,27</t>
+  </si>
+  <si>
+    <t>107,27</t>
+  </si>
+  <si>
+    <t>DoubleCheese_Gratin</t>
   </si>
   <si>
     <t>더블 치즈 그라탕</t>
@@ -1215,112 +1663,196 @@
     <t>35,35,36</t>
   </si>
   <si>
+    <t>Fish_Gratin</t>
+  </si>
+  <si>
     <t>생선 그라탕</t>
   </si>
   <si>
     <t>35,36,44</t>
   </si>
   <si>
+    <t>107,44</t>
+  </si>
+  <si>
+    <t>Vegetable_Gratin</t>
+  </si>
+  <si>
     <t>야채 그래탕</t>
   </si>
   <si>
     <t>35,36,45</t>
   </si>
   <si>
+    <t>107,45</t>
+  </si>
+  <si>
+    <t>Meat_Gratin</t>
+  </si>
+  <si>
     <t>고기 그라탕</t>
   </si>
   <si>
     <t>35,36,28</t>
   </si>
   <si>
+    <t>107,28</t>
+  </si>
+  <si>
+    <t>Pizza</t>
+  </si>
+  <si>
     <t>피자</t>
   </si>
   <si>
     <t>10,35,36</t>
   </si>
   <si>
+    <t>Vegetable_Pizza</t>
+  </si>
+  <si>
     <t>야채 피자</t>
   </si>
   <si>
+    <t>228,31</t>
+  </si>
+  <si>
     <t>10,35,36,31</t>
   </si>
   <si>
+    <t>Hawaiian_Pizza</t>
+  </si>
+  <si>
     <t>하와이안 피자</t>
   </si>
   <si>
+    <t>228,37</t>
+  </si>
+  <si>
     <t>10,35,36,37</t>
   </si>
   <si>
+    <t>Potato_Pizza</t>
+  </si>
+  <si>
     <t>포테이토 피자</t>
   </si>
   <si>
+    <t>228,27</t>
+  </si>
+  <si>
     <t>10,35,36,27</t>
   </si>
   <si>
+    <t>Bulgogi_Pizza</t>
+  </si>
+  <si>
     <t>불고기 피자</t>
   </si>
   <si>
+    <t>228,28</t>
+  </si>
+  <si>
     <t>10,35,36,28</t>
   </si>
   <si>
+    <t>Shrimp_Pizza</t>
+  </si>
+  <si>
     <t>쉬림프 피자</t>
   </si>
   <si>
+    <t>228,29</t>
+  </si>
+  <si>
     <t>10,35,36,29</t>
   </si>
   <si>
+    <t>Meat_Cutlet</t>
+  </si>
+  <si>
     <t>돈까스</t>
   </si>
   <si>
     <t>68,45</t>
   </si>
   <si>
+    <t>Cheese_Cutlet</t>
+  </si>
+  <si>
     <t>치즈 돈까스</t>
   </si>
   <si>
+    <t>109,57</t>
+  </si>
+  <si>
     <t>68,45,57</t>
   </si>
   <si>
+    <t>Fish_Cutlet</t>
+  </si>
+  <si>
     <t>생선까스</t>
   </si>
   <si>
     <t>70,45</t>
   </si>
   <si>
+    <t>Group_Meat_Cutlet</t>
+  </si>
+  <si>
     <t>모둠 돈까스</t>
   </si>
   <si>
     <t>68,70,69,13</t>
   </si>
   <si>
+    <t>Fried_Vegetables</t>
+  </si>
+  <si>
     <t>야채 튀김</t>
   </si>
   <si>
     <t>새우 튀김</t>
   </si>
   <si>
+    <t>Tangsuyuk</t>
+  </si>
+  <si>
     <t>탕수육</t>
   </si>
   <si>
     <t>68,37,13</t>
   </si>
   <si>
-    <t>새우탕수육</t>
+    <t>Shrimp_Tangsuyuk</t>
+  </si>
+  <si>
+    <t>새우 탕수육</t>
   </si>
   <si>
     <t>69,37,13</t>
   </si>
   <si>
+    <t>Fish_Tangsuyuk</t>
+  </si>
+  <si>
     <t>생선 탕수육</t>
   </si>
   <si>
     <t>70,37,13</t>
   </si>
   <si>
+    <t>Vegetable_Tansuyuk</t>
+  </si>
+  <si>
     <t>야채 탕수육</t>
   </si>
   <si>
-    <t>71,67,37,13</t>
+    <t>64,37,13</t>
+  </si>
+  <si>
+    <t>Vegetable_Juice</t>
   </si>
   <si>
     <t>야채 주스</t>
@@ -1329,10 +1861,16 @@
     <t>24,23,22</t>
   </si>
   <si>
+    <t>Fishy_Juice</t>
+  </si>
+  <si>
     <t>비린 주스</t>
   </si>
   <si>
     <t>21,19,24</t>
+  </si>
+  <si>
+    <t>Allergic Juice</t>
   </si>
   <si>
     <t>알레르기 주스</t>
@@ -1348,7 +1886,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yy/m/d"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -1372,6 +1910,11 @@
     </font>
     <font/>
     <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -1383,6 +1926,10 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Docs-Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1468,7 +2015,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1512,11 +2059,17 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
@@ -1524,13 +2077,19 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1831,7 +2390,7 @@
       </c>
     </row>
     <row r="13" ht="16.5" customHeight="1">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1839,57 +2398,74 @@
       </c>
     </row>
     <row r="14" ht="16.5" customHeight="1">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c r="A15" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c r="A15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="7" t="s">
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c r="A16" s="8"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1"/>
+      <c r="B16" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c r="A17" s="8"/>
+    </row>
     <row r="18" ht="16.5" customHeight="1"/>
-    <row r="19" ht="16.5" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-    </row>
+    <row r="19" ht="16.5" customHeight="1"/>
     <row r="20" ht="16.5" customHeight="1">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c r="A21" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="B21" s="13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c r="A21" s="14">
+      <c r="C21" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c r="A22" s="14">
         <v>45276.0</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="15" t="s">
+      <c r="B22" s="15" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" ht="16.5" customHeight="1"/>
-    <row r="23" ht="16.5" customHeight="1"/>
+      <c r="C22" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c r="A23" s="14">
+        <v>45281.0</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
     <row r="24" ht="16.5" customHeight="1"/>
     <row r="25" ht="16.5" customHeight="1"/>
     <row r="26" ht="16.5" customHeight="1"/>
@@ -2868,9 +3444,10 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
     <row r="1001" ht="16.5" customHeight="1"/>
+    <row r="1002" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -2896,10 +3473,11 @@
     <col customWidth="1" min="6" max="7" width="10.86"/>
     <col customWidth="1" min="8" max="8" width="17.14"/>
     <col customWidth="1" min="9" max="9" width="15.86"/>
-    <col customWidth="1" min="10" max="10" width="10.0"/>
-    <col customWidth="1" min="11" max="21" width="8.71"/>
-    <col customWidth="1" min="22" max="22" width="20.43"/>
-    <col customWidth="1" min="23" max="27" width="8.71"/>
+    <col customWidth="1" min="10" max="10" width="10.86"/>
+    <col customWidth="1" min="11" max="11" width="10.0"/>
+    <col customWidth="1" min="12" max="22" width="8.71"/>
+    <col customWidth="1" min="23" max="23" width="20.43"/>
+    <col customWidth="1" min="24" max="28" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1">
@@ -2927,47 +3505,53 @@
       <c r="H1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="8" t="s">
         <v>17</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="15" t="s">
-        <v>21</v>
+      <c r="K1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="8">
-        <v>0.0</v>
+        <v>33</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" ht="16.5" customHeight="1">
@@ -2975,13 +3559,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C3" s="8">
         <v>0.0</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E3" s="8">
         <v>2.0</v>
@@ -2996,12 +3580,15 @@
         <v>0.0</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J3" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K3" s="8">
         <v>38.0</v>
       </c>
-      <c r="K3" s="15">
+      <c r="L3" s="15">
         <v>40.0</v>
       </c>
     </row>
@@ -3010,13 +3597,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C4" s="8">
         <v>0.0</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E4" s="8">
         <v>2.0</v>
@@ -3031,12 +3618,15 @@
         <v>0.0</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="8">
+        <v>40</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="8">
         <v>65.0</v>
       </c>
-      <c r="K4" s="15">
+      <c r="L4" s="15">
         <v>40.0</v>
       </c>
     </row>
@@ -3045,13 +3635,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C5" s="8">
         <v>0.0</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E5" s="8">
         <v>2.0</v>
@@ -3066,12 +3656,15 @@
         <v>0.0</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="8">
+        <v>44</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="8">
         <v>26.0</v>
       </c>
-      <c r="K5" s="15">
+      <c r="L5" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -3080,13 +3673,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C6" s="8">
         <v>0.0</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E6" s="8">
         <v>2.0</v>
@@ -3101,12 +3694,15 @@
         <v>0.0</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="8">
+        <v>48</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="8">
         <v>25.0</v>
       </c>
-      <c r="K6" s="15">
+      <c r="L6" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -3115,13 +3711,13 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C7" s="8">
         <v>0.0</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E7" s="8">
         <v>2.0</v>
@@ -3136,12 +3732,15 @@
         <v>0.0</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="8">
+        <v>52</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="8">
         <v>39.0</v>
       </c>
-      <c r="K7" s="15">
+      <c r="L7" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -3150,13 +3749,13 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C8" s="8">
         <v>0.0</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E8" s="8">
         <v>2.0</v>
@@ -3171,12 +3770,15 @@
         <v>0.0</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="8">
+        <v>56</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="8">
         <v>66.0</v>
       </c>
-      <c r="K8" s="15">
+      <c r="L8" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -3185,13 +3787,13 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C9" s="8">
         <v>0.0</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E9" s="8">
         <v>2.0</v>
@@ -3206,12 +3808,15 @@
         <v>0.0</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="J9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K9" s="8">
         <v>84.0</v>
       </c>
-      <c r="K9" s="15">
+      <c r="L9" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -3220,13 +3825,13 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C10" s="8">
         <v>0.0</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E10" s="8">
         <v>1.0</v>
@@ -3234,8 +3839,8 @@
       <c r="F10" s="8">
         <v>10.0</v>
       </c>
-      <c r="G10" s="8">
-        <v>2.0</v>
+      <c r="G10" s="15">
+        <v>1002.0</v>
       </c>
       <c r="H10" s="8">
         <v>42.0</v>
@@ -3246,7 +3851,10 @@
       <c r="J10" s="8">
         <v>0.0</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="L10" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -3255,13 +3863,13 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C11" s="8">
         <v>0.0</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E11" s="8">
         <v>1.0</v>
@@ -3269,8 +3877,8 @@
       <c r="F11" s="8">
         <v>14.0</v>
       </c>
-      <c r="G11" s="8">
-        <v>2.0</v>
+      <c r="G11" s="15">
+        <v>1002.0</v>
       </c>
       <c r="H11" s="8">
         <v>45.0</v>
@@ -3281,7 +3889,10 @@
       <c r="J11" s="8">
         <v>0.0</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="L11" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -3290,13 +3901,13 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C12" s="8">
         <v>0.0</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E12" s="8">
         <v>1.0</v>
@@ -3304,8 +3915,8 @@
       <c r="F12" s="8">
         <v>15.0</v>
       </c>
-      <c r="G12" s="8">
-        <v>2.0</v>
+      <c r="G12" s="15">
+        <v>1002.0</v>
       </c>
       <c r="H12" s="8">
         <v>57.0</v>
@@ -3316,7 +3927,10 @@
       <c r="J12" s="8">
         <v>0.0</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="L12" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -3325,13 +3939,13 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C13" s="8">
         <v>0.0</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E13" s="8">
         <v>1.0</v>
@@ -3339,8 +3953,8 @@
       <c r="F13" s="8">
         <v>17.0</v>
       </c>
-      <c r="G13" s="8">
-        <v>2.0</v>
+      <c r="G13" s="15">
+        <v>1002.0</v>
       </c>
       <c r="H13" s="8">
         <v>63.0</v>
@@ -3351,7 +3965,10 @@
       <c r="J13" s="8">
         <v>0.0</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="L13" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -3360,13 +3977,13 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C14" s="8">
         <v>0.0</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E14" s="8">
         <v>1.0</v>
@@ -3374,8 +3991,8 @@
       <c r="F14" s="8">
         <v>8.0</v>
       </c>
-      <c r="G14" s="8">
-        <v>2.0</v>
+      <c r="G14" s="15">
+        <v>1002.0</v>
       </c>
       <c r="H14" s="8">
         <v>40.0</v>
@@ -3386,7 +4003,10 @@
       <c r="J14" s="8">
         <v>0.0</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="L14" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -3395,13 +4015,13 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C15" s="8">
         <v>0.0</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E15" s="8">
         <v>1.0</v>
@@ -3409,8 +4029,8 @@
       <c r="F15" s="8">
         <v>12.0</v>
       </c>
-      <c r="G15" s="8">
-        <v>2.0</v>
+      <c r="G15" s="15">
+        <v>1002.0</v>
       </c>
       <c r="H15" s="8">
         <v>44.0</v>
@@ -3421,7 +4041,10 @@
       <c r="J15" s="8">
         <v>0.0</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="L15" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -3430,13 +4053,13 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C16" s="8">
         <v>0.0</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E16" s="8">
         <v>1.0</v>
@@ -3444,8 +4067,8 @@
       <c r="F16" s="8">
         <v>16.0</v>
       </c>
-      <c r="G16" s="8">
-        <v>2.0</v>
+      <c r="G16" s="15">
+        <v>1002.0</v>
       </c>
       <c r="H16" s="8">
         <v>62.0</v>
@@ -3456,7 +4079,10 @@
       <c r="J16" s="8">
         <v>0.0</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="L16" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -3465,13 +4091,13 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C17" s="8">
         <v>0.0</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E17" s="8">
         <v>1.0</v>
@@ -3479,8 +4105,8 @@
       <c r="F17" s="8">
         <v>9.0</v>
       </c>
-      <c r="G17" s="8">
-        <v>7.0</v>
+      <c r="G17" s="15">
+        <v>1007.0</v>
       </c>
       <c r="H17" s="8">
         <v>28.0</v>
@@ -3491,7 +4117,10 @@
       <c r="J17" s="8">
         <v>0.0</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K17" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="L17" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -3500,13 +4129,13 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C18" s="8">
         <v>0.0</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E18" s="8">
         <v>2.0</v>
@@ -3521,12 +4150,15 @@
         <v>0.0</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J18" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K18" s="8">
         <v>51.0</v>
       </c>
-      <c r="K18" s="15">
+      <c r="L18" s="15">
         <v>40.0</v>
       </c>
     </row>
@@ -3535,13 +4167,13 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C19" s="8">
         <v>0.0</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E19" s="8">
         <v>2.0</v>
@@ -3556,12 +4188,15 @@
         <v>0.0</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="J19" s="8">
+        <v>82</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="K19" s="8">
         <v>82.0</v>
       </c>
-      <c r="K19" s="15">
+      <c r="L19" s="15">
         <v>40.0</v>
       </c>
     </row>
@@ -3570,13 +4205,13 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C20" s="8">
         <v>0.0</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E20" s="8">
         <v>2.0</v>
@@ -3591,12 +4226,15 @@
         <v>0.0</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="J20" s="8">
+        <v>86</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="K20" s="8">
         <v>200.0</v>
       </c>
-      <c r="K20" s="15">
+      <c r="L20" s="15">
         <v>40.0</v>
       </c>
     </row>
@@ -3605,13 +4243,13 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C21" s="8">
         <v>0.0</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E21" s="8">
         <v>2.0</v>
@@ -3626,12 +4264,15 @@
         <v>0.0</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J21" s="8">
+        <v>90</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" s="8">
         <v>85.0</v>
       </c>
-      <c r="K21" s="15">
+      <c r="L21" s="15">
         <v>40.0</v>
       </c>
     </row>
@@ -3640,13 +4281,13 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C22" s="8">
         <v>0.0</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E22" s="8">
         <v>2.0</v>
@@ -3661,12 +4302,15 @@
         <v>0.0</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J22" s="8">
+        <v>94</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="K22" s="8">
         <v>140.0</v>
       </c>
-      <c r="K22" s="15">
+      <c r="L22" s="15">
         <v>40.0</v>
       </c>
     </row>
@@ -3675,13 +4319,13 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C23" s="8">
         <v>0.0</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E23" s="8">
         <v>2.0</v>
@@ -3696,12 +4340,15 @@
         <v>0.0</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="J23" s="8">
+        <v>98</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="K23" s="8">
         <v>87.0</v>
       </c>
-      <c r="K23" s="15">
+      <c r="L23" s="15">
         <v>40.0</v>
       </c>
     </row>
@@ -3710,13 +4357,13 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C24" s="8">
         <v>0.0</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="E24" s="8">
         <v>2.0</v>
@@ -3731,12 +4378,15 @@
         <v>0.0</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="J24" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K24" s="8">
         <v>32.0</v>
       </c>
-      <c r="K24" s="15">
+      <c r="L24" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -3745,13 +4395,13 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C25" s="8">
         <v>0.0</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E25" s="8">
         <v>2.0</v>
@@ -3766,12 +4416,15 @@
         <v>0.0</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="J25" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K25" s="8">
         <v>33.0</v>
       </c>
-      <c r="K25" s="15">
+      <c r="L25" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -3780,13 +4433,13 @@
         <v>24.0</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C26" s="8">
         <v>0.0</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="E26" s="8">
         <v>2.0</v>
@@ -3801,12 +4454,15 @@
         <v>0.0</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="J26" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K26" s="8">
         <v>34.0</v>
       </c>
-      <c r="K26" s="15">
+      <c r="L26" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -3815,13 +4471,13 @@
         <v>25.0</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="C27" s="8">
         <v>0.0</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="E27" s="8">
         <v>2.0</v>
@@ -3836,12 +4492,15 @@
         <v>0.0</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="J27" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K27" s="8">
         <v>46.0</v>
       </c>
-      <c r="K27" s="15">
+      <c r="L27" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -3850,13 +4509,13 @@
         <v>26.0</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="C28" s="8">
         <v>0.0</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="E28" s="8">
         <v>2.0</v>
@@ -3871,12 +4530,15 @@
         <v>0.0</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="J28" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K28" s="8">
         <v>47.0</v>
       </c>
-      <c r="K28" s="15">
+      <c r="L28" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -3885,13 +4547,13 @@
         <v>27.0</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C29" s="8">
         <v>0.0</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="E29" s="8">
         <v>2.0</v>
@@ -3906,12 +4568,15 @@
         <v>0.0</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="J29" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K29" s="8">
         <v>48.0</v>
       </c>
-      <c r="K29" s="15">
+      <c r="L29" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -3920,13 +4585,13 @@
         <v>28.0</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C30" s="8">
         <v>0.0</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="E30" s="8">
         <v>2.0</v>
@@ -3941,12 +4606,15 @@
         <v>0.0</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="J30" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K30" s="8">
         <v>49.0</v>
       </c>
-      <c r="K30" s="15">
+      <c r="L30" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -3955,33 +4623,36 @@
         <v>29.0</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C31" s="8">
         <v>0.0</v>
       </c>
       <c r="D31" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F31" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G31" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="H31" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I31" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E31" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="F31" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="G31" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="H31" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>95</v>
-      </c>
       <c r="J31" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K31" s="8">
         <v>50.0</v>
       </c>
-      <c r="K31" s="15">
+      <c r="L31" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -3990,13 +4661,13 @@
         <v>30.0</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="C32" s="8">
         <v>0.0</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="E32" s="8">
         <v>2.0</v>
@@ -4011,12 +4682,15 @@
         <v>0.0</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="J32" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K32" s="8">
         <v>52.0</v>
       </c>
-      <c r="K32" s="15">
+      <c r="L32" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4025,13 +4699,13 @@
         <v>31.0</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C33" s="8">
         <v>0.0</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="E33" s="8">
         <v>2.0</v>
@@ -4046,12 +4720,15 @@
         <v>0.0</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="J33" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K33" s="8">
         <v>53.0</v>
       </c>
-      <c r="K33" s="15">
+      <c r="L33" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4060,13 +4737,13 @@
         <v>32.0</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C34" s="8">
         <v>0.0</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="E34" s="8">
         <v>2.0</v>
@@ -4081,12 +4758,15 @@
         <v>0.0</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="J34" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K34" s="8">
         <v>54.0</v>
       </c>
-      <c r="K34" s="15">
+      <c r="L34" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4095,13 +4775,13 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C35" s="8">
         <v>0.0</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="E35" s="8">
         <v>2.0</v>
@@ -4116,12 +4796,15 @@
         <v>0.0</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="J35" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K35" s="8">
         <v>55.0</v>
       </c>
-      <c r="K35" s="15">
+      <c r="L35" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4130,13 +4813,13 @@
         <v>34.0</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C36" s="8">
         <v>0.0</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E36" s="8">
         <v>2.0</v>
@@ -4151,12 +4834,15 @@
         <v>0.0</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="J36" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K36" s="8">
         <v>56.0</v>
       </c>
-      <c r="K36" s="15">
+      <c r="L36" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4165,13 +4851,13 @@
         <v>35.0</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C37" s="8">
         <v>0.0</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="E37" s="8">
         <v>2.0</v>
@@ -4186,12 +4872,15 @@
         <v>0.0</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="J37" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K37" s="8">
         <v>58.0</v>
       </c>
-      <c r="K37" s="15">
+      <c r="L37" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4200,13 +4889,13 @@
         <v>36.0</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C38" s="8">
         <v>0.0</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="E38" s="8">
         <v>2.0</v>
@@ -4221,12 +4910,15 @@
         <v>0.0</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="J38" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K38" s="8">
         <v>59.0</v>
       </c>
-      <c r="K38" s="15">
+      <c r="L38" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4235,13 +4927,13 @@
         <v>37.0</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="C39" s="8">
         <v>0.0</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E39" s="8">
         <v>2.0</v>
@@ -4256,12 +4948,15 @@
         <v>0.0</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="J39" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K39" s="8">
         <v>60.0</v>
       </c>
-      <c r="K39" s="15">
+      <c r="L39" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4270,13 +4965,13 @@
         <v>38.0</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="C40" s="8">
         <v>0.0</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="E40" s="8">
         <v>2.0</v>
@@ -4291,12 +4986,15 @@
         <v>0.0</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="J40" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K40" s="8">
         <v>61.0</v>
       </c>
-      <c r="K40" s="15">
+      <c r="L40" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4304,14 +5002,14 @@
       <c r="A41" s="16">
         <v>39.0</v>
       </c>
-      <c r="B41" s="17" t="s">
-        <v>135</v>
+      <c r="B41" s="18" t="s">
+        <v>148</v>
       </c>
       <c r="C41" s="8">
         <v>0.0</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="E41" s="8">
         <v>2.0</v>
@@ -4326,12 +5024,15 @@
         <v>0.0</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="J41" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K41" s="8">
         <v>72.0</v>
       </c>
-      <c r="K41" s="15">
+      <c r="L41" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4340,13 +5041,13 @@
         <v>40.0</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="C42" s="8">
         <v>0.0</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="E42" s="8">
         <v>2.0</v>
@@ -4361,12 +5062,15 @@
         <v>0.0</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="J42" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K42" s="8">
         <v>73.0</v>
       </c>
-      <c r="K42" s="15">
+      <c r="L42" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4375,13 +5079,13 @@
         <v>41.0</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="C43" s="8">
         <v>0.0</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="E43" s="8">
         <v>2.0</v>
@@ -4396,12 +5100,15 @@
         <v>0.0</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="J43" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K43" s="8">
         <v>74.0</v>
       </c>
-      <c r="K43" s="15">
+      <c r="L43" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4410,13 +5117,13 @@
         <v>42.0</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="C44" s="8">
         <v>0.0</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="E44" s="8">
         <v>2.0</v>
@@ -4431,12 +5138,15 @@
         <v>0.0</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="J44" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K44" s="8">
         <v>75.0</v>
       </c>
-      <c r="K44" s="15">
+      <c r="L44" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4445,13 +5155,13 @@
         <v>43.0</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="C45" s="8">
         <v>0.0</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E45" s="8">
         <v>2.0</v>
@@ -4466,12 +5176,15 @@
         <v>0.0</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="J45" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K45" s="8">
         <v>76.0</v>
       </c>
-      <c r="K45" s="15">
+      <c r="L45" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4480,13 +5193,13 @@
         <v>44.0</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C46" s="8">
         <v>0.0</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="E46" s="8">
         <v>2.0</v>
@@ -4501,12 +5214,15 @@
         <v>0.0</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="J46" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K46" s="8">
         <v>77.0</v>
       </c>
-      <c r="K46" s="15">
+      <c r="L46" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4515,13 +5231,13 @@
         <v>45.0</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="C47" s="8">
         <v>0.0</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="E47" s="8">
         <v>2.0</v>
@@ -4536,12 +5252,15 @@
         <v>0.0</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="J47" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K47" s="8">
         <v>78.0</v>
       </c>
-      <c r="K47" s="15">
+      <c r="L47" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4550,13 +5269,13 @@
         <v>46.0</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="C48" s="8">
         <v>0.0</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="E48" s="8">
         <v>2.0</v>
@@ -4571,12 +5290,15 @@
         <v>0.0</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="J48" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K48" s="8">
         <v>79.0</v>
       </c>
-      <c r="K48" s="15">
+      <c r="L48" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4585,13 +5307,13 @@
         <v>47.0</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="C49" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>160</v>
+        <v>172</v>
+      </c>
+      <c r="C49" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>173</v>
       </c>
       <c r="E49" s="8">
         <v>2.0</v>
@@ -4606,12 +5328,15 @@
         <v>0.0</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="J49" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K49" s="8">
         <v>80.0</v>
       </c>
-      <c r="K49" s="15">
+      <c r="L49" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4619,11 +5344,14 @@
       <c r="A50" s="16">
         <v>48.0</v>
       </c>
+      <c r="B50" s="15" t="s">
+        <v>175</v>
+      </c>
       <c r="C50" s="8">
         <v>0.0</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="E50" s="8">
         <v>2.0</v>
@@ -4638,12 +5366,15 @@
         <v>0.0</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="J50" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K50" s="8">
         <v>88.0</v>
       </c>
-      <c r="K50" s="15">
+      <c r="L50" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4651,11 +5382,14 @@
       <c r="A51" s="16">
         <v>49.0</v>
       </c>
+      <c r="B51" s="15" t="s">
+        <v>178</v>
+      </c>
       <c r="C51" s="8">
         <v>0.0</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="E51" s="8">
         <v>2.0</v>
@@ -4670,12 +5404,15 @@
         <v>0.0</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="J51" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K51" s="8">
         <v>89.0</v>
       </c>
-      <c r="K51" s="15">
+      <c r="L51" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4683,11 +5420,14 @@
       <c r="A52" s="16">
         <v>50.0</v>
       </c>
+      <c r="B52" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="C52" s="8">
         <v>0.0</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="E52" s="8">
         <v>2.0</v>
@@ -4702,12 +5442,15 @@
         <v>0.0</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="J52" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K52" s="8">
         <v>90.0</v>
       </c>
-      <c r="K52" s="15">
+      <c r="L52" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4715,11 +5458,14 @@
       <c r="A53" s="16">
         <v>51.0</v>
       </c>
+      <c r="B53" s="15" t="s">
+        <v>184</v>
+      </c>
       <c r="C53" s="8">
         <v>0.0</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="E53" s="8">
         <v>2.0</v>
@@ -4734,12 +5480,15 @@
         <v>0.0</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="J53" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K53" s="8">
         <v>91.0</v>
       </c>
-      <c r="K53" s="15">
+      <c r="L53" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4747,11 +5496,14 @@
       <c r="A54" s="16">
         <v>52.0</v>
       </c>
+      <c r="B54" s="15" t="s">
+        <v>103</v>
+      </c>
       <c r="C54" s="8">
         <v>0.0</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E54" s="8">
         <v>2.0</v>
@@ -4766,12 +5518,15 @@
         <v>0.0</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="J54" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K54" s="8">
         <v>92.0</v>
       </c>
-      <c r="K54" s="15">
+      <c r="L54" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4779,11 +5534,14 @@
       <c r="A55" s="16">
         <v>53.0</v>
       </c>
+      <c r="B55" s="15" t="s">
+        <v>187</v>
+      </c>
       <c r="C55" s="8">
         <v>0.0</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="E55" s="8">
         <v>2.0</v>
@@ -4798,12 +5556,15 @@
         <v>0.0</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="J55" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K55" s="8">
         <v>93.0</v>
       </c>
-      <c r="K55" s="15">
+      <c r="L55" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4811,11 +5572,14 @@
       <c r="A56" s="16">
         <v>54.0</v>
       </c>
+      <c r="B56" s="15" t="s">
+        <v>190</v>
+      </c>
       <c r="C56" s="8">
         <v>0.0</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="E56" s="8">
         <v>2.0</v>
@@ -4830,12 +5594,15 @@
         <v>0.0</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="J56" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K56" s="8">
         <v>94.0</v>
       </c>
-      <c r="K56" s="15">
+      <c r="L56" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4843,11 +5610,14 @@
       <c r="A57" s="16">
         <v>55.0</v>
       </c>
+      <c r="B57" s="15" t="s">
+        <v>193</v>
+      </c>
       <c r="C57" s="8">
         <v>0.0</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="E57" s="8">
         <v>2.0</v>
@@ -4862,12 +5632,15 @@
         <v>0.0</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="J57" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K57" s="8">
         <v>95.0</v>
       </c>
-      <c r="K57" s="15">
+      <c r="L57" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4875,11 +5648,14 @@
       <c r="A58" s="16">
         <v>56.0</v>
       </c>
+      <c r="B58" s="20" t="s">
+        <v>195</v>
+      </c>
       <c r="C58" s="8">
         <v>0.0</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="E58" s="8">
         <v>2.0</v>
@@ -4894,12 +5670,15 @@
         <v>0.0</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="J58" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K58" s="8">
         <v>96.0</v>
       </c>
-      <c r="K58" s="15">
+      <c r="L58" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4907,11 +5686,14 @@
       <c r="A59" s="16">
         <v>57.0</v>
       </c>
+      <c r="B59" s="20" t="s">
+        <v>198</v>
+      </c>
       <c r="C59" s="8">
         <v>0.0</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="E59" s="8">
         <v>2.0</v>
@@ -4926,12 +5708,15 @@
         <v>0.0</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="J59" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K59" s="8">
         <v>97.0</v>
       </c>
-      <c r="K59" s="15">
+      <c r="L59" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4939,11 +5724,14 @@
       <c r="A60" s="16">
         <v>58.0</v>
       </c>
+      <c r="B60" s="20" t="s">
+        <v>201</v>
+      </c>
       <c r="C60" s="8">
         <v>0.0</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="E60" s="8">
         <v>2.0</v>
@@ -4958,12 +5746,15 @@
         <v>0.0</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="J60" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K60" s="8">
         <v>98.0</v>
       </c>
-      <c r="K60" s="15">
+      <c r="L60" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4971,11 +5762,14 @@
       <c r="A61" s="16">
         <v>59.0</v>
       </c>
+      <c r="B61" s="20" t="s">
+        <v>204</v>
+      </c>
       <c r="C61" s="8">
         <v>0.0</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="E61" s="8">
         <v>2.0</v>
@@ -4990,12 +5784,15 @@
         <v>0.0</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="J61" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K61" s="8">
         <v>99.0</v>
       </c>
-      <c r="K61" s="15">
+      <c r="L61" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5003,11 +5800,14 @@
       <c r="A62" s="16">
         <v>60.0</v>
       </c>
+      <c r="B62" s="20" t="s">
+        <v>207</v>
+      </c>
       <c r="C62" s="8">
         <v>0.0</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="E62" s="8">
         <v>2.0</v>
@@ -5022,12 +5822,15 @@
         <v>0.0</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="J62" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K62" s="8">
         <v>100.0</v>
       </c>
-      <c r="K62" s="15">
+      <c r="L62" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5035,11 +5838,14 @@
       <c r="A63" s="16">
         <v>61.0</v>
       </c>
+      <c r="B63" s="20" t="s">
+        <v>210</v>
+      </c>
       <c r="C63" s="8">
         <v>0.0</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="E63" s="8">
         <v>2.0</v>
@@ -5054,12 +5860,15 @@
         <v>0.0</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="J63" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K63" s="8">
         <v>101.0</v>
       </c>
-      <c r="K63" s="15">
+      <c r="L63" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5067,11 +5876,14 @@
       <c r="A64" s="16">
         <v>62.0</v>
       </c>
+      <c r="B64" s="20" t="s">
+        <v>213</v>
+      </c>
       <c r="C64" s="8">
         <v>0.0</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="E64" s="8">
         <v>2.0</v>
@@ -5086,12 +5898,15 @@
         <v>0.0</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="J64" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K64" s="8">
         <v>102.0</v>
       </c>
-      <c r="K64" s="15">
+      <c r="L64" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5099,11 +5914,14 @@
       <c r="A65" s="16">
         <v>63.0</v>
       </c>
+      <c r="B65" s="20" t="s">
+        <v>216</v>
+      </c>
       <c r="C65" s="8">
         <v>0.0</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="E65" s="8">
         <v>2.0</v>
@@ -5118,12 +5936,15 @@
         <v>0.0</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="J65" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K65" s="8">
         <v>103.0</v>
       </c>
-      <c r="K65" s="15">
+      <c r="L65" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5131,11 +5952,14 @@
       <c r="A66" s="16">
         <v>64.0</v>
       </c>
+      <c r="B66" s="20" t="s">
+        <v>219</v>
+      </c>
       <c r="C66" s="8">
         <v>0.0</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="E66" s="8">
         <v>2.0</v>
@@ -5150,12 +5974,15 @@
         <v>0.0</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="J66" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K66" s="8">
         <v>104.0</v>
       </c>
-      <c r="K66" s="15">
+      <c r="L66" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5163,11 +5990,14 @@
       <c r="A67" s="16">
         <v>65.0</v>
       </c>
+      <c r="B67" s="20" t="s">
+        <v>222</v>
+      </c>
       <c r="C67" s="8">
         <v>0.0</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="E67" s="8">
         <v>2.0</v>
@@ -5182,12 +6012,15 @@
         <v>0.0</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="J67" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K67" s="8">
         <v>105.0</v>
       </c>
-      <c r="K67" s="15">
+      <c r="L67" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5195,11 +6028,14 @@
       <c r="A68" s="16">
         <v>66.0</v>
       </c>
+      <c r="B68" s="20" t="s">
+        <v>225</v>
+      </c>
       <c r="C68" s="8">
         <v>0.0</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="E68" s="8">
         <v>2.0</v>
@@ -5214,12 +6050,15 @@
         <v>0.0</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="J68" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K68" s="8">
         <v>106.0</v>
       </c>
-      <c r="K68" s="15">
+      <c r="L68" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5227,11 +6066,14 @@
       <c r="A69" s="16">
         <v>67.0</v>
       </c>
-      <c r="C69" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="D69" s="18" t="s">
-        <v>197</v>
+      <c r="B69" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="C69" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>229</v>
       </c>
       <c r="E69" s="8">
         <v>2.0</v>
@@ -5246,12 +6088,15 @@
         <v>0.0</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="J69" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K69" s="8">
         <v>114.0</v>
       </c>
-      <c r="K69" s="15">
+      <c r="L69" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5259,11 +6104,14 @@
       <c r="A70" s="16">
         <v>68.0</v>
       </c>
+      <c r="B70" s="20" t="s">
+        <v>231</v>
+      </c>
       <c r="C70" s="8">
         <v>0.0</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="E70" s="8">
         <v>2.0</v>
@@ -5278,12 +6126,15 @@
         <v>0.0</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="J70" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K70" s="8">
         <v>115.0</v>
       </c>
-      <c r="K70" s="15">
+      <c r="L70" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5291,11 +6142,14 @@
       <c r="A71" s="16">
         <v>69.0</v>
       </c>
+      <c r="B71" s="20" t="s">
+        <v>234</v>
+      </c>
       <c r="C71" s="8">
         <v>0.0</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="E71" s="8">
         <v>2.0</v>
@@ -5310,12 +6164,15 @@
         <v>0.0</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>202</v>
+        <v>236</v>
       </c>
       <c r="J71" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K71" s="8">
         <v>116.0</v>
       </c>
-      <c r="K71" s="15">
+      <c r="L71" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5323,11 +6180,14 @@
       <c r="A72" s="16">
         <v>70.0</v>
       </c>
+      <c r="B72" s="20" t="s">
+        <v>237</v>
+      </c>
       <c r="C72" s="8">
         <v>0.0</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="E72" s="8">
         <v>2.0</v>
@@ -5342,12 +6202,15 @@
         <v>0.0</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="J72" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K72" s="8">
         <v>117.0</v>
       </c>
-      <c r="K72" s="15">
+      <c r="L72" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5355,11 +6218,14 @@
       <c r="A73" s="16">
         <v>71.0</v>
       </c>
+      <c r="B73" s="20" t="s">
+        <v>240</v>
+      </c>
       <c r="C73" s="8">
         <v>0.0</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="E73" s="8">
         <v>2.0</v>
@@ -5374,12 +6240,15 @@
         <v>0.0</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="J73" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K73" s="8">
         <v>118.0</v>
       </c>
-      <c r="K73" s="15">
+      <c r="L73" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5387,11 +6256,14 @@
       <c r="A74" s="16">
         <v>72.0</v>
       </c>
+      <c r="B74" s="20" t="s">
+        <v>243</v>
+      </c>
       <c r="C74" s="8">
         <v>0.0</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="E74" s="8">
         <v>2.0</v>
@@ -5406,12 +6278,15 @@
         <v>0.0</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="J74" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K74" s="8">
         <v>119.0</v>
       </c>
-      <c r="K74" s="15">
+      <c r="L74" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5419,11 +6294,14 @@
       <c r="A75" s="16">
         <v>73.0</v>
       </c>
+      <c r="B75" s="20" t="s">
+        <v>246</v>
+      </c>
       <c r="C75" s="8">
         <v>0.0</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
       <c r="E75" s="8">
         <v>2.0</v>
@@ -5438,12 +6316,15 @@
         <v>0.0</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="J75" s="8">
+        <v>248</v>
+      </c>
+      <c r="J75" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="K75" s="8">
         <v>120.0</v>
       </c>
-      <c r="K75" s="15">
+      <c r="L75" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5451,11 +6332,14 @@
       <c r="A76" s="16">
         <v>74.0</v>
       </c>
+      <c r="B76" s="20" t="s">
+        <v>250</v>
+      </c>
       <c r="C76" s="8">
         <v>0.0</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="E76" s="8">
         <v>2.0</v>
@@ -5470,12 +6354,15 @@
         <v>0.0</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="J76" s="8">
+        <v>252</v>
+      </c>
+      <c r="J76" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="K76" s="8">
         <v>121.0</v>
       </c>
-      <c r="K76" s="15">
+      <c r="L76" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5483,11 +6370,14 @@
       <c r="A77" s="16">
         <v>75.0</v>
       </c>
+      <c r="B77" s="20" t="s">
+        <v>254</v>
+      </c>
       <c r="C77" s="8">
         <v>0.0</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="E77" s="8">
         <v>2.0</v>
@@ -5502,12 +6392,15 @@
         <v>0.0</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="J77" s="8">
+        <v>256</v>
+      </c>
+      <c r="J77" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K77" s="8">
         <v>122.0</v>
       </c>
-      <c r="K77" s="15">
+      <c r="L77" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5515,11 +6408,14 @@
       <c r="A78" s="16">
         <v>76.0</v>
       </c>
+      <c r="B78" s="20" t="s">
+        <v>258</v>
+      </c>
       <c r="C78" s="8">
         <v>0.0</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>215</v>
+        <v>259</v>
       </c>
       <c r="E78" s="8">
         <v>2.0</v>
@@ -5534,12 +6430,15 @@
         <v>0.0</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="J78" s="8">
+        <v>260</v>
+      </c>
+      <c r="J78" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="K78" s="8">
         <v>123.0</v>
       </c>
-      <c r="K78" s="15">
+      <c r="L78" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5547,11 +6446,14 @@
       <c r="A79" s="16">
         <v>77.0</v>
       </c>
+      <c r="B79" s="20" t="s">
+        <v>262</v>
+      </c>
       <c r="C79" s="8">
         <v>0.0</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>217</v>
+        <v>263</v>
       </c>
       <c r="E79" s="8">
         <v>2.0</v>
@@ -5566,12 +6468,15 @@
         <v>0.0</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>218</v>
+        <v>264</v>
       </c>
       <c r="J79" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K79" s="8">
         <v>124.0</v>
       </c>
-      <c r="K79" s="15">
+      <c r="L79" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5579,11 +6484,14 @@
       <c r="A80" s="16">
         <v>78.0</v>
       </c>
+      <c r="B80" s="20" t="s">
+        <v>265</v>
+      </c>
       <c r="C80" s="8">
         <v>0.0</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>219</v>
+        <v>266</v>
       </c>
       <c r="E80" s="8">
         <v>2.0</v>
@@ -5598,12 +6506,15 @@
         <v>0.0</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="J80" s="8">
+        <v>267</v>
+      </c>
+      <c r="J80" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="K80" s="8">
         <v>125.0</v>
       </c>
-      <c r="K80" s="15">
+      <c r="L80" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5611,11 +6522,14 @@
       <c r="A81" s="16">
         <v>79.0</v>
       </c>
+      <c r="B81" s="20" t="s">
+        <v>269</v>
+      </c>
       <c r="C81" s="8">
         <v>0.0</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>221</v>
+        <v>270</v>
       </c>
       <c r="E81" s="8">
         <v>2.0</v>
@@ -5630,12 +6544,15 @@
         <v>0.0</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="J81" s="8">
+        <v>271</v>
+      </c>
+      <c r="J81" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="K81" s="8">
         <v>126.0</v>
       </c>
-      <c r="K81" s="15">
+      <c r="L81" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5643,11 +6560,14 @@
       <c r="A82" s="16">
         <v>80.0</v>
       </c>
+      <c r="B82" s="20" t="s">
+        <v>273</v>
+      </c>
       <c r="C82" s="8">
         <v>0.0</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>223</v>
+        <v>274</v>
       </c>
       <c r="E82" s="8">
         <v>2.0</v>
@@ -5662,12 +6582,15 @@
         <v>0.0</v>
       </c>
       <c r="I82" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="J82" s="8">
+        <v>275</v>
+      </c>
+      <c r="J82" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="K82" s="8">
         <v>127.0</v>
       </c>
-      <c r="K82" s="15">
+      <c r="L82" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5675,11 +6598,14 @@
       <c r="A83" s="16">
         <v>81.0</v>
       </c>
-      <c r="C83" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D83" s="20" t="s">
-        <v>225</v>
+      <c r="B83" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="C83" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D83" s="22" t="s">
+        <v>278</v>
       </c>
       <c r="E83" s="8">
         <v>2.0</v>
@@ -5694,12 +6620,15 @@
         <v>0.0</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="J83" s="20">
+        <v>279</v>
+      </c>
+      <c r="J83" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="K83" s="22">
         <v>128.0</v>
       </c>
-      <c r="K83" s="15">
+      <c r="L83" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5707,11 +6636,14 @@
       <c r="A84" s="16">
         <v>82.0</v>
       </c>
-      <c r="C84" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D84" s="20" t="s">
-        <v>227</v>
+      <c r="B84" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="C84" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D84" s="22" t="s">
+        <v>282</v>
       </c>
       <c r="E84" s="8">
         <v>2.0</v>
@@ -5726,12 +6658,15 @@
         <v>0.0</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="J84" s="20">
+        <v>283</v>
+      </c>
+      <c r="J84" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K84" s="22">
         <v>129.0</v>
       </c>
-      <c r="K84" s="15">
+      <c r="L84" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5739,11 +6674,14 @@
       <c r="A85" s="16">
         <v>83.0</v>
       </c>
-      <c r="C85" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D85" s="20" t="s">
-        <v>229</v>
+      <c r="B85" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="C85" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D85" s="22" t="s">
+        <v>285</v>
       </c>
       <c r="E85" s="8">
         <v>2.0</v>
@@ -5758,12 +6696,15 @@
         <v>0.0</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="J85" s="20">
+        <v>286</v>
+      </c>
+      <c r="J85" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K85" s="22">
         <v>130.0</v>
       </c>
-      <c r="K85" s="15">
+      <c r="L85" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5771,11 +6712,14 @@
       <c r="A86" s="16">
         <v>84.0</v>
       </c>
-      <c r="C86" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D86" s="20" t="s">
-        <v>231</v>
+      <c r="B86" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="C86" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D86" s="22" t="s">
+        <v>288</v>
       </c>
       <c r="E86" s="8">
         <v>2.0</v>
@@ -5790,12 +6734,15 @@
         <v>0.0</v>
       </c>
       <c r="I86" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="J86" s="20">
+        <v>289</v>
+      </c>
+      <c r="J86" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K86" s="22">
         <v>131.0</v>
       </c>
-      <c r="K86" s="15">
+      <c r="L86" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5803,11 +6750,14 @@
       <c r="A87" s="16">
         <v>85.0</v>
       </c>
-      <c r="C87" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D87" s="20" t="s">
-        <v>233</v>
+      <c r="B87" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="C87" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D87" s="22" t="s">
+        <v>291</v>
       </c>
       <c r="E87" s="8">
         <v>2.0</v>
@@ -5822,12 +6772,15 @@
         <v>0.0</v>
       </c>
       <c r="I87" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="J87" s="20">
+        <v>292</v>
+      </c>
+      <c r="J87" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K87" s="22">
         <v>132.0</v>
       </c>
-      <c r="K87" s="15">
+      <c r="L87" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5835,11 +6788,14 @@
       <c r="A88" s="16">
         <v>86.0</v>
       </c>
-      <c r="C88" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="D88" s="22" t="s">
-        <v>235</v>
+      <c r="B88" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="C88" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="D88" s="24" t="s">
+        <v>294</v>
       </c>
       <c r="E88" s="8">
         <v>2.0</v>
@@ -5854,12 +6810,15 @@
         <v>0.0</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="J88" s="20">
+        <v>295</v>
+      </c>
+      <c r="J88" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="K88" s="22">
         <v>133.0</v>
       </c>
-      <c r="K88" s="15">
+      <c r="L88" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5867,11 +6826,14 @@
       <c r="A89" s="16">
         <v>87.0</v>
       </c>
-      <c r="C89" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D89" s="20" t="s">
-        <v>237</v>
+      <c r="B89" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="C89" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D89" s="22" t="s">
+        <v>298</v>
       </c>
       <c r="E89" s="8">
         <v>2.0</v>
@@ -5886,12 +6848,15 @@
         <v>0.0</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="J89" s="20">
+        <v>299</v>
+      </c>
+      <c r="J89" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="K89" s="22">
         <v>134.0</v>
       </c>
-      <c r="K89" s="15">
+      <c r="L89" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5899,11 +6864,14 @@
       <c r="A90" s="16">
         <v>88.0</v>
       </c>
-      <c r="C90" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="D90" s="22" t="s">
-        <v>239</v>
+      <c r="B90" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="C90" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="D90" s="24" t="s">
+        <v>302</v>
       </c>
       <c r="E90" s="8">
         <v>2.0</v>
@@ -5918,12 +6886,15 @@
         <v>0.0</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="J90" s="20">
+        <v>303</v>
+      </c>
+      <c r="J90" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="K90" s="22">
         <v>135.0</v>
       </c>
-      <c r="K90" s="15">
+      <c r="L90" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5931,11 +6902,14 @@
       <c r="A91" s="16">
         <v>89.0</v>
       </c>
-      <c r="C91" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D91" s="20" t="s">
-        <v>241</v>
+      <c r="B91" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="C91" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D91" s="22" t="s">
+        <v>306</v>
       </c>
       <c r="E91" s="8">
         <v>2.0</v>
@@ -5950,12 +6924,15 @@
         <v>0.0</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="J91" s="20">
+        <v>307</v>
+      </c>
+      <c r="J91" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="K91" s="22">
         <v>136.0</v>
       </c>
-      <c r="K91" s="15">
+      <c r="L91" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5963,11 +6940,14 @@
       <c r="A92" s="16">
         <v>90.0</v>
       </c>
-      <c r="C92" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D92" s="20" t="s">
-        <v>243</v>
+      <c r="B92" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="C92" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D92" s="22" t="s">
+        <v>309</v>
       </c>
       <c r="E92" s="8">
         <v>2.0</v>
@@ -5982,12 +6962,13 @@
         <v>0.0</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="J92" s="20">
+        <v>283</v>
+      </c>
+      <c r="J92" s="22"/>
+      <c r="K92" s="22">
         <v>137.0</v>
       </c>
-      <c r="K92" s="15">
+      <c r="L92" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5995,11 +6976,14 @@
       <c r="A93" s="16">
         <v>91.0</v>
       </c>
-      <c r="C93" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D93" s="20" t="s">
-        <v>244</v>
+      <c r="B93" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="C93" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D93" s="22" t="s">
+        <v>311</v>
       </c>
       <c r="E93" s="8">
         <v>2.0</v>
@@ -6014,12 +6998,13 @@
         <v>0.0</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="J93" s="20">
+        <v>312</v>
+      </c>
+      <c r="J93" s="22"/>
+      <c r="K93" s="22">
         <v>147.0</v>
       </c>
-      <c r="K93" s="15">
+      <c r="L93" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6027,11 +7012,14 @@
       <c r="A94" s="16">
         <v>92.0</v>
       </c>
-      <c r="C94" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D94" s="20" t="s">
-        <v>246</v>
+      <c r="B94" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="C94" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D94" s="22" t="s">
+        <v>314</v>
       </c>
       <c r="E94" s="8">
         <v>2.0</v>
@@ -6046,12 +7034,13 @@
         <v>0.0</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="J94" s="20">
+        <v>315</v>
+      </c>
+      <c r="J94" s="22"/>
+      <c r="K94" s="22">
         <v>148.0</v>
       </c>
-      <c r="K94" s="15">
+      <c r="L94" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6059,11 +7048,14 @@
       <c r="A95" s="16">
         <v>93.0</v>
       </c>
-      <c r="C95" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D95" s="20" t="s">
-        <v>248</v>
+      <c r="B95" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="C95" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D95" s="22" t="s">
+        <v>317</v>
       </c>
       <c r="E95" s="8">
         <v>2.0</v>
@@ -6078,12 +7070,13 @@
         <v>0.0</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="J95" s="20">
+        <v>318</v>
+      </c>
+      <c r="J95" s="22"/>
+      <c r="K95" s="22">
         <v>149.0</v>
       </c>
-      <c r="K95" s="15">
+      <c r="L95" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6091,11 +7084,14 @@
       <c r="A96" s="16">
         <v>94.0</v>
       </c>
-      <c r="C96" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D96" s="20" t="s">
-        <v>250</v>
+      <c r="B96" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="C96" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D96" s="22" t="s">
+        <v>320</v>
       </c>
       <c r="E96" s="8">
         <v>2.0</v>
@@ -6110,12 +7106,13 @@
         <v>0.0</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="J96" s="20">
+        <v>321</v>
+      </c>
+      <c r="J96" s="22"/>
+      <c r="K96" s="22">
         <v>150.0</v>
       </c>
-      <c r="K96" s="15">
+      <c r="L96" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6123,11 +7120,14 @@
       <c r="A97" s="16">
         <v>95.0</v>
       </c>
-      <c r="C97" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D97" s="20" t="s">
-        <v>252</v>
+      <c r="B97" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="C97" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D97" s="22" t="s">
+        <v>323</v>
       </c>
       <c r="E97" s="8">
         <v>2.0</v>
@@ -6142,12 +7142,13 @@
         <v>0.0</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="J97" s="20">
+        <v>324</v>
+      </c>
+      <c r="J97" s="22"/>
+      <c r="K97" s="22">
         <v>151.0</v>
       </c>
-      <c r="K97" s="15">
+      <c r="L97" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6155,11 +7156,14 @@
       <c r="A98" s="16">
         <v>96.0</v>
       </c>
-      <c r="C98" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D98" s="20" t="s">
-        <v>254</v>
+      <c r="B98" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="C98" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D98" s="22" t="s">
+        <v>326</v>
       </c>
       <c r="E98" s="8">
         <v>2.0</v>
@@ -6174,12 +7178,15 @@
         <v>0.0</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="J98" s="20">
+        <v>327</v>
+      </c>
+      <c r="J98" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="K98" s="22">
         <v>152.0</v>
       </c>
-      <c r="K98" s="15">
+      <c r="L98" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6187,11 +7194,14 @@
       <c r="A99" s="16">
         <v>97.0</v>
       </c>
-      <c r="C99" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D99" s="20" t="s">
-        <v>256</v>
+      <c r="B99" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="C99" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D99" s="22" t="s">
+        <v>329</v>
       </c>
       <c r="E99" s="8">
         <v>2.0</v>
@@ -6206,12 +7216,15 @@
         <v>0.0</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="J99" s="20">
+        <v>330</v>
+      </c>
+      <c r="J99" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="K99" s="22">
         <v>153.0</v>
       </c>
-      <c r="K99" s="15">
+      <c r="L99" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6219,11 +7232,14 @@
       <c r="A100" s="16">
         <v>98.0</v>
       </c>
-      <c r="C100" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D100" s="20" t="s">
-        <v>258</v>
+      <c r="B100" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="C100" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D100" s="22" t="s">
+        <v>333</v>
       </c>
       <c r="E100" s="8">
         <v>2.0</v>
@@ -6238,12 +7254,15 @@
         <v>0.0</v>
       </c>
       <c r="I100" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="J100" s="20">
+        <v>334</v>
+      </c>
+      <c r="J100" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="K100" s="22">
         <v>154.0</v>
       </c>
-      <c r="K100" s="15">
+      <c r="L100" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6251,11 +7270,14 @@
       <c r="A101" s="16">
         <v>99.0</v>
       </c>
-      <c r="C101" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D101" s="20" t="s">
-        <v>260</v>
+      <c r="B101" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="C101" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D101" s="22" t="s">
+        <v>337</v>
       </c>
       <c r="E101" s="8">
         <v>2.0</v>
@@ -6270,12 +7292,15 @@
         <v>0.0</v>
       </c>
       <c r="I101" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="J101" s="20">
+        <v>338</v>
+      </c>
+      <c r="J101" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K101" s="22">
         <v>155.0</v>
       </c>
-      <c r="K101" s="15">
+      <c r="L101" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6283,11 +7308,14 @@
       <c r="A102" s="16">
         <v>100.0</v>
       </c>
-      <c r="C102" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D102" s="20" t="s">
-        <v>262</v>
+      <c r="B102" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="C102" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D102" s="22" t="s">
+        <v>340</v>
       </c>
       <c r="E102" s="8">
         <v>2.0</v>
@@ -6302,12 +7330,15 @@
         <v>0.0</v>
       </c>
       <c r="I102" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="J102" s="20">
+        <v>341</v>
+      </c>
+      <c r="J102" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K102" s="22">
         <v>156.0</v>
       </c>
-      <c r="K102" s="15">
+      <c r="L102" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6315,11 +7346,14 @@
       <c r="A103" s="16">
         <v>101.0</v>
       </c>
-      <c r="C103" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D103" s="20" t="s">
-        <v>264</v>
+      <c r="B103" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="C103" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D103" s="22" t="s">
+        <v>343</v>
       </c>
       <c r="E103" s="8">
         <v>2.0</v>
@@ -6334,12 +7368,15 @@
         <v>0.0</v>
       </c>
       <c r="I103" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="J103" s="20">
+        <v>344</v>
+      </c>
+      <c r="J103" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K103" s="22">
         <v>157.0</v>
       </c>
-      <c r="K103" s="15">
+      <c r="L103" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6347,11 +7384,14 @@
       <c r="A104" s="16">
         <v>102.0</v>
       </c>
-      <c r="C104" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D104" s="20" t="s">
-        <v>266</v>
+      <c r="B104" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="C104" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D104" s="22" t="s">
+        <v>346</v>
       </c>
       <c r="E104" s="8">
         <v>2.0</v>
@@ -6366,12 +7406,15 @@
         <v>0.0</v>
       </c>
       <c r="I104" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="J104" s="20">
+        <v>347</v>
+      </c>
+      <c r="J104" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K104" s="22">
         <v>158.0</v>
       </c>
-      <c r="K104" s="15">
+      <c r="L104" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6379,11 +7422,14 @@
       <c r="A105" s="16">
         <v>103.0</v>
       </c>
-      <c r="C105" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D105" s="20" t="s">
-        <v>268</v>
+      <c r="B105" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="C105" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D105" s="22" t="s">
+        <v>349</v>
       </c>
       <c r="E105" s="8">
         <v>2.0</v>
@@ -6398,12 +7444,15 @@
         <v>0.0</v>
       </c>
       <c r="I105" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="J105" s="20">
+        <v>350</v>
+      </c>
+      <c r="J105" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K105" s="22">
         <v>159.0</v>
       </c>
-      <c r="K105" s="15">
+      <c r="L105" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6411,11 +7460,14 @@
       <c r="A106" s="16">
         <v>104.0</v>
       </c>
-      <c r="C106" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D106" s="20" t="s">
-        <v>270</v>
+      <c r="B106" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="C106" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D106" s="22" t="s">
+        <v>352</v>
       </c>
       <c r="E106" s="8">
         <v>2.0</v>
@@ -6430,12 +7482,15 @@
         <v>0.0</v>
       </c>
       <c r="I106" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="J106" s="20">
+        <v>353</v>
+      </c>
+      <c r="J106" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K106" s="22">
         <v>160.0</v>
       </c>
-      <c r="K106" s="15">
+      <c r="L106" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6443,11 +7498,14 @@
       <c r="A107" s="16">
         <v>105.0</v>
       </c>
-      <c r="C107" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D107" s="20" t="s">
-        <v>272</v>
+      <c r="B107" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="C107" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D107" s="22" t="s">
+        <v>355</v>
       </c>
       <c r="E107" s="8">
         <v>2.0</v>
@@ -6462,12 +7520,15 @@
         <v>0.0</v>
       </c>
       <c r="I107" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="J107" s="20">
+        <v>356</v>
+      </c>
+      <c r="J107" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K107" s="22">
         <v>161.0</v>
       </c>
-      <c r="K107" s="15">
+      <c r="L107" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6475,11 +7536,14 @@
       <c r="A108" s="16">
         <v>106.0</v>
       </c>
-      <c r="C108" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D108" s="20" t="s">
-        <v>97</v>
+      <c r="B108" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C108" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D108" s="22" t="s">
+        <v>110</v>
       </c>
       <c r="E108" s="8">
         <v>2.0</v>
@@ -6494,12 +7558,15 @@
         <v>0.0</v>
       </c>
       <c r="I108" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="J108" s="20">
+        <v>357</v>
+      </c>
+      <c r="J108" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K108" s="22">
         <v>162.0</v>
       </c>
-      <c r="K108" s="15">
+      <c r="L108" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6507,11 +7574,14 @@
       <c r="A109" s="16">
         <v>107.0</v>
       </c>
-      <c r="C109" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D109" s="20" t="s">
-        <v>275</v>
+      <c r="B109" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="C109" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D109" s="22" t="s">
+        <v>359</v>
       </c>
       <c r="E109" s="8">
         <v>2.0</v>
@@ -6526,12 +7596,15 @@
         <v>0.0</v>
       </c>
       <c r="I109" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="J109" s="20">
+        <v>360</v>
+      </c>
+      <c r="J109" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="K109" s="22">
         <v>163.0</v>
       </c>
-      <c r="K109" s="15">
+      <c r="L109" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6539,11 +7612,14 @@
       <c r="A110" s="16">
         <v>108.0</v>
       </c>
-      <c r="C110" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D110" s="20" t="s">
-        <v>277</v>
+      <c r="B110" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C110" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D110" s="22" t="s">
+        <v>362</v>
       </c>
       <c r="E110" s="8">
         <v>2.0</v>
@@ -6558,12 +7634,15 @@
         <v>0.0</v>
       </c>
       <c r="I110" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="J110" s="20">
+        <v>363</v>
+      </c>
+      <c r="J110" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K110" s="22">
         <v>164.0</v>
       </c>
-      <c r="K110" s="15">
+      <c r="L110" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6571,11 +7650,14 @@
       <c r="A111" s="16">
         <v>109.0</v>
       </c>
-      <c r="C111" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D111" s="20" t="s">
-        <v>279</v>
+      <c r="B111" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C111" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D111" s="22" t="s">
+        <v>364</v>
       </c>
       <c r="E111" s="8">
         <v>2.0</v>
@@ -6590,12 +7672,15 @@
         <v>0.0</v>
       </c>
       <c r="I111" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="J111" s="20">
+        <v>365</v>
+      </c>
+      <c r="J111" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K111" s="22">
         <v>165.0</v>
       </c>
-      <c r="K111" s="15">
+      <c r="L111" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6603,11 +7688,14 @@
       <c r="A112" s="16">
         <v>110.0</v>
       </c>
-      <c r="C112" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D112" s="20" t="s">
-        <v>281</v>
+      <c r="B112" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="C112" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D112" s="22" t="s">
+        <v>367</v>
       </c>
       <c r="E112" s="8">
         <v>2.0</v>
@@ -6622,12 +7710,15 @@
         <v>0.0</v>
       </c>
       <c r="I112" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="J112" s="20">
+        <v>368</v>
+      </c>
+      <c r="J112" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K112" s="22">
         <v>166.0</v>
       </c>
-      <c r="K112" s="15">
+      <c r="L112" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6635,11 +7726,14 @@
       <c r="A113" s="16">
         <v>111.0</v>
       </c>
-      <c r="C113" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D113" s="20" t="s">
-        <v>283</v>
+      <c r="B113" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="C113" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D113" s="22" t="s">
+        <v>370</v>
       </c>
       <c r="E113" s="8">
         <v>2.0</v>
@@ -6654,12 +7748,15 @@
         <v>0.0</v>
       </c>
       <c r="I113" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="J113" s="20">
+        <v>371</v>
+      </c>
+      <c r="J113" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K113" s="22">
         <v>167.0</v>
       </c>
-      <c r="K113" s="15">
+      <c r="L113" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6667,11 +7764,14 @@
       <c r="A114" s="16">
         <v>112.0</v>
       </c>
-      <c r="C114" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D114" s="20" t="s">
-        <v>285</v>
+      <c r="B114" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="C114" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D114" s="22" t="s">
+        <v>373</v>
       </c>
       <c r="E114" s="8">
         <v>2.0</v>
@@ -6686,12 +7786,15 @@
         <v>0.0</v>
       </c>
       <c r="I114" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="J114" s="20">
+        <v>374</v>
+      </c>
+      <c r="J114" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K114" s="22">
         <v>168.0</v>
       </c>
-      <c r="K114" s="15">
+      <c r="L114" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6699,11 +7802,14 @@
       <c r="A115" s="16">
         <v>113.0</v>
       </c>
-      <c r="C115" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D115" s="20" t="s">
-        <v>287</v>
+      <c r="B115" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="C115" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D115" s="22" t="s">
+        <v>376</v>
       </c>
       <c r="E115" s="8">
         <v>2.0</v>
@@ -6718,12 +7824,15 @@
         <v>0.0</v>
       </c>
       <c r="I115" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="J115" s="20">
+        <v>377</v>
+      </c>
+      <c r="J115" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K115" s="22">
         <v>169.0</v>
       </c>
-      <c r="K115" s="15">
+      <c r="L115" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6731,11 +7840,14 @@
       <c r="A116" s="16">
         <v>114.0</v>
       </c>
-      <c r="C116" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D116" s="20" t="s">
-        <v>289</v>
+      <c r="B116" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="C116" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D116" s="22" t="s">
+        <v>379</v>
       </c>
       <c r="E116" s="8">
         <v>2.0</v>
@@ -6750,12 +7862,15 @@
         <v>0.0</v>
       </c>
       <c r="I116" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="J116" s="20">
+        <v>380</v>
+      </c>
+      <c r="J116" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K116" s="22">
         <v>170.0</v>
       </c>
-      <c r="K116" s="15">
+      <c r="L116" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6763,11 +7878,14 @@
       <c r="A117" s="16">
         <v>115.0</v>
       </c>
-      <c r="C117" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D117" s="20" t="s">
-        <v>291</v>
+      <c r="B117" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="C117" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D117" s="22" t="s">
+        <v>382</v>
       </c>
       <c r="E117" s="8">
         <v>2.0</v>
@@ -6782,12 +7900,15 @@
         <v>0.0</v>
       </c>
       <c r="I117" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="J117" s="20">
+        <v>383</v>
+      </c>
+      <c r="J117" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K117" s="22">
         <v>171.0</v>
       </c>
-      <c r="K117" s="15">
+      <c r="L117" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6795,11 +7916,14 @@
       <c r="A118" s="16">
         <v>116.0</v>
       </c>
-      <c r="C118" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D118" s="20" t="s">
-        <v>293</v>
+      <c r="B118" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="C118" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D118" s="22" t="s">
+        <v>385</v>
       </c>
       <c r="E118" s="8">
         <v>2.0</v>
@@ -6814,12 +7938,15 @@
         <v>0.0</v>
       </c>
       <c r="I118" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="J118" s="20">
+        <v>386</v>
+      </c>
+      <c r="J118" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K118" s="22">
         <v>172.0</v>
       </c>
-      <c r="K118" s="15">
+      <c r="L118" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6827,11 +7954,14 @@
       <c r="A119" s="16">
         <v>117.0</v>
       </c>
-      <c r="C119" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D119" s="20" t="s">
-        <v>295</v>
+      <c r="B119" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="C119" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D119" s="22" t="s">
+        <v>388</v>
       </c>
       <c r="E119" s="8">
         <v>2.0</v>
@@ -6846,12 +7976,15 @@
         <v>0.0</v>
       </c>
       <c r="I119" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="J119" s="20">
+        <v>389</v>
+      </c>
+      <c r="J119" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K119" s="22">
         <v>173.0</v>
       </c>
-      <c r="K119" s="15">
+      <c r="L119" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6859,11 +7992,14 @@
       <c r="A120" s="16">
         <v>118.0</v>
       </c>
-      <c r="C120" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D120" s="20" t="s">
-        <v>297</v>
+      <c r="B120" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="C120" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D120" s="22" t="s">
+        <v>391</v>
       </c>
       <c r="E120" s="8">
         <v>2.0</v>
@@ -6878,12 +8014,15 @@
         <v>0.0</v>
       </c>
       <c r="I120" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="J120" s="20">
+        <v>392</v>
+      </c>
+      <c r="J120" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K120" s="22">
         <v>174.0</v>
       </c>
-      <c r="K120" s="15">
+      <c r="L120" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6891,11 +8030,14 @@
       <c r="A121" s="16">
         <v>119.0</v>
       </c>
-      <c r="C121" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D121" s="20" t="s">
-        <v>299</v>
+      <c r="B121" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="C121" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D121" s="22" t="s">
+        <v>394</v>
       </c>
       <c r="E121" s="8">
         <v>2.0</v>
@@ -6910,12 +8052,15 @@
         <v>0.0</v>
       </c>
       <c r="I121" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="J121" s="20">
+        <v>395</v>
+      </c>
+      <c r="J121" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K121" s="22">
         <v>175.0</v>
       </c>
-      <c r="K121" s="15">
+      <c r="L121" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6923,11 +8068,14 @@
       <c r="A122" s="16">
         <v>120.0</v>
       </c>
-      <c r="C122" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D122" s="20" t="s">
-        <v>301</v>
+      <c r="B122" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="C122" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D122" s="22" t="s">
+        <v>397</v>
       </c>
       <c r="E122" s="8">
         <v>2.0</v>
@@ -6942,12 +8090,15 @@
         <v>0.0</v>
       </c>
       <c r="I122" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="J122" s="20">
+        <v>398</v>
+      </c>
+      <c r="J122" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K122" s="22">
         <v>176.0</v>
       </c>
-      <c r="K122" s="15">
+      <c r="L122" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6955,11 +8106,14 @@
       <c r="A123" s="16">
         <v>121.0</v>
       </c>
-      <c r="C123" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D123" s="20" t="s">
-        <v>303</v>
+      <c r="B123" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="C123" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D123" s="22" t="s">
+        <v>400</v>
       </c>
       <c r="E123" s="8">
         <v>2.0</v>
@@ -6974,12 +8128,15 @@
         <v>0.0</v>
       </c>
       <c r="I123" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="J123" s="20">
+        <v>401</v>
+      </c>
+      <c r="J123" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K123" s="22">
         <v>177.0</v>
       </c>
-      <c r="K123" s="15">
+      <c r="L123" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6987,11 +8144,14 @@
       <c r="A124" s="16">
         <v>122.0</v>
       </c>
-      <c r="C124" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D124" s="20" t="s">
-        <v>305</v>
+      <c r="B124" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="C124" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D124" s="22" t="s">
+        <v>403</v>
       </c>
       <c r="E124" s="8">
         <v>2.0</v>
@@ -7006,12 +8166,15 @@
         <v>0.0</v>
       </c>
       <c r="I124" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="J124" s="20">
+        <v>404</v>
+      </c>
+      <c r="J124" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K124" s="22">
         <v>178.0</v>
       </c>
-      <c r="K124" s="15">
+      <c r="L124" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7019,11 +8182,14 @@
       <c r="A125" s="16">
         <v>123.0</v>
       </c>
-      <c r="C125" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D125" s="20" t="s">
-        <v>307</v>
+      <c r="B125" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="C125" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D125" s="22" t="s">
+        <v>406</v>
       </c>
       <c r="E125" s="8">
         <v>2.0</v>
@@ -7038,12 +8204,15 @@
         <v>0.0</v>
       </c>
       <c r="I125" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="J125" s="20">
+        <v>407</v>
+      </c>
+      <c r="J125" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K125" s="22">
         <v>179.0</v>
       </c>
-      <c r="K125" s="15">
+      <c r="L125" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7051,11 +8220,14 @@
       <c r="A126" s="16">
         <v>124.0</v>
       </c>
-      <c r="C126" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D126" s="20" t="s">
-        <v>309</v>
+      <c r="B126" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="C126" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D126" s="22" t="s">
+        <v>409</v>
       </c>
       <c r="E126" s="8">
         <v>2.0</v>
@@ -7070,12 +8242,15 @@
         <v>0.0</v>
       </c>
       <c r="I126" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="J126" s="20">
+        <v>410</v>
+      </c>
+      <c r="J126" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K126" s="22">
         <v>180.0</v>
       </c>
-      <c r="K126" s="15">
+      <c r="L126" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7083,11 +8258,14 @@
       <c r="A127" s="16">
         <v>125.0</v>
       </c>
-      <c r="C127" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D127" s="20" t="s">
-        <v>311</v>
+      <c r="B127" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="C127" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D127" s="22" t="s">
+        <v>412</v>
       </c>
       <c r="E127" s="8">
         <v>2.0</v>
@@ -7102,12 +8280,15 @@
         <v>0.0</v>
       </c>
       <c r="I127" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="J127" s="20">
+        <v>413</v>
+      </c>
+      <c r="J127" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K127" s="22">
         <v>181.0</v>
       </c>
-      <c r="K127" s="15">
+      <c r="L127" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7115,11 +8296,14 @@
       <c r="A128" s="16">
         <v>126.0</v>
       </c>
-      <c r="C128" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D128" s="20" t="s">
-        <v>313</v>
+      <c r="B128" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="C128" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D128" s="22" t="s">
+        <v>415</v>
       </c>
       <c r="E128" s="8">
         <v>2.0</v>
@@ -7134,12 +8318,15 @@
         <v>0.0</v>
       </c>
       <c r="I128" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="J128" s="20">
+        <v>416</v>
+      </c>
+      <c r="J128" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K128" s="22">
         <v>182.0</v>
       </c>
-      <c r="K128" s="15">
+      <c r="L128" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7147,11 +8334,14 @@
       <c r="A129" s="16">
         <v>127.0</v>
       </c>
-      <c r="C129" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D129" s="20" t="s">
-        <v>315</v>
+      <c r="B129" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="C129" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D129" s="22" t="s">
+        <v>417</v>
       </c>
       <c r="E129" s="8">
         <v>2.0</v>
@@ -7166,12 +8356,15 @@
         <v>0.0</v>
       </c>
       <c r="I129" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="J129" s="20">
+        <v>386</v>
+      </c>
+      <c r="J129" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K129" s="22">
         <v>183.0</v>
       </c>
-      <c r="K129" s="15">
+      <c r="L129" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7179,11 +8372,14 @@
       <c r="A130" s="16">
         <v>128.0</v>
       </c>
-      <c r="C130" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D130" s="20" t="s">
-        <v>316</v>
+      <c r="B130" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="C130" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D130" s="22" t="s">
+        <v>419</v>
       </c>
       <c r="E130" s="8">
         <v>2.0</v>
@@ -7198,12 +8394,15 @@
         <v>0.0</v>
       </c>
       <c r="I130" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="J130" s="20">
+        <v>420</v>
+      </c>
+      <c r="J130" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K130" s="22">
         <v>184.0</v>
       </c>
-      <c r="K130" s="15">
+      <c r="L130" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7211,11 +8410,14 @@
       <c r="A131" s="16">
         <v>129.0</v>
       </c>
-      <c r="C131" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D131" s="20" t="s">
-        <v>318</v>
+      <c r="B131" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="C131" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D131" s="22" t="s">
+        <v>422</v>
       </c>
       <c r="E131" s="8">
         <v>2.0</v>
@@ -7230,12 +8432,15 @@
         <v>0.0</v>
       </c>
       <c r="I131" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="J131" s="20">
+        <v>138</v>
+      </c>
+      <c r="J131" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K131" s="22">
         <v>185.0</v>
       </c>
-      <c r="K131" s="15">
+      <c r="L131" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7243,11 +8448,14 @@
       <c r="A132" s="16">
         <v>130.0</v>
       </c>
-      <c r="C132" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D132" s="20" t="s">
-        <v>319</v>
+      <c r="B132" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="C132" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D132" s="22" t="s">
+        <v>424</v>
       </c>
       <c r="E132" s="8">
         <v>2.0</v>
@@ -7262,12 +8470,15 @@
         <v>0.0</v>
       </c>
       <c r="I132" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="J132" s="20">
+        <v>425</v>
+      </c>
+      <c r="J132" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K132" s="22">
         <v>186.0</v>
       </c>
-      <c r="K132" s="15">
+      <c r="L132" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7275,11 +8486,14 @@
       <c r="A133" s="16">
         <v>131.0</v>
       </c>
-      <c r="C133" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="D133" s="22" t="s">
-        <v>321</v>
+      <c r="B133" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="C133" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="D133" s="24" t="s">
+        <v>427</v>
       </c>
       <c r="E133" s="8">
         <v>2.0</v>
@@ -7294,12 +8508,15 @@
         <v>0.0</v>
       </c>
       <c r="I133" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="J133" s="20">
+        <v>428</v>
+      </c>
+      <c r="J133" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K133" s="22">
         <v>187.0</v>
       </c>
-      <c r="K133" s="15">
+      <c r="L133" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7307,11 +8524,14 @@
       <c r="A134" s="16">
         <v>132.0</v>
       </c>
-      <c r="C134" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D134" s="20" t="s">
-        <v>323</v>
+      <c r="B134" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="C134" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D134" s="22" t="s">
+        <v>430</v>
       </c>
       <c r="E134" s="8">
         <v>2.0</v>
@@ -7326,12 +8546,15 @@
         <v>0.0</v>
       </c>
       <c r="I134" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="J134" s="20">
+        <v>431</v>
+      </c>
+      <c r="J134" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K134" s="22">
         <v>188.0</v>
       </c>
-      <c r="K134" s="15">
+      <c r="L134" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7339,11 +8562,14 @@
       <c r="A135" s="16">
         <v>133.0</v>
       </c>
-      <c r="C135" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D135" s="20" t="s">
-        <v>325</v>
+      <c r="B135" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="C135" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D135" s="22" t="s">
+        <v>433</v>
       </c>
       <c r="E135" s="8">
         <v>2.0</v>
@@ -7358,12 +8584,15 @@
         <v>0.0</v>
       </c>
       <c r="I135" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="J135" s="20">
+        <v>434</v>
+      </c>
+      <c r="J135" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K135" s="22">
         <v>189.0</v>
       </c>
-      <c r="K135" s="15">
+      <c r="L135" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7371,11 +8600,14 @@
       <c r="A136" s="16">
         <v>134.0</v>
       </c>
-      <c r="C136" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D136" s="20" t="s">
-        <v>327</v>
+      <c r="B136" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="C136" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D136" s="22" t="s">
+        <v>436</v>
       </c>
       <c r="E136" s="8">
         <v>2.0</v>
@@ -7390,12 +8622,15 @@
         <v>0.0</v>
       </c>
       <c r="I136" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="J136" s="20">
+        <v>437</v>
+      </c>
+      <c r="J136" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K136" s="22">
         <v>190.0</v>
       </c>
-      <c r="K136" s="15">
+      <c r="L136" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7403,11 +8638,14 @@
       <c r="A137" s="16">
         <v>135.0</v>
       </c>
-      <c r="C137" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D137" s="20" t="s">
-        <v>329</v>
+      <c r="B137" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="C137" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D137" s="22" t="s">
+        <v>439</v>
       </c>
       <c r="E137" s="8">
         <v>2.0</v>
@@ -7422,12 +8660,15 @@
         <v>0.0</v>
       </c>
       <c r="I137" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="J137" s="20">
+        <v>440</v>
+      </c>
+      <c r="J137" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K137" s="22">
         <v>191.0</v>
       </c>
-      <c r="K137" s="15">
+      <c r="L137" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7435,11 +8676,14 @@
       <c r="A138" s="16">
         <v>136.0</v>
       </c>
-      <c r="C138" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D138" s="20" t="s">
-        <v>331</v>
+      <c r="B138" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="C138" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D138" s="22" t="s">
+        <v>441</v>
       </c>
       <c r="E138" s="8">
         <v>2.0</v>
@@ -7454,12 +8698,15 @@
         <v>0.0</v>
       </c>
       <c r="I138" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="J138" s="20">
+        <v>344</v>
+      </c>
+      <c r="J138" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K138" s="22">
         <v>192.0</v>
       </c>
-      <c r="K138" s="15">
+      <c r="L138" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7467,11 +8714,14 @@
       <c r="A139" s="16">
         <v>137.0</v>
       </c>
-      <c r="C139" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D139" s="20" t="s">
-        <v>332</v>
+      <c r="B139" s="20" t="s">
+        <v>442</v>
+      </c>
+      <c r="C139" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D139" s="22" t="s">
+        <v>443</v>
       </c>
       <c r="E139" s="8">
         <v>2.0</v>
@@ -7486,12 +8736,15 @@
         <v>0.0</v>
       </c>
       <c r="I139" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="J139" s="20">
+        <v>444</v>
+      </c>
+      <c r="J139" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K139" s="22">
         <v>204.0</v>
       </c>
-      <c r="K139" s="15">
+      <c r="L139" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7499,11 +8752,14 @@
       <c r="A140" s="16">
         <v>138.0</v>
       </c>
-      <c r="C140" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D140" s="20" t="s">
-        <v>334</v>
+      <c r="B140" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="C140" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D140" s="22" t="s">
+        <v>446</v>
       </c>
       <c r="E140" s="8">
         <v>2.0</v>
@@ -7518,12 +8774,15 @@
         <v>0.0</v>
       </c>
       <c r="I140" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="J140" s="20">
+        <v>447</v>
+      </c>
+      <c r="J140" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K140" s="22">
         <v>205.0</v>
       </c>
-      <c r="K140" s="15">
+      <c r="L140" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7531,11 +8790,14 @@
       <c r="A141" s="16">
         <v>139.0</v>
       </c>
-      <c r="C141" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D141" s="20" t="s">
-        <v>336</v>
+      <c r="B141" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="C141" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D141" s="22" t="s">
+        <v>449</v>
       </c>
       <c r="E141" s="8">
         <v>2.0</v>
@@ -7550,12 +8812,15 @@
         <v>0.0</v>
       </c>
       <c r="I141" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="J141" s="20">
+        <v>450</v>
+      </c>
+      <c r="J141" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K141" s="22">
         <v>206.0</v>
       </c>
-      <c r="K141" s="15">
+      <c r="L141" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7563,11 +8828,14 @@
       <c r="A142" s="16">
         <v>140.0</v>
       </c>
-      <c r="C142" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="D142" s="22" t="s">
-        <v>338</v>
+      <c r="B142" s="20" t="s">
+        <v>451</v>
+      </c>
+      <c r="C142" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="D142" s="24" t="s">
+        <v>452</v>
       </c>
       <c r="E142" s="8">
         <v>2.0</v>
@@ -7582,12 +8850,15 @@
         <v>0.0</v>
       </c>
       <c r="I142" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="J142" s="20">
+        <v>453</v>
+      </c>
+      <c r="J142" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K142" s="22">
         <v>207.0</v>
       </c>
-      <c r="K142" s="15">
+      <c r="L142" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7595,11 +8866,14 @@
       <c r="A143" s="16">
         <v>141.0</v>
       </c>
-      <c r="C143" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D143" s="20" t="s">
-        <v>340</v>
+      <c r="B143" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="C143" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D143" s="22" t="s">
+        <v>455</v>
       </c>
       <c r="E143" s="8">
         <v>2.0</v>
@@ -7614,12 +8888,15 @@
         <v>0.0</v>
       </c>
       <c r="I143" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="J143" s="20">
+        <v>456</v>
+      </c>
+      <c r="J143" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K143" s="22">
         <v>208.0</v>
       </c>
-      <c r="K143" s="15">
+      <c r="L143" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7627,11 +8904,14 @@
       <c r="A144" s="16">
         <v>142.0</v>
       </c>
-      <c r="C144" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D144" s="20" t="s">
-        <v>342</v>
+      <c r="B144" s="20" t="s">
+        <v>457</v>
+      </c>
+      <c r="C144" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D144" s="22" t="s">
+        <v>458</v>
       </c>
       <c r="E144" s="8">
         <v>2.0</v>
@@ -7646,12 +8926,15 @@
         <v>0.0</v>
       </c>
       <c r="I144" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="J144" s="20">
+        <v>459</v>
+      </c>
+      <c r="J144" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K144" s="22">
         <v>209.0</v>
       </c>
-      <c r="K144" s="15">
+      <c r="L144" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7659,11 +8942,14 @@
       <c r="A145" s="16">
         <v>143.0</v>
       </c>
-      <c r="C145" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D145" s="20" t="s">
-        <v>344</v>
+      <c r="B145" s="20" t="s">
+        <v>460</v>
+      </c>
+      <c r="C145" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D145" s="22" t="s">
+        <v>461</v>
       </c>
       <c r="E145" s="8">
         <v>2.0</v>
@@ -7678,12 +8964,15 @@
         <v>0.0</v>
       </c>
       <c r="I145" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="J145" s="20">
+        <v>462</v>
+      </c>
+      <c r="J145" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K145" s="22">
         <v>210.0</v>
       </c>
-      <c r="K145" s="15">
+      <c r="L145" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7691,11 +8980,14 @@
       <c r="A146" s="16">
         <v>144.0</v>
       </c>
-      <c r="C146" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D146" s="20" t="s">
-        <v>346</v>
+      <c r="B146" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="C146" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D146" s="22" t="s">
+        <v>464</v>
       </c>
       <c r="E146" s="8">
         <v>2.0</v>
@@ -7710,12 +9002,15 @@
         <v>0.0</v>
       </c>
       <c r="I146" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="J146" s="20">
+        <v>465</v>
+      </c>
+      <c r="J146" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K146" s="22">
         <v>211.0</v>
       </c>
-      <c r="K146" s="15">
+      <c r="L146" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7723,11 +9018,14 @@
       <c r="A147" s="16">
         <v>145.0</v>
       </c>
-      <c r="C147" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D147" s="20" t="s">
-        <v>348</v>
+      <c r="B147" s="20" t="s">
+        <v>466</v>
+      </c>
+      <c r="C147" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D147" s="22" t="s">
+        <v>467</v>
       </c>
       <c r="E147" s="8">
         <v>2.0</v>
@@ -7742,12 +9040,15 @@
         <v>0.0</v>
       </c>
       <c r="I147" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="J147" s="20">
+        <v>468</v>
+      </c>
+      <c r="J147" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K147" s="22">
         <v>212.0</v>
       </c>
-      <c r="K147" s="15">
+      <c r="L147" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7755,11 +9056,14 @@
       <c r="A148" s="16">
         <v>146.0</v>
       </c>
-      <c r="C148" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D148" s="20" t="s">
-        <v>350</v>
+      <c r="B148" s="20" t="s">
+        <v>469</v>
+      </c>
+      <c r="C148" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D148" s="22" t="s">
+        <v>470</v>
       </c>
       <c r="E148" s="8">
         <v>2.0</v>
@@ -7774,12 +9078,15 @@
         <v>0.0</v>
       </c>
       <c r="I148" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="J148" s="20">
+        <v>471</v>
+      </c>
+      <c r="J148" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K148" s="22">
         <v>213.0</v>
       </c>
-      <c r="K148" s="15">
+      <c r="L148" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7787,11 +9094,14 @@
       <c r="A149" s="16">
         <v>147.0</v>
       </c>
-      <c r="C149" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D149" s="20" t="s">
-        <v>352</v>
+      <c r="B149" s="20" t="s">
+        <v>472</v>
+      </c>
+      <c r="C149" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D149" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="E149" s="8">
         <v>2.0</v>
@@ -7806,12 +9116,15 @@
         <v>0.0</v>
       </c>
       <c r="I149" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="J149" s="20">
+        <v>474</v>
+      </c>
+      <c r="J149" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="K149" s="22">
         <v>214.0</v>
       </c>
-      <c r="K149" s="15">
+      <c r="L149" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7819,11 +9132,14 @@
       <c r="A150" s="16">
         <v>148.0</v>
       </c>
-      <c r="C150" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D150" s="20" t="s">
-        <v>354</v>
+      <c r="B150" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="C150" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D150" s="22" t="s">
+        <v>477</v>
       </c>
       <c r="E150" s="8">
         <v>2.0</v>
@@ -7838,12 +9154,15 @@
         <v>0.0</v>
       </c>
       <c r="I150" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="J150" s="20">
+        <v>478</v>
+      </c>
+      <c r="J150" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K150" s="22">
         <v>215.0</v>
       </c>
-      <c r="K150" s="15">
+      <c r="L150" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7851,11 +9170,14 @@
       <c r="A151" s="16">
         <v>149.0</v>
       </c>
-      <c r="C151" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D151" s="20" t="s">
-        <v>356</v>
+      <c r="B151" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="C151" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D151" s="22" t="s">
+        <v>480</v>
       </c>
       <c r="E151" s="8">
         <v>2.0</v>
@@ -7870,12 +9192,15 @@
         <v>0.0</v>
       </c>
       <c r="I151" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="J151" s="20">
+        <v>481</v>
+      </c>
+      <c r="J151" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K151" s="22">
         <v>216.0</v>
       </c>
-      <c r="K151" s="15">
+      <c r="L151" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7883,11 +9208,14 @@
       <c r="A152" s="16">
         <v>150.0</v>
       </c>
-      <c r="C152" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D152" s="20" t="s">
-        <v>358</v>
+      <c r="B152" s="20" t="s">
+        <v>482</v>
+      </c>
+      <c r="C152" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D152" s="22" t="s">
+        <v>483</v>
       </c>
       <c r="E152" s="8">
         <v>2.0</v>
@@ -7902,12 +9230,15 @@
         <v>0.0</v>
       </c>
       <c r="I152" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="J152" s="20">
+        <v>484</v>
+      </c>
+      <c r="J152" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K152" s="22">
         <v>217.0</v>
       </c>
-      <c r="K152" s="15">
+      <c r="L152" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7915,11 +9246,14 @@
       <c r="A153" s="16">
         <v>151.0</v>
       </c>
-      <c r="C153" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D153" s="20" t="s">
-        <v>360</v>
+      <c r="B153" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="C153" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D153" s="22" t="s">
+        <v>485</v>
       </c>
       <c r="E153" s="8">
         <v>2.0</v>
@@ -7934,12 +9268,15 @@
         <v>0.0</v>
       </c>
       <c r="I153" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="J153" s="20">
+        <v>465</v>
+      </c>
+      <c r="J153" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K153" s="22">
         <v>218.0</v>
       </c>
-      <c r="K153" s="15">
+      <c r="L153" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7947,11 +9284,14 @@
       <c r="A154" s="16">
         <v>152.0</v>
       </c>
-      <c r="C154" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D154" s="20" t="s">
-        <v>361</v>
+      <c r="B154" s="20" t="s">
+        <v>466</v>
+      </c>
+      <c r="C154" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D154" s="22" t="s">
+        <v>486</v>
       </c>
       <c r="E154" s="8">
         <v>2.0</v>
@@ -7966,12 +9306,15 @@
         <v>0.0</v>
       </c>
       <c r="I154" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="J154" s="20">
+        <v>468</v>
+      </c>
+      <c r="J154" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K154" s="22">
         <v>219.0</v>
       </c>
-      <c r="K154" s="15">
+      <c r="L154" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7979,11 +9322,14 @@
       <c r="A155" s="16">
         <v>153.0</v>
       </c>
-      <c r="C155" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="D155" s="22" t="s">
-        <v>362</v>
+      <c r="B155" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="C155" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="D155" s="24" t="s">
+        <v>488</v>
       </c>
       <c r="E155" s="8">
         <v>2.0</v>
@@ -7998,12 +9344,15 @@
         <v>0.0</v>
       </c>
       <c r="I155" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="J155" s="20">
+        <v>489</v>
+      </c>
+      <c r="J155" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K155" s="22">
         <v>220.0</v>
       </c>
-      <c r="K155" s="15">
+      <c r="L155" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8011,11 +9360,14 @@
       <c r="A156" s="16">
         <v>154.0</v>
       </c>
-      <c r="C156" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D156" s="20" t="s">
-        <v>364</v>
+      <c r="B156" s="20" t="s">
+        <v>490</v>
+      </c>
+      <c r="C156" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D156" s="22" t="s">
+        <v>491</v>
       </c>
       <c r="E156" s="8">
         <v>2.0</v>
@@ -8030,12 +9382,15 @@
         <v>0.0</v>
       </c>
       <c r="I156" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="J156" s="20">
+        <v>492</v>
+      </c>
+      <c r="J156" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K156" s="22">
         <v>221.0</v>
       </c>
-      <c r="K156" s="15">
+      <c r="L156" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8043,11 +9398,14 @@
       <c r="A157" s="16">
         <v>155.0</v>
       </c>
-      <c r="C157" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D157" s="20" t="s">
-        <v>366</v>
+      <c r="B157" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="C157" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D157" s="22" t="s">
+        <v>494</v>
       </c>
       <c r="E157" s="8">
         <v>2.0</v>
@@ -8062,12 +9420,15 @@
         <v>0.0</v>
       </c>
       <c r="I157" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="J157" s="20">
+        <v>495</v>
+      </c>
+      <c r="J157" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K157" s="22">
         <v>222.0</v>
       </c>
-      <c r="K157" s="15">
+      <c r="L157" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8075,11 +9436,14 @@
       <c r="A158" s="16">
         <v>156.0</v>
       </c>
-      <c r="C158" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D158" s="20" t="s">
-        <v>368</v>
+      <c r="B158" s="20" t="s">
+        <v>496</v>
+      </c>
+      <c r="C158" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D158" s="22" t="s">
+        <v>497</v>
       </c>
       <c r="E158" s="8">
         <v>2.0</v>
@@ -8094,12 +9458,15 @@
         <v>0.0</v>
       </c>
       <c r="I158" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="J158" s="20">
+        <v>498</v>
+      </c>
+      <c r="J158" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K158" s="22">
         <v>223.0</v>
       </c>
-      <c r="K158" s="15">
+      <c r="L158" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8107,11 +9474,14 @@
       <c r="A159" s="16">
         <v>157.0</v>
       </c>
+      <c r="B159" s="15" t="s">
+        <v>499</v>
+      </c>
       <c r="C159" s="8">
         <v>0.0</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>370</v>
+        <v>500</v>
       </c>
       <c r="E159" s="8">
         <v>2.0</v>
@@ -8126,12 +9496,15 @@
         <v>0.0</v>
       </c>
       <c r="I159" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="J159" s="8">
+        <v>501</v>
+      </c>
+      <c r="J159" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K159" s="8">
         <v>227.0</v>
       </c>
-      <c r="K159" s="15">
+      <c r="L159" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -8139,11 +9512,14 @@
       <c r="A160" s="16">
         <v>158.0</v>
       </c>
-      <c r="C160" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="D160" s="23" t="s">
-        <v>372</v>
+      <c r="B160" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="C160" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="D160" s="25" t="s">
+        <v>503</v>
       </c>
       <c r="E160" s="8">
         <v>2.0</v>
@@ -8158,12 +9534,15 @@
         <v>0.0</v>
       </c>
       <c r="I160" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="J160" s="8">
+        <v>504</v>
+      </c>
+      <c r="J160" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="K160" s="8">
         <v>199.0</v>
       </c>
-      <c r="K160" s="15">
+      <c r="L160" s="15">
         <v>70.0</v>
       </c>
     </row>
@@ -8171,11 +9550,14 @@
       <c r="A161" s="16">
         <v>159.0</v>
       </c>
-      <c r="C161" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="D161" s="23" t="s">
-        <v>374</v>
+      <c r="B161" s="15" t="s">
+        <v>506</v>
+      </c>
+      <c r="C161" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="D161" s="25" t="s">
+        <v>507</v>
       </c>
       <c r="E161" s="8">
         <v>2.0</v>
@@ -8190,12 +9572,15 @@
         <v>0.0</v>
       </c>
       <c r="I161" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="J161" s="8">
+        <v>508</v>
+      </c>
+      <c r="J161" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="K161" s="8">
         <v>112.0</v>
       </c>
-      <c r="K161" s="15">
+      <c r="L161" s="15">
         <v>70.0</v>
       </c>
     </row>
@@ -8203,11 +9588,14 @@
       <c r="A162" s="16">
         <v>160.0</v>
       </c>
-      <c r="C162" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="D162" s="23" t="s">
-        <v>376</v>
+      <c r="B162" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="C162" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="D162" s="25" t="s">
+        <v>511</v>
       </c>
       <c r="E162" s="8">
         <v>2.0</v>
@@ -8222,12 +9610,15 @@
         <v>0.0</v>
       </c>
       <c r="I162" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="J162" s="8">
+        <v>512</v>
+      </c>
+      <c r="J162" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="K162" s="8">
         <v>143.0</v>
       </c>
-      <c r="K162" s="15">
+      <c r="L162" s="15">
         <v>70.0</v>
       </c>
     </row>
@@ -8235,11 +9626,14 @@
       <c r="A163" s="16">
         <v>161.0</v>
       </c>
-      <c r="C163" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="D163" s="23" t="s">
-        <v>378</v>
+      <c r="B163" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="C163" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="D163" s="25" t="s">
+        <v>515</v>
       </c>
       <c r="E163" s="8">
         <v>2.0</v>
@@ -8254,12 +9648,15 @@
         <v>0.0</v>
       </c>
       <c r="I163" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="J163" s="8">
+        <v>516</v>
+      </c>
+      <c r="J163" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="K163" s="8">
         <v>146.0</v>
       </c>
-      <c r="K163" s="15">
+      <c r="L163" s="15">
         <v>70.0</v>
       </c>
     </row>
@@ -8267,11 +9664,14 @@
       <c r="A164" s="16">
         <v>162.0</v>
       </c>
-      <c r="C164" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="D164" s="23" t="s">
-        <v>380</v>
+      <c r="B164" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="C164" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="D164" s="25" t="s">
+        <v>519</v>
       </c>
       <c r="E164" s="8">
         <v>2.0</v>
@@ -8286,12 +9686,15 @@
         <v>0.0</v>
       </c>
       <c r="I164" s="8" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="J164" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K164" s="8">
         <v>18.0</v>
       </c>
-      <c r="K164" s="15">
+      <c r="L164" s="15">
         <v>40.0</v>
       </c>
     </row>
@@ -8299,11 +9702,14 @@
       <c r="A165" s="16">
         <v>163.0</v>
       </c>
+      <c r="B165" s="15" t="s">
+        <v>520</v>
+      </c>
       <c r="C165" s="8">
         <v>0.0</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>381</v>
+        <v>521</v>
       </c>
       <c r="E165" s="8">
         <v>2.0</v>
@@ -8318,12 +9724,15 @@
         <v>0.0</v>
       </c>
       <c r="I165" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="J165" s="8">
+        <v>522</v>
+      </c>
+      <c r="J165" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="K165" s="8">
         <v>201.0</v>
       </c>
-      <c r="K165" s="15">
+      <c r="L165" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -8331,11 +9740,14 @@
       <c r="A166" s="16">
         <v>164.0</v>
       </c>
+      <c r="B166" s="15" t="s">
+        <v>524</v>
+      </c>
       <c r="C166" s="8">
         <v>0.0</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>383</v>
+        <v>525</v>
       </c>
       <c r="E166" s="8">
         <v>2.0</v>
@@ -8350,12 +9762,15 @@
         <v>0.0</v>
       </c>
       <c r="I166" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="J166" s="8">
+        <v>526</v>
+      </c>
+      <c r="J166" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="K166" s="8">
         <v>86.0</v>
       </c>
-      <c r="K166" s="15">
+      <c r="L166" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -8363,11 +9778,14 @@
       <c r="A167" s="16">
         <v>165.0</v>
       </c>
+      <c r="B167" s="15" t="s">
+        <v>528</v>
+      </c>
       <c r="C167" s="8">
         <v>0.0</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>385</v>
+        <v>529</v>
       </c>
       <c r="E167" s="8">
         <v>2.0</v>
@@ -8382,12 +9800,15 @@
         <v>0.0</v>
       </c>
       <c r="I167" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="J167" s="8">
+        <v>530</v>
+      </c>
+      <c r="J167" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="K167" s="8">
         <v>141.0</v>
       </c>
-      <c r="K167" s="15">
+      <c r="L167" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -8395,11 +9816,14 @@
       <c r="A168" s="16">
         <v>166.0</v>
       </c>
-      <c r="C168" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="D168" s="18" t="s">
-        <v>387</v>
+      <c r="B168" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="C168" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="D168" s="19" t="s">
+        <v>533</v>
       </c>
       <c r="E168" s="8">
         <v>2.0</v>
@@ -8414,12 +9838,15 @@
         <v>0.0</v>
       </c>
       <c r="I168" s="8" t="s">
-        <v>388</v>
+        <v>534</v>
       </c>
       <c r="J168" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K168" s="8">
         <v>107.0</v>
       </c>
-      <c r="K168" s="15">
+      <c r="L168" s="15">
         <v>40.0</v>
       </c>
     </row>
@@ -8427,11 +9854,14 @@
       <c r="A169" s="16">
         <v>167.0</v>
       </c>
+      <c r="B169" s="15" t="s">
+        <v>535</v>
+      </c>
       <c r="C169" s="8">
         <v>0.0</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>389</v>
+        <v>536</v>
       </c>
       <c r="E169" s="8">
         <v>2.0</v>
@@ -8446,12 +9876,15 @@
         <v>0.0</v>
       </c>
       <c r="I169" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="J169" s="8">
+        <v>537</v>
+      </c>
+      <c r="J169" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="K169" s="8">
         <v>81.0</v>
       </c>
-      <c r="K169" s="15">
+      <c r="L169" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -8459,11 +9892,14 @@
       <c r="A170" s="16">
         <v>168.0</v>
       </c>
+      <c r="B170" s="15" t="s">
+        <v>539</v>
+      </c>
       <c r="C170" s="8">
         <v>0.0</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>391</v>
+        <v>540</v>
       </c>
       <c r="E170" s="8">
         <v>2.0</v>
@@ -8478,12 +9914,15 @@
         <v>0.0</v>
       </c>
       <c r="I170" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="J170" s="8">
+        <v>541</v>
+      </c>
+      <c r="J170" s="27">
+        <v>35107.0</v>
+      </c>
+      <c r="K170" s="8">
         <v>108.0</v>
       </c>
-      <c r="K170" s="15">
+      <c r="L170" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -8491,11 +9930,14 @@
       <c r="A171" s="16">
         <v>169.0</v>
       </c>
+      <c r="B171" s="15" t="s">
+        <v>542</v>
+      </c>
       <c r="C171" s="8">
         <v>0.0</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>393</v>
+        <v>543</v>
       </c>
       <c r="E171" s="8">
         <v>2.0</v>
@@ -8510,12 +9952,15 @@
         <v>0.0</v>
       </c>
       <c r="I171" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="J171" s="8">
+        <v>544</v>
+      </c>
+      <c r="J171" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="K171" s="8">
         <v>139.0</v>
       </c>
-      <c r="K171" s="15">
+      <c r="L171" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -8523,11 +9968,14 @@
       <c r="A172" s="16">
         <v>170.0</v>
       </c>
+      <c r="B172" s="15" t="s">
+        <v>546</v>
+      </c>
       <c r="C172" s="8">
         <v>0.0</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>395</v>
+        <v>547</v>
       </c>
       <c r="E172" s="8">
         <v>2.0</v>
@@ -8542,12 +9990,15 @@
         <v>0.0</v>
       </c>
       <c r="I172" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="J172" s="8">
+        <v>548</v>
+      </c>
+      <c r="J172" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="K172" s="8">
         <v>194.0</v>
       </c>
-      <c r="K172" s="15">
+      <c r="L172" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -8555,11 +10006,14 @@
       <c r="A173" s="16">
         <v>171.0</v>
       </c>
+      <c r="B173" s="15" t="s">
+        <v>550</v>
+      </c>
       <c r="C173" s="8">
         <v>0.0</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>397</v>
+        <v>551</v>
       </c>
       <c r="E173" s="8">
         <v>2.0</v>
@@ -8574,12 +10028,15 @@
         <v>0.0</v>
       </c>
       <c r="I173" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="J173" s="8">
+        <v>552</v>
+      </c>
+      <c r="J173" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="K173" s="8">
         <v>83.0</v>
       </c>
-      <c r="K173" s="15">
+      <c r="L173" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -8587,11 +10044,14 @@
       <c r="A174" s="16">
         <v>172.0</v>
       </c>
-      <c r="C174" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="D174" s="23" t="s">
-        <v>399</v>
+      <c r="B174" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="C174" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="D174" s="25" t="s">
+        <v>555</v>
       </c>
       <c r="E174" s="8">
         <v>2.0</v>
@@ -8606,12 +10066,15 @@
         <v>0.0</v>
       </c>
       <c r="I174" s="8" t="s">
-        <v>400</v>
+        <v>556</v>
       </c>
       <c r="J174" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K174" s="8">
         <v>228.0</v>
       </c>
-      <c r="K174" s="15">
+      <c r="L174" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -8619,11 +10082,14 @@
       <c r="A175" s="16">
         <v>173.0</v>
       </c>
+      <c r="B175" s="15" t="s">
+        <v>557</v>
+      </c>
       <c r="C175" s="8">
         <v>0.0</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>401</v>
+        <v>558</v>
       </c>
       <c r="E175" s="8">
         <v>2.0</v>
@@ -8638,12 +10104,15 @@
         <v>0.0</v>
       </c>
       <c r="I175" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="J175" s="8">
+        <v>559</v>
+      </c>
+      <c r="J175" s="17" t="s">
+        <v>560</v>
+      </c>
+      <c r="K175" s="8">
         <v>197.0</v>
       </c>
-      <c r="K175" s="15">
+      <c r="L175" s="15">
         <v>70.0</v>
       </c>
     </row>
@@ -8651,11 +10120,14 @@
       <c r="A176" s="16">
         <v>174.0</v>
       </c>
+      <c r="B176" s="15" t="s">
+        <v>561</v>
+      </c>
       <c r="C176" s="8">
         <v>0.0</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>403</v>
+        <v>562</v>
       </c>
       <c r="E176" s="8">
         <v>2.0</v>
@@ -8670,12 +10142,15 @@
         <v>0.0</v>
       </c>
       <c r="I176" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="J176" s="8">
+        <v>563</v>
+      </c>
+      <c r="J176" s="17" t="s">
+        <v>564</v>
+      </c>
+      <c r="K176" s="8">
         <v>226.0</v>
       </c>
-      <c r="K176" s="15">
+      <c r="L176" s="15">
         <v>70.0</v>
       </c>
     </row>
@@ -8683,11 +10158,14 @@
       <c r="A177" s="16">
         <v>175.0</v>
       </c>
+      <c r="B177" s="15" t="s">
+        <v>565</v>
+      </c>
       <c r="C177" s="8">
         <v>0.0</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>405</v>
+        <v>566</v>
       </c>
       <c r="E177" s="8">
         <v>2.0</v>
@@ -8702,12 +10180,15 @@
         <v>0.0</v>
       </c>
       <c r="I177" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="J177" s="8">
+        <v>567</v>
+      </c>
+      <c r="J177" s="17" t="s">
+        <v>568</v>
+      </c>
+      <c r="K177" s="8">
         <v>225.0</v>
       </c>
-      <c r="K177" s="15">
+      <c r="L177" s="15">
         <v>70.0</v>
       </c>
     </row>
@@ -8715,11 +10196,14 @@
       <c r="A178" s="16">
         <v>176.0</v>
       </c>
+      <c r="B178" s="15" t="s">
+        <v>569</v>
+      </c>
       <c r="C178" s="8">
         <v>0.0</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>407</v>
+        <v>570</v>
       </c>
       <c r="E178" s="8">
         <v>2.0</v>
@@ -8734,12 +10218,15 @@
         <v>0.0</v>
       </c>
       <c r="I178" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="J178" s="8">
+        <v>571</v>
+      </c>
+      <c r="J178" s="17" t="s">
+        <v>572</v>
+      </c>
+      <c r="K178" s="8">
         <v>111.0</v>
       </c>
-      <c r="K178" s="15">
+      <c r="L178" s="15">
         <v>70.0</v>
       </c>
     </row>
@@ -8747,11 +10234,14 @@
       <c r="A179" s="16">
         <v>177.0</v>
       </c>
-      <c r="C179" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="D179" s="23" t="s">
-        <v>409</v>
+      <c r="B179" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="C179" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="D179" s="25" t="s">
+        <v>574</v>
       </c>
       <c r="E179" s="8">
         <v>2.0</v>
@@ -8766,12 +10256,15 @@
         <v>0.0</v>
       </c>
       <c r="I179" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="J179" s="8">
+        <v>575</v>
+      </c>
+      <c r="J179" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="K179" s="8">
         <v>145.0</v>
       </c>
-      <c r="K179" s="15">
+      <c r="L179" s="15">
         <v>70.0</v>
       </c>
     </row>
@@ -8779,11 +10272,14 @@
       <c r="A180" s="16">
         <v>178.0</v>
       </c>
-      <c r="C180" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="D180" s="23" t="s">
-        <v>411</v>
+      <c r="B180" s="15" t="s">
+        <v>577</v>
+      </c>
+      <c r="C180" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="D180" s="25" t="s">
+        <v>578</v>
       </c>
       <c r="E180" s="8">
         <v>2.0</v>
@@ -8798,12 +10294,15 @@
         <v>0.0</v>
       </c>
       <c r="I180" s="8" t="s">
-        <v>412</v>
+        <v>579</v>
       </c>
       <c r="J180" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K180" s="8">
         <v>109.0</v>
       </c>
-      <c r="K180" s="15">
+      <c r="L180" s="15">
         <v>40.0</v>
       </c>
     </row>
@@ -8811,11 +10310,14 @@
       <c r="A181" s="16">
         <v>179.0</v>
       </c>
+      <c r="B181" s="15" t="s">
+        <v>580</v>
+      </c>
       <c r="C181" s="8">
         <v>0.0</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>413</v>
+        <v>581</v>
       </c>
       <c r="E181" s="8">
         <v>2.0</v>
@@ -8830,12 +10332,15 @@
         <v>0.0</v>
       </c>
       <c r="I181" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="J181" s="8">
+        <v>582</v>
+      </c>
+      <c r="J181" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="K181" s="8">
         <v>198.0</v>
       </c>
-      <c r="K181" s="15">
+      <c r="L181" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -8843,11 +10348,14 @@
       <c r="A182" s="16">
         <v>180.0</v>
       </c>
+      <c r="B182" s="15" t="s">
+        <v>584</v>
+      </c>
       <c r="C182" s="8">
         <v>0.0</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>415</v>
+        <v>585</v>
       </c>
       <c r="E182" s="8">
         <v>2.0</v>
@@ -8862,12 +10370,15 @@
         <v>0.0</v>
       </c>
       <c r="I182" s="8" t="s">
-        <v>416</v>
+        <v>586</v>
       </c>
       <c r="J182" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K182" s="8">
         <v>144.0</v>
       </c>
-      <c r="K182" s="15">
+      <c r="L182" s="15">
         <v>40.0</v>
       </c>
     </row>
@@ -8875,11 +10386,14 @@
       <c r="A183" s="16">
         <v>181.0</v>
       </c>
+      <c r="B183" s="15" t="s">
+        <v>587</v>
+      </c>
       <c r="C183" s="8">
         <v>0.0</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>417</v>
+        <v>588</v>
       </c>
       <c r="E183" s="8">
         <v>2.0</v>
@@ -8894,12 +10408,15 @@
         <v>0.0</v>
       </c>
       <c r="I183" s="8" t="s">
-        <v>418</v>
+        <v>589</v>
       </c>
       <c r="J183" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K183" s="8">
         <v>110.0</v>
       </c>
-      <c r="K183" s="15">
+      <c r="L183" s="15">
         <v>70.0</v>
       </c>
     </row>
@@ -8907,11 +10424,14 @@
       <c r="A184" s="16">
         <v>182.0</v>
       </c>
+      <c r="B184" s="26" t="s">
+        <v>590</v>
+      </c>
       <c r="C184" s="8">
         <v>0.0</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>419</v>
+        <v>591</v>
       </c>
       <c r="E184" s="8">
         <v>2.0</v>
@@ -8926,12 +10446,15 @@
         <v>0.0</v>
       </c>
       <c r="I184" s="8" t="s">
-        <v>365</v>
+        <v>492</v>
       </c>
       <c r="J184" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K184" s="8">
         <v>64.0</v>
       </c>
-      <c r="K184" s="15">
+      <c r="L184" s="15">
         <v>40.0</v>
       </c>
     </row>
@@ -8939,11 +10462,14 @@
       <c r="A185" s="16">
         <v>183.0</v>
       </c>
-      <c r="C185" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="D185" s="23" t="s">
-        <v>420</v>
+      <c r="B185" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="C185" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="D185" s="25" t="s">
+        <v>592</v>
       </c>
       <c r="E185" s="8">
         <v>2.0</v>
@@ -8958,12 +10484,15 @@
         <v>0.0</v>
       </c>
       <c r="I185" s="8" t="s">
-        <v>345</v>
+        <v>462</v>
       </c>
       <c r="J185" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K185" s="8">
         <v>210.0</v>
       </c>
-      <c r="K185" s="15">
+      <c r="L185" s="15">
         <v>40.0</v>
       </c>
     </row>
@@ -8971,11 +10500,14 @@
       <c r="A186" s="16">
         <v>184.0</v>
       </c>
-      <c r="C186" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="D186" s="23" t="s">
-        <v>421</v>
+      <c r="B186" s="15" t="s">
+        <v>593</v>
+      </c>
+      <c r="C186" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="D186" s="25" t="s">
+        <v>594</v>
       </c>
       <c r="E186" s="8">
         <v>2.0</v>
@@ -8990,12 +10522,15 @@
         <v>0.0</v>
       </c>
       <c r="I186" s="8" t="s">
-        <v>422</v>
+        <v>595</v>
       </c>
       <c r="J186" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K186" s="8">
         <v>202.0</v>
       </c>
-      <c r="K186" s="15">
+      <c r="L186" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -9003,11 +10538,14 @@
       <c r="A187" s="16">
         <v>185.0</v>
       </c>
+      <c r="B187" s="15" t="s">
+        <v>596</v>
+      </c>
       <c r="C187" s="8">
         <v>0.0</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>423</v>
+        <v>597</v>
       </c>
       <c r="E187" s="8">
         <v>2.0</v>
@@ -9022,12 +10560,15 @@
         <v>0.0</v>
       </c>
       <c r="I187" s="8" t="s">
-        <v>424</v>
+        <v>598</v>
       </c>
       <c r="J187" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K187" s="8">
         <v>138.0</v>
       </c>
-      <c r="K187" s="15">
+      <c r="L187" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -9035,11 +10576,14 @@
       <c r="A188" s="16">
         <v>186.0</v>
       </c>
+      <c r="B188" s="15" t="s">
+        <v>599</v>
+      </c>
       <c r="C188" s="8">
         <v>0.0</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>425</v>
+        <v>600</v>
       </c>
       <c r="E188" s="8">
         <v>2.0</v>
@@ -9054,12 +10598,15 @@
         <v>0.0</v>
       </c>
       <c r="I188" s="8" t="s">
-        <v>426</v>
+        <v>601</v>
       </c>
       <c r="J188" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K188" s="8">
         <v>142.0</v>
       </c>
-      <c r="K188" s="15">
+      <c r="L188" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -9067,11 +10614,14 @@
       <c r="A189" s="16">
         <v>187.0</v>
       </c>
+      <c r="B189" s="15" t="s">
+        <v>602</v>
+      </c>
       <c r="C189" s="8">
         <v>0.0</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>427</v>
+        <v>603</v>
       </c>
       <c r="E189" s="8">
         <v>2.0</v>
@@ -9086,12 +10636,15 @@
         <v>0.0</v>
       </c>
       <c r="I189" s="8" t="s">
-        <v>428</v>
+        <v>604</v>
       </c>
       <c r="J189" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K189" s="8">
         <v>196.0</v>
       </c>
-      <c r="K189" s="15">
+      <c r="L189" s="15">
         <v>70.0</v>
       </c>
     </row>
@@ -9099,11 +10652,14 @@
       <c r="A190" s="16">
         <v>188.0</v>
       </c>
-      <c r="C190" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="D190" s="23" t="s">
-        <v>429</v>
+      <c r="B190" s="15" t="s">
+        <v>605</v>
+      </c>
+      <c r="C190" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="D190" s="25" t="s">
+        <v>606</v>
       </c>
       <c r="E190" s="8">
         <v>2.0</v>
@@ -9118,12 +10674,15 @@
         <v>0.0</v>
       </c>
       <c r="I190" s="8" t="s">
-        <v>430</v>
+        <v>607</v>
       </c>
       <c r="J190" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K190" s="8">
         <v>195.0</v>
       </c>
-      <c r="K190" s="15">
+      <c r="L190" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -9131,11 +10690,14 @@
       <c r="A191" s="16">
         <v>189.0</v>
       </c>
-      <c r="C191" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="D191" s="23" t="s">
-        <v>431</v>
+      <c r="B191" s="15" t="s">
+        <v>608</v>
+      </c>
+      <c r="C191" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="D191" s="25" t="s">
+        <v>609</v>
       </c>
       <c r="E191" s="8">
         <v>2.0</v>
@@ -9150,12 +10712,15 @@
         <v>0.0</v>
       </c>
       <c r="I191" s="8" t="s">
-        <v>432</v>
+        <v>610</v>
       </c>
       <c r="J191" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K191" s="8">
         <v>113.0</v>
       </c>
-      <c r="K191" s="15">
+      <c r="L191" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -9163,11 +10728,14 @@
       <c r="A192" s="16">
         <v>190.0</v>
       </c>
-      <c r="C192" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="D192" s="23" t="s">
-        <v>433</v>
+      <c r="B192" s="15" t="s">
+        <v>611</v>
+      </c>
+      <c r="C192" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="D192" s="25" t="s">
+        <v>612</v>
       </c>
       <c r="E192" s="8">
         <v>2.0</v>
@@ -9182,12 +10750,15 @@
         <v>0.0</v>
       </c>
       <c r="I192" s="8" t="s">
-        <v>434</v>
+        <v>613</v>
       </c>
       <c r="J192" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K192" s="8">
         <v>193.0</v>
       </c>
-      <c r="K192" s="15">
+      <c r="L192" s="15">
         <v>60.0</v>
       </c>
     </row>

--- a/기획폴더/RecipeTable.xlsx
+++ b/기획폴더/RecipeTable.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="617">
   <si>
     <t>테이블 용도: 레시피의 데이터를 관리및 설정하는 테이블</t>
   </si>
@@ -131,6 +131,15 @@
   </si>
   <si>
     <t>이현</t>
+  </si>
+  <si>
+    <t>칼럼 이름 변경 AddFood1,AddFood2 -&gt; AddFood,ComplexFood</t>
+  </si>
+  <si>
+    <t>AddFood</t>
+  </si>
+  <si>
+    <t>ComplexFood</t>
   </si>
   <si>
     <t>int</t>
@@ -2466,7 +2475,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" ht="16.5" customHeight="1"/>
+    <row r="24" ht="16.5" customHeight="1">
+      <c r="A24" s="14">
+        <v>45283.0</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="25" ht="16.5" customHeight="1"/>
     <row r="26" ht="16.5" customHeight="1"/>
     <row r="27" ht="16.5" customHeight="1"/>
@@ -3506,10 +3522,10 @@
         <v>15</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>20</v>
@@ -3520,38 +3536,38 @@
     </row>
     <row r="2" ht="16.5" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" ht="16.5" customHeight="1">
@@ -3559,13 +3575,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C3" s="8">
         <v>0.0</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E3" s="8">
         <v>2.0</v>
@@ -3580,7 +3596,7 @@
         <v>0.0</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J3" s="8">
         <v>0.0</v>
@@ -3597,13 +3613,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C4" s="8">
         <v>0.0</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E4" s="8">
         <v>2.0</v>
@@ -3618,10 +3634,10 @@
         <v>0.0</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K4" s="8">
         <v>65.0</v>
@@ -3635,13 +3651,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C5" s="8">
         <v>0.0</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E5" s="8">
         <v>2.0</v>
@@ -3656,10 +3672,10 @@
         <v>0.0</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K5" s="8">
         <v>26.0</v>
@@ -3673,13 +3689,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C6" s="8">
         <v>0.0</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E6" s="8">
         <v>2.0</v>
@@ -3694,10 +3710,10 @@
         <v>0.0</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K6" s="8">
         <v>25.0</v>
@@ -3711,13 +3727,13 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C7" s="8">
         <v>0.0</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E7" s="8">
         <v>2.0</v>
@@ -3732,10 +3748,10 @@
         <v>0.0</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K7" s="8">
         <v>39.0</v>
@@ -3749,13 +3765,13 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C8" s="8">
         <v>0.0</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E8" s="8">
         <v>2.0</v>
@@ -3770,10 +3786,10 @@
         <v>0.0</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K8" s="8">
         <v>66.0</v>
@@ -3787,13 +3803,13 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C9" s="8">
         <v>0.0</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E9" s="8">
         <v>2.0</v>
@@ -3808,7 +3824,7 @@
         <v>0.0</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J9" s="8">
         <v>0.0</v>
@@ -3825,13 +3841,13 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C10" s="8">
         <v>0.0</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E10" s="8">
         <v>1.0</v>
@@ -3863,13 +3879,13 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C11" s="8">
         <v>0.0</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E11" s="8">
         <v>1.0</v>
@@ -3901,13 +3917,13 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C12" s="8">
         <v>0.0</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E12" s="8">
         <v>1.0</v>
@@ -3939,13 +3955,13 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C13" s="8">
         <v>0.0</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E13" s="8">
         <v>1.0</v>
@@ -3977,13 +3993,13 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C14" s="8">
         <v>0.0</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E14" s="8">
         <v>1.0</v>
@@ -4015,13 +4031,13 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C15" s="8">
         <v>0.0</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E15" s="8">
         <v>1.0</v>
@@ -4053,13 +4069,13 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C16" s="8">
         <v>0.0</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E16" s="8">
         <v>1.0</v>
@@ -4091,13 +4107,13 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C17" s="8">
         <v>0.0</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E17" s="8">
         <v>1.0</v>
@@ -4129,13 +4145,13 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C18" s="8">
         <v>0.0</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E18" s="8">
         <v>2.0</v>
@@ -4150,7 +4166,7 @@
         <v>0.0</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J18" s="8">
         <v>0.0</v>
@@ -4167,13 +4183,13 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C19" s="8">
         <v>0.0</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E19" s="8">
         <v>2.0</v>
@@ -4188,10 +4204,10 @@
         <v>0.0</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K19" s="8">
         <v>82.0</v>
@@ -4205,13 +4221,13 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C20" s="8">
         <v>0.0</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E20" s="8">
         <v>2.0</v>
@@ -4226,10 +4242,10 @@
         <v>0.0</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K20" s="8">
         <v>200.0</v>
@@ -4243,13 +4259,13 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C21" s="8">
         <v>0.0</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E21" s="8">
         <v>2.0</v>
@@ -4264,10 +4280,10 @@
         <v>0.0</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K21" s="8">
         <v>85.0</v>
@@ -4281,13 +4297,13 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C22" s="8">
         <v>0.0</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E22" s="8">
         <v>2.0</v>
@@ -4302,10 +4318,10 @@
         <v>0.0</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K22" s="8">
         <v>140.0</v>
@@ -4319,13 +4335,13 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C23" s="8">
         <v>0.0</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E23" s="8">
         <v>2.0</v>
@@ -4340,10 +4356,10 @@
         <v>0.0</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K23" s="8">
         <v>87.0</v>
@@ -4357,13 +4373,13 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C24" s="8">
         <v>0.0</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E24" s="8">
         <v>2.0</v>
@@ -4378,7 +4394,7 @@
         <v>0.0</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J24" s="8">
         <v>0.0</v>
@@ -4395,13 +4411,13 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C25" s="8">
         <v>0.0</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E25" s="8">
         <v>2.0</v>
@@ -4416,7 +4432,7 @@
         <v>0.0</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J25" s="8">
         <v>0.0</v>
@@ -4433,13 +4449,13 @@
         <v>24.0</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C26" s="8">
         <v>0.0</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E26" s="8">
         <v>2.0</v>
@@ -4454,7 +4470,7 @@
         <v>0.0</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J26" s="8">
         <v>0.0</v>
@@ -4471,13 +4487,13 @@
         <v>25.0</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C27" s="8">
         <v>0.0</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E27" s="8">
         <v>2.0</v>
@@ -4492,7 +4508,7 @@
         <v>0.0</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J27" s="8">
         <v>0.0</v>
@@ -4509,13 +4525,13 @@
         <v>26.0</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C28" s="8">
         <v>0.0</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E28" s="8">
         <v>2.0</v>
@@ -4530,7 +4546,7 @@
         <v>0.0</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J28" s="8">
         <v>0.0</v>
@@ -4547,13 +4563,13 @@
         <v>27.0</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C29" s="8">
         <v>0.0</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E29" s="8">
         <v>2.0</v>
@@ -4568,7 +4584,7 @@
         <v>0.0</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J29" s="8">
         <v>0.0</v>
@@ -4585,13 +4601,13 @@
         <v>28.0</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C30" s="8">
         <v>0.0</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E30" s="8">
         <v>2.0</v>
@@ -4606,7 +4622,7 @@
         <v>0.0</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J30" s="8">
         <v>0.0</v>
@@ -4623,13 +4639,13 @@
         <v>29.0</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C31" s="8">
         <v>0.0</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E31" s="8">
         <v>2.0</v>
@@ -4644,7 +4660,7 @@
         <v>0.0</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J31" s="8">
         <v>0.0</v>
@@ -4661,13 +4677,13 @@
         <v>30.0</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C32" s="8">
         <v>0.0</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E32" s="8">
         <v>2.0</v>
@@ -4682,7 +4698,7 @@
         <v>0.0</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="J32" s="8">
         <v>0.0</v>
@@ -4699,13 +4715,13 @@
         <v>31.0</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C33" s="8">
         <v>0.0</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E33" s="8">
         <v>2.0</v>
@@ -4720,7 +4736,7 @@
         <v>0.0</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="J33" s="8">
         <v>0.0</v>
@@ -4737,13 +4753,13 @@
         <v>32.0</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C34" s="8">
         <v>0.0</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E34" s="8">
         <v>2.0</v>
@@ -4758,7 +4774,7 @@
         <v>0.0</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J34" s="8">
         <v>0.0</v>
@@ -4775,13 +4791,13 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C35" s="8">
         <v>0.0</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E35" s="8">
         <v>2.0</v>
@@ -4796,7 +4812,7 @@
         <v>0.0</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J35" s="8">
         <v>0.0</v>
@@ -4813,13 +4829,13 @@
         <v>34.0</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C36" s="8">
         <v>0.0</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E36" s="8">
         <v>2.0</v>
@@ -4834,7 +4850,7 @@
         <v>0.0</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J36" s="8">
         <v>0.0</v>
@@ -4851,13 +4867,13 @@
         <v>35.0</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C37" s="8">
         <v>0.0</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E37" s="8">
         <v>2.0</v>
@@ -4872,7 +4888,7 @@
         <v>0.0</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J37" s="8">
         <v>0.0</v>
@@ -4889,13 +4905,13 @@
         <v>36.0</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C38" s="8">
         <v>0.0</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E38" s="8">
         <v>2.0</v>
@@ -4910,7 +4926,7 @@
         <v>0.0</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="J38" s="8">
         <v>0.0</v>
@@ -4927,13 +4943,13 @@
         <v>37.0</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C39" s="8">
         <v>0.0</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E39" s="8">
         <v>2.0</v>
@@ -4948,7 +4964,7 @@
         <v>0.0</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J39" s="8">
         <v>0.0</v>
@@ -4965,13 +4981,13 @@
         <v>38.0</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C40" s="8">
         <v>0.0</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E40" s="8">
         <v>2.0</v>
@@ -4986,7 +5002,7 @@
         <v>0.0</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="J40" s="8">
         <v>0.0</v>
@@ -5003,13 +5019,13 @@
         <v>39.0</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C41" s="8">
         <v>0.0</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E41" s="8">
         <v>2.0</v>
@@ -5024,7 +5040,7 @@
         <v>0.0</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="J41" s="8">
         <v>0.0</v>
@@ -5041,13 +5057,13 @@
         <v>40.0</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C42" s="8">
         <v>0.0</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E42" s="8">
         <v>2.0</v>
@@ -5062,7 +5078,7 @@
         <v>0.0</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="J42" s="8">
         <v>0.0</v>
@@ -5079,13 +5095,13 @@
         <v>41.0</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C43" s="8">
         <v>0.0</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E43" s="8">
         <v>2.0</v>
@@ -5100,7 +5116,7 @@
         <v>0.0</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="J43" s="8">
         <v>0.0</v>
@@ -5117,13 +5133,13 @@
         <v>42.0</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C44" s="8">
         <v>0.0</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E44" s="8">
         <v>2.0</v>
@@ -5138,7 +5154,7 @@
         <v>0.0</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J44" s="8">
         <v>0.0</v>
@@ -5155,13 +5171,13 @@
         <v>43.0</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C45" s="8">
         <v>0.0</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E45" s="8">
         <v>2.0</v>
@@ -5176,7 +5192,7 @@
         <v>0.0</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="J45" s="8">
         <v>0.0</v>
@@ -5193,13 +5209,13 @@
         <v>44.0</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C46" s="8">
         <v>0.0</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E46" s="8">
         <v>2.0</v>
@@ -5214,7 +5230,7 @@
         <v>0.0</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J46" s="8">
         <v>0.0</v>
@@ -5231,13 +5247,13 @@
         <v>45.0</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C47" s="8">
         <v>0.0</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E47" s="8">
         <v>2.0</v>
@@ -5252,7 +5268,7 @@
         <v>0.0</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="J47" s="8">
         <v>0.0</v>
@@ -5269,13 +5285,13 @@
         <v>46.0</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C48" s="8">
         <v>0.0</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E48" s="8">
         <v>2.0</v>
@@ -5290,7 +5306,7 @@
         <v>0.0</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="J48" s="8">
         <v>0.0</v>
@@ -5307,13 +5323,13 @@
         <v>47.0</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C49" s="19">
         <v>0.0</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E49" s="8">
         <v>2.0</v>
@@ -5328,7 +5344,7 @@
         <v>0.0</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="J49" s="8">
         <v>0.0</v>
@@ -5345,13 +5361,13 @@
         <v>48.0</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C50" s="8">
         <v>0.0</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E50" s="8">
         <v>2.0</v>
@@ -5366,7 +5382,7 @@
         <v>0.0</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="J50" s="8">
         <v>0.0</v>
@@ -5383,13 +5399,13 @@
         <v>49.0</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C51" s="8">
         <v>0.0</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E51" s="8">
         <v>2.0</v>
@@ -5404,7 +5420,7 @@
         <v>0.0</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J51" s="8">
         <v>0.0</v>
@@ -5421,13 +5437,13 @@
         <v>50.0</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C52" s="8">
         <v>0.0</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E52" s="8">
         <v>2.0</v>
@@ -5442,7 +5458,7 @@
         <v>0.0</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="J52" s="8">
         <v>0.0</v>
@@ -5459,13 +5475,13 @@
         <v>51.0</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C53" s="8">
         <v>0.0</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E53" s="8">
         <v>2.0</v>
@@ -5480,7 +5496,7 @@
         <v>0.0</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="J53" s="8">
         <v>0.0</v>
@@ -5497,13 +5513,13 @@
         <v>52.0</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C54" s="8">
         <v>0.0</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E54" s="8">
         <v>2.0</v>
@@ -5518,7 +5534,7 @@
         <v>0.0</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J54" s="8">
         <v>0.0</v>
@@ -5535,13 +5551,13 @@
         <v>53.0</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C55" s="8">
         <v>0.0</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E55" s="8">
         <v>2.0</v>
@@ -5556,7 +5572,7 @@
         <v>0.0</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="J55" s="8">
         <v>0.0</v>
@@ -5573,13 +5589,13 @@
         <v>54.0</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C56" s="8">
         <v>0.0</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E56" s="8">
         <v>2.0</v>
@@ -5594,7 +5610,7 @@
         <v>0.0</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="J56" s="8">
         <v>0.0</v>
@@ -5611,13 +5627,13 @@
         <v>55.0</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C57" s="8">
         <v>0.0</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E57" s="8">
         <v>2.0</v>
@@ -5632,7 +5648,7 @@
         <v>0.0</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J57" s="8">
         <v>0.0</v>
@@ -5649,13 +5665,13 @@
         <v>56.0</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C58" s="8">
         <v>0.0</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E58" s="8">
         <v>2.0</v>
@@ -5670,7 +5686,7 @@
         <v>0.0</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="J58" s="8">
         <v>0.0</v>
@@ -5687,13 +5703,13 @@
         <v>57.0</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C59" s="8">
         <v>0.0</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E59" s="8">
         <v>2.0</v>
@@ -5708,7 +5724,7 @@
         <v>0.0</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="J59" s="8">
         <v>0.0</v>
@@ -5725,13 +5741,13 @@
         <v>58.0</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C60" s="8">
         <v>0.0</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E60" s="8">
         <v>2.0</v>
@@ -5746,7 +5762,7 @@
         <v>0.0</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="J60" s="8">
         <v>0.0</v>
@@ -5763,13 +5779,13 @@
         <v>59.0</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C61" s="8">
         <v>0.0</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E61" s="8">
         <v>2.0</v>
@@ -5784,7 +5800,7 @@
         <v>0.0</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="J61" s="8">
         <v>0.0</v>
@@ -5801,13 +5817,13 @@
         <v>60.0</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C62" s="8">
         <v>0.0</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E62" s="8">
         <v>2.0</v>
@@ -5822,7 +5838,7 @@
         <v>0.0</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="J62" s="8">
         <v>0.0</v>
@@ -5839,13 +5855,13 @@
         <v>61.0</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C63" s="8">
         <v>0.0</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E63" s="8">
         <v>2.0</v>
@@ -5860,7 +5876,7 @@
         <v>0.0</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="J63" s="8">
         <v>0.0</v>
@@ -5877,13 +5893,13 @@
         <v>62.0</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C64" s="8">
         <v>0.0</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E64" s="8">
         <v>2.0</v>
@@ -5898,7 +5914,7 @@
         <v>0.0</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="J64" s="8">
         <v>0.0</v>
@@ -5915,13 +5931,13 @@
         <v>63.0</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C65" s="8">
         <v>0.0</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E65" s="8">
         <v>2.0</v>
@@ -5936,7 +5952,7 @@
         <v>0.0</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="J65" s="8">
         <v>0.0</v>
@@ -5953,13 +5969,13 @@
         <v>64.0</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C66" s="8">
         <v>0.0</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E66" s="8">
         <v>2.0</v>
@@ -5974,7 +5990,7 @@
         <v>0.0</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J66" s="8">
         <v>0.0</v>
@@ -5991,13 +6007,13 @@
         <v>65.0</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C67" s="8">
         <v>0.0</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E67" s="8">
         <v>2.0</v>
@@ -6012,7 +6028,7 @@
         <v>0.0</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J67" s="8">
         <v>0.0</v>
@@ -6029,13 +6045,13 @@
         <v>66.0</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C68" s="8">
         <v>0.0</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E68" s="8">
         <v>2.0</v>
@@ -6050,7 +6066,7 @@
         <v>0.0</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="J68" s="8">
         <v>0.0</v>
@@ -6067,13 +6083,13 @@
         <v>67.0</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C69" s="19">
         <v>0.0</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E69" s="8">
         <v>2.0</v>
@@ -6088,7 +6104,7 @@
         <v>0.0</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="J69" s="8">
         <v>0.0</v>
@@ -6105,13 +6121,13 @@
         <v>68.0</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C70" s="8">
         <v>0.0</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E70" s="8">
         <v>2.0</v>
@@ -6126,7 +6142,7 @@
         <v>0.0</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="J70" s="8">
         <v>0.0</v>
@@ -6143,13 +6159,13 @@
         <v>69.0</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C71" s="8">
         <v>0.0</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E71" s="8">
         <v>2.0</v>
@@ -6164,7 +6180,7 @@
         <v>0.0</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="J71" s="8">
         <v>0.0</v>
@@ -6181,13 +6197,13 @@
         <v>70.0</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C72" s="8">
         <v>0.0</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E72" s="8">
         <v>2.0</v>
@@ -6202,7 +6218,7 @@
         <v>0.0</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="J72" s="8">
         <v>0.0</v>
@@ -6219,13 +6235,13 @@
         <v>71.0</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C73" s="8">
         <v>0.0</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E73" s="8">
         <v>2.0</v>
@@ -6240,7 +6256,7 @@
         <v>0.0</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="J73" s="8">
         <v>0.0</v>
@@ -6257,13 +6273,13 @@
         <v>72.0</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C74" s="8">
         <v>0.0</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E74" s="8">
         <v>2.0</v>
@@ -6278,7 +6294,7 @@
         <v>0.0</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="J74" s="8">
         <v>0.0</v>
@@ -6295,13 +6311,13 @@
         <v>73.0</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C75" s="8">
         <v>0.0</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E75" s="8">
         <v>2.0</v>
@@ -6316,10 +6332,10 @@
         <v>0.0</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K75" s="8">
         <v>120.0</v>
@@ -6333,13 +6349,13 @@
         <v>74.0</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C76" s="8">
         <v>0.0</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E76" s="8">
         <v>2.0</v>
@@ -6354,10 +6370,10 @@
         <v>0.0</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K76" s="8">
         <v>121.0</v>
@@ -6371,13 +6387,13 @@
         <v>75.0</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C77" s="8">
         <v>0.0</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E77" s="8">
         <v>2.0</v>
@@ -6392,10 +6408,10 @@
         <v>0.0</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="K77" s="8">
         <v>122.0</v>
@@ -6409,13 +6425,13 @@
         <v>76.0</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C78" s="8">
         <v>0.0</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E78" s="8">
         <v>2.0</v>
@@ -6430,10 +6446,10 @@
         <v>0.0</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K78" s="8">
         <v>123.0</v>
@@ -6447,13 +6463,13 @@
         <v>77.0</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C79" s="8">
         <v>0.0</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E79" s="8">
         <v>2.0</v>
@@ -6468,7 +6484,7 @@
         <v>0.0</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="J79" s="8">
         <v>0.0</v>
@@ -6485,13 +6501,13 @@
         <v>78.0</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C80" s="8">
         <v>0.0</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E80" s="8">
         <v>2.0</v>
@@ -6506,10 +6522,10 @@
         <v>0.0</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="J80" s="8" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="K80" s="8">
         <v>125.0</v>
@@ -6523,13 +6539,13 @@
         <v>79.0</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C81" s="8">
         <v>0.0</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E81" s="8">
         <v>2.0</v>
@@ -6544,10 +6560,10 @@
         <v>0.0</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="J81" s="8" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="K81" s="8">
         <v>126.0</v>
@@ -6561,13 +6577,13 @@
         <v>80.0</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C82" s="8">
         <v>0.0</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E82" s="8">
         <v>2.0</v>
@@ -6582,10 +6598,10 @@
         <v>0.0</v>
       </c>
       <c r="I82" s="8" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K82" s="8">
         <v>127.0</v>
@@ -6599,13 +6615,13 @@
         <v>81.0</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C83" s="21">
         <v>0.0</v>
       </c>
       <c r="D83" s="22" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E83" s="8">
         <v>2.0</v>
@@ -6620,10 +6636,10 @@
         <v>0.0</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="J83" s="21" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K83" s="22">
         <v>128.0</v>
@@ -6637,13 +6653,13 @@
         <v>82.0</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C84" s="21">
         <v>0.0</v>
       </c>
       <c r="D84" s="22" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E84" s="8">
         <v>2.0</v>
@@ -6658,7 +6674,7 @@
         <v>0.0</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="J84" s="21">
         <v>0.0</v>
@@ -6675,13 +6691,13 @@
         <v>83.0</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C85" s="21">
         <v>0.0</v>
       </c>
       <c r="D85" s="22" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E85" s="8">
         <v>2.0</v>
@@ -6696,7 +6712,7 @@
         <v>0.0</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="J85" s="21">
         <v>0.0</v>
@@ -6713,13 +6729,13 @@
         <v>84.0</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C86" s="21">
         <v>0.0</v>
       </c>
       <c r="D86" s="22" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E86" s="8">
         <v>2.0</v>
@@ -6734,7 +6750,7 @@
         <v>0.0</v>
       </c>
       <c r="I86" s="8" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="J86" s="21">
         <v>0.0</v>
@@ -6751,13 +6767,13 @@
         <v>85.0</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C87" s="21">
         <v>0.0</v>
       </c>
       <c r="D87" s="22" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E87" s="8">
         <v>2.0</v>
@@ -6772,7 +6788,7 @@
         <v>0.0</v>
       </c>
       <c r="I87" s="8" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="J87" s="21">
         <v>0.0</v>
@@ -6789,13 +6805,13 @@
         <v>86.0</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C88" s="23">
         <v>0.0</v>
       </c>
       <c r="D88" s="24" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E88" s="8">
         <v>2.0</v>
@@ -6810,10 +6826,10 @@
         <v>0.0</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="J88" s="8" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K88" s="22">
         <v>133.0</v>
@@ -6827,13 +6843,13 @@
         <v>87.0</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C89" s="21">
         <v>0.0</v>
       </c>
       <c r="D89" s="22" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E89" s="8">
         <v>2.0</v>
@@ -6848,10 +6864,10 @@
         <v>0.0</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="J89" s="8" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="K89" s="22">
         <v>134.0</v>
@@ -6865,13 +6881,13 @@
         <v>88.0</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C90" s="23">
         <v>0.0</v>
       </c>
       <c r="D90" s="24" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E90" s="8">
         <v>2.0</v>
@@ -6886,10 +6902,10 @@
         <v>0.0</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="J90" s="8" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="K90" s="22">
         <v>135.0</v>
@@ -6903,13 +6919,13 @@
         <v>89.0</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C91" s="21">
         <v>0.0</v>
       </c>
       <c r="D91" s="22" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E91" s="8">
         <v>2.0</v>
@@ -6924,10 +6940,10 @@
         <v>0.0</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="J91" s="8" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K91" s="22">
         <v>136.0</v>
@@ -6941,13 +6957,13 @@
         <v>90.0</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C92" s="21">
         <v>0.0</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E92" s="8">
         <v>2.0</v>
@@ -6962,7 +6978,7 @@
         <v>0.0</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="J92" s="22"/>
       <c r="K92" s="22">
@@ -6977,13 +6993,13 @@
         <v>91.0</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C93" s="21">
         <v>0.0</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E93" s="8">
         <v>2.0</v>
@@ -6998,7 +7014,7 @@
         <v>0.0</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="J93" s="22"/>
       <c r="K93" s="22">
@@ -7013,13 +7029,13 @@
         <v>92.0</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C94" s="21">
         <v>0.0</v>
       </c>
       <c r="D94" s="22" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E94" s="8">
         <v>2.0</v>
@@ -7034,7 +7050,7 @@
         <v>0.0</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="J94" s="22"/>
       <c r="K94" s="22">
@@ -7049,13 +7065,13 @@
         <v>93.0</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C95" s="21">
         <v>0.0</v>
       </c>
       <c r="D95" s="22" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E95" s="8">
         <v>2.0</v>
@@ -7070,7 +7086,7 @@
         <v>0.0</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="J95" s="22"/>
       <c r="K95" s="22">
@@ -7085,13 +7101,13 @@
         <v>94.0</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C96" s="21">
         <v>0.0</v>
       </c>
       <c r="D96" s="22" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E96" s="8">
         <v>2.0</v>
@@ -7106,7 +7122,7 @@
         <v>0.0</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="J96" s="22"/>
       <c r="K96" s="22">
@@ -7121,13 +7137,13 @@
         <v>95.0</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C97" s="21">
         <v>0.0</v>
       </c>
       <c r="D97" s="22" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="E97" s="8">
         <v>2.0</v>
@@ -7142,7 +7158,7 @@
         <v>0.0</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="J97" s="22"/>
       <c r="K97" s="22">
@@ -7157,13 +7173,13 @@
         <v>96.0</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C98" s="21">
         <v>0.0</v>
       </c>
       <c r="D98" s="22" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E98" s="8">
         <v>2.0</v>
@@ -7178,10 +7194,10 @@
         <v>0.0</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="J98" s="8" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K98" s="22">
         <v>152.0</v>
@@ -7195,13 +7211,13 @@
         <v>97.0</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C99" s="21">
         <v>0.0</v>
       </c>
       <c r="D99" s="22" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E99" s="8">
         <v>2.0</v>
@@ -7216,10 +7232,10 @@
         <v>0.0</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="J99" s="8" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K99" s="22">
         <v>153.0</v>
@@ -7233,13 +7249,13 @@
         <v>98.0</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C100" s="21">
         <v>0.0</v>
       </c>
       <c r="D100" s="22" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E100" s="8">
         <v>2.0</v>
@@ -7254,10 +7270,10 @@
         <v>0.0</v>
       </c>
       <c r="I100" s="8" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="J100" s="8" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K100" s="22">
         <v>154.0</v>
@@ -7271,13 +7287,13 @@
         <v>99.0</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C101" s="21">
         <v>0.0</v>
       </c>
       <c r="D101" s="22" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E101" s="8">
         <v>2.0</v>
@@ -7292,7 +7308,7 @@
         <v>0.0</v>
       </c>
       <c r="I101" s="8" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="J101" s="21">
         <v>0.0</v>
@@ -7309,13 +7325,13 @@
         <v>100.0</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C102" s="21">
         <v>0.0</v>
       </c>
       <c r="D102" s="22" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="E102" s="8">
         <v>2.0</v>
@@ -7330,7 +7346,7 @@
         <v>0.0</v>
       </c>
       <c r="I102" s="8" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="J102" s="21">
         <v>0.0</v>
@@ -7347,13 +7363,13 @@
         <v>101.0</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C103" s="21">
         <v>0.0</v>
       </c>
       <c r="D103" s="22" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E103" s="8">
         <v>2.0</v>
@@ -7368,7 +7384,7 @@
         <v>0.0</v>
       </c>
       <c r="I103" s="8" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="J103" s="21">
         <v>0.0</v>
@@ -7385,13 +7401,13 @@
         <v>102.0</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C104" s="21">
         <v>0.0</v>
       </c>
       <c r="D104" s="22" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E104" s="8">
         <v>2.0</v>
@@ -7406,7 +7422,7 @@
         <v>0.0</v>
       </c>
       <c r="I104" s="8" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="J104" s="21">
         <v>0.0</v>
@@ -7423,13 +7439,13 @@
         <v>103.0</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C105" s="21">
         <v>0.0</v>
       </c>
       <c r="D105" s="22" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E105" s="8">
         <v>2.0</v>
@@ -7444,7 +7460,7 @@
         <v>0.0</v>
       </c>
       <c r="I105" s="8" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="J105" s="21">
         <v>0.0</v>
@@ -7461,13 +7477,13 @@
         <v>104.0</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C106" s="21">
         <v>0.0</v>
       </c>
       <c r="D106" s="22" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="E106" s="8">
         <v>2.0</v>
@@ -7482,7 +7498,7 @@
         <v>0.0</v>
       </c>
       <c r="I106" s="8" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="J106" s="21">
         <v>0.0</v>
@@ -7499,13 +7515,13 @@
         <v>105.0</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C107" s="21">
         <v>0.0</v>
       </c>
       <c r="D107" s="22" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E107" s="8">
         <v>2.0</v>
@@ -7520,7 +7536,7 @@
         <v>0.0</v>
       </c>
       <c r="I107" s="8" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="J107" s="21">
         <v>0.0</v>
@@ -7537,13 +7553,13 @@
         <v>106.0</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C108" s="21">
         <v>0.0</v>
       </c>
       <c r="D108" s="22" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E108" s="8">
         <v>2.0</v>
@@ -7558,7 +7574,7 @@
         <v>0.0</v>
       </c>
       <c r="I108" s="8" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="J108" s="21">
         <v>0.0</v>
@@ -7575,13 +7591,13 @@
         <v>107.0</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C109" s="21">
         <v>0.0</v>
       </c>
       <c r="D109" s="22" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E109" s="8">
         <v>2.0</v>
@@ -7596,10 +7612,10 @@
         <v>0.0</v>
       </c>
       <c r="I109" s="8" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="J109" s="8" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K109" s="22">
         <v>163.0</v>
@@ -7613,13 +7629,13 @@
         <v>108.0</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C110" s="21">
         <v>0.0</v>
       </c>
       <c r="D110" s="22" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E110" s="8">
         <v>2.0</v>
@@ -7634,7 +7650,7 @@
         <v>0.0</v>
       </c>
       <c r="I110" s="8" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="J110" s="21">
         <v>0.0</v>
@@ -7651,13 +7667,13 @@
         <v>109.0</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C111" s="21">
         <v>0.0</v>
       </c>
       <c r="D111" s="22" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E111" s="8">
         <v>2.0</v>
@@ -7672,7 +7688,7 @@
         <v>0.0</v>
       </c>
       <c r="I111" s="8" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="J111" s="21">
         <v>0.0</v>
@@ -7689,13 +7705,13 @@
         <v>110.0</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C112" s="21">
         <v>0.0</v>
       </c>
       <c r="D112" s="22" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="E112" s="8">
         <v>2.0</v>
@@ -7710,7 +7726,7 @@
         <v>0.0</v>
       </c>
       <c r="I112" s="8" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="J112" s="21">
         <v>0.0</v>
@@ -7727,13 +7743,13 @@
         <v>111.0</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C113" s="21">
         <v>0.0</v>
       </c>
       <c r="D113" s="22" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="E113" s="8">
         <v>2.0</v>
@@ -7748,7 +7764,7 @@
         <v>0.0</v>
       </c>
       <c r="I113" s="8" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="J113" s="21">
         <v>0.0</v>
@@ -7765,13 +7781,13 @@
         <v>112.0</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C114" s="21">
         <v>0.0</v>
       </c>
       <c r="D114" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E114" s="8">
         <v>2.0</v>
@@ -7786,7 +7802,7 @@
         <v>0.0</v>
       </c>
       <c r="I114" s="8" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="J114" s="21">
         <v>0.0</v>
@@ -7803,13 +7819,13 @@
         <v>113.0</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C115" s="21">
         <v>0.0</v>
       </c>
       <c r="D115" s="22" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="E115" s="8">
         <v>2.0</v>
@@ -7824,7 +7840,7 @@
         <v>0.0</v>
       </c>
       <c r="I115" s="8" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="J115" s="21">
         <v>0.0</v>
@@ -7841,13 +7857,13 @@
         <v>114.0</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C116" s="21">
         <v>0.0</v>
       </c>
       <c r="D116" s="22" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E116" s="8">
         <v>2.0</v>
@@ -7862,7 +7878,7 @@
         <v>0.0</v>
       </c>
       <c r="I116" s="8" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="J116" s="21">
         <v>0.0</v>
@@ -7879,13 +7895,13 @@
         <v>115.0</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C117" s="21">
         <v>0.0</v>
       </c>
       <c r="D117" s="22" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E117" s="8">
         <v>2.0</v>
@@ -7900,7 +7916,7 @@
         <v>0.0</v>
       </c>
       <c r="I117" s="8" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="J117" s="21">
         <v>0.0</v>
@@ -7917,13 +7933,13 @@
         <v>116.0</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C118" s="21">
         <v>0.0</v>
       </c>
       <c r="D118" s="22" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E118" s="8">
         <v>2.0</v>
@@ -7938,7 +7954,7 @@
         <v>0.0</v>
       </c>
       <c r="I118" s="8" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="J118" s="21">
         <v>0.0</v>
@@ -7955,13 +7971,13 @@
         <v>117.0</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C119" s="21">
         <v>0.0</v>
       </c>
       <c r="D119" s="22" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E119" s="8">
         <v>2.0</v>
@@ -7976,7 +7992,7 @@
         <v>0.0</v>
       </c>
       <c r="I119" s="8" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="J119" s="21">
         <v>0.0</v>
@@ -7993,13 +8009,13 @@
         <v>118.0</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C120" s="21">
         <v>0.0</v>
       </c>
       <c r="D120" s="22" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="E120" s="8">
         <v>2.0</v>
@@ -8014,7 +8030,7 @@
         <v>0.0</v>
       </c>
       <c r="I120" s="8" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="J120" s="21">
         <v>0.0</v>
@@ -8031,13 +8047,13 @@
         <v>119.0</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C121" s="21">
         <v>0.0</v>
       </c>
       <c r="D121" s="22" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E121" s="8">
         <v>2.0</v>
@@ -8052,7 +8068,7 @@
         <v>0.0</v>
       </c>
       <c r="I121" s="8" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="J121" s="21">
         <v>0.0</v>
@@ -8069,13 +8085,13 @@
         <v>120.0</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C122" s="21">
         <v>0.0</v>
       </c>
       <c r="D122" s="22" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E122" s="8">
         <v>2.0</v>
@@ -8090,7 +8106,7 @@
         <v>0.0</v>
       </c>
       <c r="I122" s="8" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="J122" s="21">
         <v>0.0</v>
@@ -8107,13 +8123,13 @@
         <v>121.0</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C123" s="21">
         <v>0.0</v>
       </c>
       <c r="D123" s="22" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E123" s="8">
         <v>2.0</v>
@@ -8128,7 +8144,7 @@
         <v>0.0</v>
       </c>
       <c r="I123" s="8" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="J123" s="21">
         <v>0.0</v>
@@ -8145,13 +8161,13 @@
         <v>122.0</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C124" s="21">
         <v>0.0</v>
       </c>
       <c r="D124" s="22" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E124" s="8">
         <v>2.0</v>
@@ -8166,7 +8182,7 @@
         <v>0.0</v>
       </c>
       <c r="I124" s="8" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="J124" s="21">
         <v>0.0</v>
@@ -8183,13 +8199,13 @@
         <v>123.0</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C125" s="21">
         <v>0.0</v>
       </c>
       <c r="D125" s="22" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E125" s="8">
         <v>2.0</v>
@@ -8204,7 +8220,7 @@
         <v>0.0</v>
       </c>
       <c r="I125" s="8" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="J125" s="21">
         <v>0.0</v>
@@ -8221,13 +8237,13 @@
         <v>124.0</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C126" s="21">
         <v>0.0</v>
       </c>
       <c r="D126" s="22" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E126" s="8">
         <v>2.0</v>
@@ -8242,7 +8258,7 @@
         <v>0.0</v>
       </c>
       <c r="I126" s="8" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="J126" s="21">
         <v>0.0</v>
@@ -8259,13 +8275,13 @@
         <v>125.0</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C127" s="21">
         <v>0.0</v>
       </c>
       <c r="D127" s="22" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="E127" s="8">
         <v>2.0</v>
@@ -8280,7 +8296,7 @@
         <v>0.0</v>
       </c>
       <c r="I127" s="8" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="J127" s="21">
         <v>0.0</v>
@@ -8297,13 +8313,13 @@
         <v>126.0</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C128" s="21">
         <v>0.0</v>
       </c>
       <c r="D128" s="22" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="E128" s="8">
         <v>2.0</v>
@@ -8318,7 +8334,7 @@
         <v>0.0</v>
       </c>
       <c r="I128" s="8" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="J128" s="21">
         <v>0.0</v>
@@ -8335,13 +8351,13 @@
         <v>127.0</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C129" s="21">
         <v>0.0</v>
       </c>
       <c r="D129" s="22" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="E129" s="8">
         <v>2.0</v>
@@ -8356,7 +8372,7 @@
         <v>0.0</v>
       </c>
       <c r="I129" s="8" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="J129" s="21">
         <v>0.0</v>
@@ -8373,13 +8389,13 @@
         <v>128.0</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C130" s="21">
         <v>0.0</v>
       </c>
       <c r="D130" s="22" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="E130" s="8">
         <v>2.0</v>
@@ -8394,7 +8410,7 @@
         <v>0.0</v>
       </c>
       <c r="I130" s="8" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="J130" s="21">
         <v>0.0</v>
@@ -8411,13 +8427,13 @@
         <v>129.0</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C131" s="21">
         <v>0.0</v>
       </c>
       <c r="D131" s="22" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="E131" s="8">
         <v>2.0</v>
@@ -8432,7 +8448,7 @@
         <v>0.0</v>
       </c>
       <c r="I131" s="8" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J131" s="21">
         <v>0.0</v>
@@ -8449,13 +8465,13 @@
         <v>130.0</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C132" s="21">
         <v>0.0</v>
       </c>
       <c r="D132" s="22" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="E132" s="8">
         <v>2.0</v>
@@ -8470,7 +8486,7 @@
         <v>0.0</v>
       </c>
       <c r="I132" s="8" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="J132" s="21">
         <v>0.0</v>
@@ -8487,13 +8503,13 @@
         <v>131.0</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C133" s="23">
         <v>0.0</v>
       </c>
       <c r="D133" s="24" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="E133" s="8">
         <v>2.0</v>
@@ -8508,7 +8524,7 @@
         <v>0.0</v>
       </c>
       <c r="I133" s="8" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="J133" s="21">
         <v>0.0</v>
@@ -8525,13 +8541,13 @@
         <v>132.0</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C134" s="21">
         <v>0.0</v>
       </c>
       <c r="D134" s="22" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E134" s="8">
         <v>2.0</v>
@@ -8546,7 +8562,7 @@
         <v>0.0</v>
       </c>
       <c r="I134" s="8" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="J134" s="21">
         <v>0.0</v>
@@ -8563,13 +8579,13 @@
         <v>133.0</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C135" s="21">
         <v>0.0</v>
       </c>
       <c r="D135" s="22" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E135" s="8">
         <v>2.0</v>
@@ -8584,7 +8600,7 @@
         <v>0.0</v>
       </c>
       <c r="I135" s="8" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="J135" s="21">
         <v>0.0</v>
@@ -8601,13 +8617,13 @@
         <v>134.0</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C136" s="21">
         <v>0.0</v>
       </c>
       <c r="D136" s="22" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="E136" s="8">
         <v>2.0</v>
@@ -8622,7 +8638,7 @@
         <v>0.0</v>
       </c>
       <c r="I136" s="8" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="J136" s="21">
         <v>0.0</v>
@@ -8639,13 +8655,13 @@
         <v>135.0</v>
       </c>
       <c r="B137" s="20" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C137" s="21">
         <v>0.0</v>
       </c>
       <c r="D137" s="22" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="E137" s="8">
         <v>2.0</v>
@@ -8660,7 +8676,7 @@
         <v>0.0</v>
       </c>
       <c r="I137" s="8" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="J137" s="21">
         <v>0.0</v>
@@ -8677,13 +8693,13 @@
         <v>136.0</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C138" s="21">
         <v>0.0</v>
       </c>
       <c r="D138" s="22" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="E138" s="8">
         <v>2.0</v>
@@ -8698,7 +8714,7 @@
         <v>0.0</v>
       </c>
       <c r="I138" s="8" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="J138" s="21">
         <v>0.0</v>
@@ -8715,13 +8731,13 @@
         <v>137.0</v>
       </c>
       <c r="B139" s="20" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C139" s="21">
         <v>0.0</v>
       </c>
       <c r="D139" s="22" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="E139" s="8">
         <v>2.0</v>
@@ -8736,7 +8752,7 @@
         <v>0.0</v>
       </c>
       <c r="I139" s="8" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="J139" s="21">
         <v>0.0</v>
@@ -8753,13 +8769,13 @@
         <v>138.0</v>
       </c>
       <c r="B140" s="20" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C140" s="21">
         <v>0.0</v>
       </c>
       <c r="D140" s="22" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="E140" s="8">
         <v>2.0</v>
@@ -8774,7 +8790,7 @@
         <v>0.0</v>
       </c>
       <c r="I140" s="8" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="J140" s="21">
         <v>0.0</v>
@@ -8791,13 +8807,13 @@
         <v>139.0</v>
       </c>
       <c r="B141" s="20" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C141" s="21">
         <v>0.0</v>
       </c>
       <c r="D141" s="22" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="E141" s="8">
         <v>2.0</v>
@@ -8812,7 +8828,7 @@
         <v>0.0</v>
       </c>
       <c r="I141" s="8" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="J141" s="21">
         <v>0.0</v>
@@ -8829,13 +8845,13 @@
         <v>140.0</v>
       </c>
       <c r="B142" s="20" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C142" s="23">
         <v>0.0</v>
       </c>
       <c r="D142" s="24" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="E142" s="8">
         <v>2.0</v>
@@ -8850,7 +8866,7 @@
         <v>0.0</v>
       </c>
       <c r="I142" s="8" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="J142" s="21">
         <v>0.0</v>
@@ -8867,13 +8883,13 @@
         <v>141.0</v>
       </c>
       <c r="B143" s="20" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C143" s="21">
         <v>0.0</v>
       </c>
       <c r="D143" s="22" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="E143" s="8">
         <v>2.0</v>
@@ -8888,7 +8904,7 @@
         <v>0.0</v>
       </c>
       <c r="I143" s="8" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="J143" s="21">
         <v>0.0</v>
@@ -8905,13 +8921,13 @@
         <v>142.0</v>
       </c>
       <c r="B144" s="20" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C144" s="21">
         <v>0.0</v>
       </c>
       <c r="D144" s="22" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="E144" s="8">
         <v>2.0</v>
@@ -8926,7 +8942,7 @@
         <v>0.0</v>
       </c>
       <c r="I144" s="8" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="J144" s="21">
         <v>0.0</v>
@@ -8943,13 +8959,13 @@
         <v>143.0</v>
       </c>
       <c r="B145" s="20" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C145" s="21">
         <v>0.0</v>
       </c>
       <c r="D145" s="22" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E145" s="8">
         <v>2.0</v>
@@ -8964,7 +8980,7 @@
         <v>0.0</v>
       </c>
       <c r="I145" s="8" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="J145" s="21">
         <v>0.0</v>
@@ -8981,13 +8997,13 @@
         <v>144.0</v>
       </c>
       <c r="B146" s="20" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C146" s="21">
         <v>0.0</v>
       </c>
       <c r="D146" s="22" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="E146" s="8">
         <v>2.0</v>
@@ -9002,7 +9018,7 @@
         <v>0.0</v>
       </c>
       <c r="I146" s="8" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="J146" s="21">
         <v>0.0</v>
@@ -9019,13 +9035,13 @@
         <v>145.0</v>
       </c>
       <c r="B147" s="20" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C147" s="21">
         <v>0.0</v>
       </c>
       <c r="D147" s="22" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="E147" s="8">
         <v>2.0</v>
@@ -9040,7 +9056,7 @@
         <v>0.0</v>
       </c>
       <c r="I147" s="8" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="J147" s="21">
         <v>0.0</v>
@@ -9057,13 +9073,13 @@
         <v>146.0</v>
       </c>
       <c r="B148" s="20" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C148" s="21">
         <v>0.0</v>
       </c>
       <c r="D148" s="22" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="E148" s="8">
         <v>2.0</v>
@@ -9078,7 +9094,7 @@
         <v>0.0</v>
       </c>
       <c r="I148" s="8" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="J148" s="21">
         <v>0.0</v>
@@ -9095,13 +9111,13 @@
         <v>147.0</v>
       </c>
       <c r="B149" s="20" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C149" s="21">
         <v>0.0</v>
       </c>
       <c r="D149" s="22" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="E149" s="8">
         <v>2.0</v>
@@ -9116,10 +9132,10 @@
         <v>0.0</v>
       </c>
       <c r="I149" s="8" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="J149" s="8" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="K149" s="22">
         <v>214.0</v>
@@ -9133,13 +9149,13 @@
         <v>148.0</v>
       </c>
       <c r="B150" s="20" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C150" s="21">
         <v>0.0</v>
       </c>
       <c r="D150" s="22" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="E150" s="8">
         <v>2.0</v>
@@ -9154,7 +9170,7 @@
         <v>0.0</v>
       </c>
       <c r="I150" s="8" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="J150" s="21">
         <v>0.0</v>
@@ -9171,13 +9187,13 @@
         <v>149.0</v>
       </c>
       <c r="B151" s="20" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C151" s="21">
         <v>0.0</v>
       </c>
       <c r="D151" s="22" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="E151" s="8">
         <v>2.0</v>
@@ -9192,7 +9208,7 @@
         <v>0.0</v>
       </c>
       <c r="I151" s="8" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="J151" s="21">
         <v>0.0</v>
@@ -9209,13 +9225,13 @@
         <v>150.0</v>
       </c>
       <c r="B152" s="20" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C152" s="21">
         <v>0.0</v>
       </c>
       <c r="D152" s="22" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="E152" s="8">
         <v>2.0</v>
@@ -9230,7 +9246,7 @@
         <v>0.0</v>
       </c>
       <c r="I152" s="8" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="J152" s="21">
         <v>0.0</v>
@@ -9247,13 +9263,13 @@
         <v>151.0</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C153" s="21">
         <v>0.0</v>
       </c>
       <c r="D153" s="22" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="E153" s="8">
         <v>2.0</v>
@@ -9268,7 +9284,7 @@
         <v>0.0</v>
       </c>
       <c r="I153" s="8" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="J153" s="21">
         <v>0.0</v>
@@ -9285,13 +9301,13 @@
         <v>152.0</v>
       </c>
       <c r="B154" s="20" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C154" s="21">
         <v>0.0</v>
       </c>
       <c r="D154" s="22" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="E154" s="8">
         <v>2.0</v>
@@ -9306,7 +9322,7 @@
         <v>0.0</v>
       </c>
       <c r="I154" s="8" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="J154" s="21">
         <v>0.0</v>
@@ -9323,13 +9339,13 @@
         <v>153.0</v>
       </c>
       <c r="B155" s="20" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C155" s="23">
         <v>0.0</v>
       </c>
       <c r="D155" s="24" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="E155" s="8">
         <v>2.0</v>
@@ -9344,7 +9360,7 @@
         <v>0.0</v>
       </c>
       <c r="I155" s="8" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="J155" s="21">
         <v>0.0</v>
@@ -9361,13 +9377,13 @@
         <v>154.0</v>
       </c>
       <c r="B156" s="20" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C156" s="21">
         <v>0.0</v>
       </c>
       <c r="D156" s="22" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="E156" s="8">
         <v>2.0</v>
@@ -9382,7 +9398,7 @@
         <v>0.0</v>
       </c>
       <c r="I156" s="8" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="J156" s="21">
         <v>0.0</v>
@@ -9399,13 +9415,13 @@
         <v>155.0</v>
       </c>
       <c r="B157" s="20" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C157" s="21">
         <v>0.0</v>
       </c>
       <c r="D157" s="22" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="E157" s="8">
         <v>2.0</v>
@@ -9420,7 +9436,7 @@
         <v>0.0</v>
       </c>
       <c r="I157" s="8" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="J157" s="21">
         <v>0.0</v>
@@ -9437,13 +9453,13 @@
         <v>156.0</v>
       </c>
       <c r="B158" s="20" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C158" s="21">
         <v>0.0</v>
       </c>
       <c r="D158" s="22" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="E158" s="8">
         <v>2.0</v>
@@ -9458,7 +9474,7 @@
         <v>0.0</v>
       </c>
       <c r="I158" s="8" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="J158" s="21">
         <v>0.0</v>
@@ -9475,13 +9491,13 @@
         <v>157.0</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C159" s="8">
         <v>0.0</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="E159" s="8">
         <v>2.0</v>
@@ -9496,7 +9512,7 @@
         <v>0.0</v>
       </c>
       <c r="I159" s="8" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="J159" s="21">
         <v>0.0</v>
@@ -9513,13 +9529,13 @@
         <v>158.0</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C160" s="25">
         <v>0.0</v>
       </c>
       <c r="D160" s="25" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="E160" s="8">
         <v>2.0</v>
@@ -9534,10 +9550,10 @@
         <v>0.0</v>
       </c>
       <c r="I160" s="8" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="J160" s="8" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="K160" s="8">
         <v>199.0</v>
@@ -9551,13 +9567,13 @@
         <v>159.0</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C161" s="25">
         <v>0.0</v>
       </c>
       <c r="D161" s="25" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="E161" s="8">
         <v>2.0</v>
@@ -9572,10 +9588,10 @@
         <v>0.0</v>
       </c>
       <c r="I161" s="8" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="J161" s="8" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="K161" s="8">
         <v>112.0</v>
@@ -9589,13 +9605,13 @@
         <v>160.0</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C162" s="25">
         <v>0.0</v>
       </c>
       <c r="D162" s="25" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E162" s="8">
         <v>2.0</v>
@@ -9610,10 +9626,10 @@
         <v>0.0</v>
       </c>
       <c r="I162" s="8" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="J162" s="8" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="K162" s="8">
         <v>143.0</v>
@@ -9627,13 +9643,13 @@
         <v>161.0</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C163" s="25">
         <v>0.0</v>
       </c>
       <c r="D163" s="25" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="E163" s="8">
         <v>2.0</v>
@@ -9648,10 +9664,10 @@
         <v>0.0</v>
       </c>
       <c r="I163" s="8" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="J163" s="8" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="K163" s="8">
         <v>146.0</v>
@@ -9665,13 +9681,13 @@
         <v>162.0</v>
       </c>
       <c r="B164" s="26" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C164" s="25">
         <v>0.0</v>
       </c>
       <c r="D164" s="25" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="E164" s="8">
         <v>2.0</v>
@@ -9686,7 +9702,7 @@
         <v>0.0</v>
       </c>
       <c r="I164" s="8" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="J164" s="8">
         <v>0.0</v>
@@ -9703,13 +9719,13 @@
         <v>163.0</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C165" s="8">
         <v>0.0</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="E165" s="8">
         <v>2.0</v>
@@ -9724,10 +9740,10 @@
         <v>0.0</v>
       </c>
       <c r="I165" s="8" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="J165" s="8" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="K165" s="8">
         <v>201.0</v>
@@ -9741,13 +9757,13 @@
         <v>164.0</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C166" s="8">
         <v>0.0</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="E166" s="8">
         <v>2.0</v>
@@ -9762,10 +9778,10 @@
         <v>0.0</v>
       </c>
       <c r="I166" s="8" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="J166" s="8" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="K166" s="8">
         <v>86.0</v>
@@ -9779,13 +9795,13 @@
         <v>165.0</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C167" s="8">
         <v>0.0</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="E167" s="8">
         <v>2.0</v>
@@ -9800,10 +9816,10 @@
         <v>0.0</v>
       </c>
       <c r="I167" s="8" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="J167" s="8" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="K167" s="8">
         <v>141.0</v>
@@ -9817,13 +9833,13 @@
         <v>166.0</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C168" s="19">
         <v>0.0</v>
       </c>
       <c r="D168" s="19" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="E168" s="8">
         <v>2.0</v>
@@ -9838,7 +9854,7 @@
         <v>0.0</v>
       </c>
       <c r="I168" s="8" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="J168" s="8">
         <v>0.0</v>
@@ -9855,13 +9871,13 @@
         <v>167.0</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C169" s="8">
         <v>0.0</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="E169" s="8">
         <v>2.0</v>
@@ -9876,10 +9892,10 @@
         <v>0.0</v>
       </c>
       <c r="I169" s="8" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="J169" s="8" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="K169" s="8">
         <v>81.0</v>
@@ -9893,13 +9909,13 @@
         <v>168.0</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="C170" s="8">
         <v>0.0</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="E170" s="8">
         <v>2.0</v>
@@ -9914,7 +9930,7 @@
         <v>0.0</v>
       </c>
       <c r="I170" s="8" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="J170" s="27">
         <v>35107.0</v>
@@ -9931,13 +9947,13 @@
         <v>169.0</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C171" s="8">
         <v>0.0</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="E171" s="8">
         <v>2.0</v>
@@ -9952,10 +9968,10 @@
         <v>0.0</v>
       </c>
       <c r="I171" s="8" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="J171" s="8" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="K171" s="8">
         <v>139.0</v>
@@ -9969,13 +9985,13 @@
         <v>170.0</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C172" s="8">
         <v>0.0</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="E172" s="8">
         <v>2.0</v>
@@ -9990,10 +10006,10 @@
         <v>0.0</v>
       </c>
       <c r="I172" s="8" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="J172" s="8" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="K172" s="8">
         <v>194.0</v>
@@ -10007,13 +10023,13 @@
         <v>171.0</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="C173" s="8">
         <v>0.0</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="E173" s="8">
         <v>2.0</v>
@@ -10028,10 +10044,10 @@
         <v>0.0</v>
       </c>
       <c r="I173" s="8" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="J173" s="8" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="K173" s="8">
         <v>83.0</v>
@@ -10045,13 +10061,13 @@
         <v>172.0</v>
       </c>
       <c r="B174" s="15" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C174" s="25">
         <v>0.0</v>
       </c>
       <c r="D174" s="25" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="E174" s="8">
         <v>2.0</v>
@@ -10066,7 +10082,7 @@
         <v>0.0</v>
       </c>
       <c r="I174" s="8" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="J174" s="8">
         <v>0.0</v>
@@ -10083,13 +10099,13 @@
         <v>173.0</v>
       </c>
       <c r="B175" s="15" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="C175" s="8">
         <v>0.0</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="E175" s="8">
         <v>2.0</v>
@@ -10104,10 +10120,10 @@
         <v>0.0</v>
       </c>
       <c r="I175" s="8" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="J175" s="17" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="K175" s="8">
         <v>197.0</v>
@@ -10121,13 +10137,13 @@
         <v>174.0</v>
       </c>
       <c r="B176" s="15" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C176" s="8">
         <v>0.0</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="E176" s="8">
         <v>2.0</v>
@@ -10142,10 +10158,10 @@
         <v>0.0</v>
       </c>
       <c r="I176" s="8" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="J176" s="17" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="K176" s="8">
         <v>226.0</v>
@@ -10159,13 +10175,13 @@
         <v>175.0</v>
       </c>
       <c r="B177" s="15" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C177" s="8">
         <v>0.0</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="E177" s="8">
         <v>2.0</v>
@@ -10180,10 +10196,10 @@
         <v>0.0</v>
       </c>
       <c r="I177" s="8" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="J177" s="17" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="K177" s="8">
         <v>225.0</v>
@@ -10197,13 +10213,13 @@
         <v>176.0</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="C178" s="8">
         <v>0.0</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="E178" s="8">
         <v>2.0</v>
@@ -10218,10 +10234,10 @@
         <v>0.0</v>
       </c>
       <c r="I178" s="8" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="J178" s="17" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="K178" s="8">
         <v>111.0</v>
@@ -10235,13 +10251,13 @@
         <v>177.0</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="C179" s="25">
         <v>0.0</v>
       </c>
       <c r="D179" s="25" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="E179" s="8">
         <v>2.0</v>
@@ -10256,10 +10272,10 @@
         <v>0.0</v>
       </c>
       <c r="I179" s="8" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="J179" s="17" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="K179" s="8">
         <v>145.0</v>
@@ -10273,13 +10289,13 @@
         <v>178.0</v>
       </c>
       <c r="B180" s="15" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C180" s="25">
         <v>0.0</v>
       </c>
       <c r="D180" s="25" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="E180" s="8">
         <v>2.0</v>
@@ -10294,7 +10310,7 @@
         <v>0.0</v>
       </c>
       <c r="I180" s="8" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="J180" s="8">
         <v>0.0</v>
@@ -10311,13 +10327,13 @@
         <v>179.0</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="C181" s="8">
         <v>0.0</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="E181" s="8">
         <v>2.0</v>
@@ -10332,10 +10348,10 @@
         <v>0.0</v>
       </c>
       <c r="I181" s="8" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="J181" s="8" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="K181" s="8">
         <v>198.0</v>
@@ -10349,13 +10365,13 @@
         <v>180.0</v>
       </c>
       <c r="B182" s="15" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C182" s="8">
         <v>0.0</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="E182" s="8">
         <v>2.0</v>
@@ -10370,7 +10386,7 @@
         <v>0.0</v>
       </c>
       <c r="I182" s="8" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="J182" s="8">
         <v>0.0</v>
@@ -10387,13 +10403,13 @@
         <v>181.0</v>
       </c>
       <c r="B183" s="15" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="C183" s="8">
         <v>0.0</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="E183" s="8">
         <v>2.0</v>
@@ -10408,7 +10424,7 @@
         <v>0.0</v>
       </c>
       <c r="I183" s="8" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="J183" s="8">
         <v>0.0</v>
@@ -10425,13 +10441,13 @@
         <v>182.0</v>
       </c>
       <c r="B184" s="26" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C184" s="8">
         <v>0.0</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="E184" s="8">
         <v>2.0</v>
@@ -10446,7 +10462,7 @@
         <v>0.0</v>
       </c>
       <c r="I184" s="8" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="J184" s="8">
         <v>0.0</v>
@@ -10463,13 +10479,13 @@
         <v>183.0</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C185" s="25">
         <v>0.0</v>
       </c>
       <c r="D185" s="25" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="E185" s="8">
         <v>2.0</v>
@@ -10484,7 +10500,7 @@
         <v>0.0</v>
       </c>
       <c r="I185" s="8" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="J185" s="8">
         <v>0.0</v>
@@ -10501,13 +10517,13 @@
         <v>184.0</v>
       </c>
       <c r="B186" s="15" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C186" s="25">
         <v>0.0</v>
       </c>
       <c r="D186" s="25" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="E186" s="8">
         <v>2.0</v>
@@ -10522,7 +10538,7 @@
         <v>0.0</v>
       </c>
       <c r="I186" s="8" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="J186" s="8">
         <v>0.0</v>
@@ -10539,13 +10555,13 @@
         <v>185.0</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C187" s="8">
         <v>0.0</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="E187" s="8">
         <v>2.0</v>
@@ -10560,7 +10576,7 @@
         <v>0.0</v>
       </c>
       <c r="I187" s="8" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="J187" s="8">
         <v>0.0</v>
@@ -10577,13 +10593,13 @@
         <v>186.0</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="C188" s="8">
         <v>0.0</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="E188" s="8">
         <v>2.0</v>
@@ -10598,7 +10614,7 @@
         <v>0.0</v>
       </c>
       <c r="I188" s="8" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="J188" s="8">
         <v>0.0</v>
@@ -10615,13 +10631,13 @@
         <v>187.0</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="C189" s="8">
         <v>0.0</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="E189" s="8">
         <v>2.0</v>
@@ -10636,7 +10652,7 @@
         <v>0.0</v>
       </c>
       <c r="I189" s="8" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="J189" s="8">
         <v>0.0</v>
@@ -10653,13 +10669,13 @@
         <v>188.0</v>
       </c>
       <c r="B190" s="15" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="C190" s="25">
         <v>0.0</v>
       </c>
       <c r="D190" s="25" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="E190" s="8">
         <v>2.0</v>
@@ -10674,7 +10690,7 @@
         <v>0.0</v>
       </c>
       <c r="I190" s="8" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="J190" s="8">
         <v>0.0</v>
@@ -10691,13 +10707,13 @@
         <v>189.0</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C191" s="25">
         <v>0.0</v>
       </c>
       <c r="D191" s="25" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="E191" s="8">
         <v>2.0</v>
@@ -10712,7 +10728,7 @@
         <v>0.0</v>
       </c>
       <c r="I191" s="8" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="J191" s="8">
         <v>0.0</v>
@@ -10729,13 +10745,13 @@
         <v>190.0</v>
       </c>
       <c r="B192" s="15" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="C192" s="25">
         <v>0.0</v>
       </c>
       <c r="D192" s="25" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="E192" s="8">
         <v>2.0</v>
@@ -10750,7 +10766,7 @@
         <v>0.0</v>
       </c>
       <c r="I192" s="8" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="J192" s="8">
         <v>0.0</v>
